--- a/tables/variables-2.xlsx
+++ b/tables/variables-2.xlsx
@@ -807,7 +807,7 @@
         <v>12.778</v>
       </c>
       <c r="N2" t="n">
-        <v>12.631</v>
+        <v>12.664</v>
       </c>
       <c r="O2" t="n">
         <v>0.991</v>
@@ -819,7 +819,7 @@
         <v>0.986</v>
       </c>
       <c r="R2" t="n">
-        <v>0.958</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="3">
@@ -863,7 +863,7 @@
         <v>0.326</v>
       </c>
       <c r="N3" t="n">
-        <v>0.446</v>
+        <v>0.439</v>
       </c>
       <c r="O3" t="n">
         <v>0.103</v>
@@ -919,7 +919,7 @@
         <v>2.553</v>
       </c>
       <c r="N4" t="n">
-        <v>2.569</v>
+        <v>2.59</v>
       </c>
       <c r="O4" t="n">
         <v>0.997</v>
@@ -931,7 +931,7 @@
         <v>0.997</v>
       </c>
       <c r="R4" t="n">
-        <v>0.989</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="5">
@@ -975,7 +975,7 @@
         <v>4.661</v>
       </c>
       <c r="N5" t="n">
-        <v>4.901</v>
+        <v>4.968</v>
       </c>
       <c r="O5" t="n">
         <v>0.268</v>
@@ -987,7 +987,7 @@
         <v>0.261</v>
       </c>
       <c r="R5" t="n">
-        <v>0.236</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="6">
@@ -1031,7 +1031,7 @@
         <v>700.749</v>
       </c>
       <c r="N6" t="n">
-        <v>594.219</v>
+        <v>600.767</v>
       </c>
       <c r="O6" t="n">
         <v>0.355</v>
@@ -1043,7 +1043,7 @@
         <v>0.349</v>
       </c>
       <c r="R6" t="n">
-        <v>0.296</v>
+        <v>0.299</v>
       </c>
     </row>
     <row r="7">
@@ -1087,7 +1087,7 @@
         <v>30.168</v>
       </c>
       <c r="N7" t="n">
-        <v>27.019</v>
+        <v>26.695</v>
       </c>
       <c r="O7" t="n">
         <v>0.848</v>
@@ -1099,7 +1099,7 @@
         <v>0.801</v>
       </c>
       <c r="R7" t="n">
-        <v>0.717</v>
+        <v>0.716</v>
       </c>
     </row>
     <row r="8">
@@ -1143,7 +1143,7 @@
         <v>33.574</v>
       </c>
       <c r="N8" t="n">
-        <v>31.941</v>
+        <v>31.803</v>
       </c>
       <c r="O8" t="n">
         <v>0.872</v>
@@ -1155,7 +1155,7 @@
         <v>0.841</v>
       </c>
       <c r="R8" t="n">
-        <v>0.809</v>
+        <v>0.812</v>
       </c>
     </row>
     <row r="9">
@@ -1199,7 +1199,7 @@
         <v>13.12</v>
       </c>
       <c r="N9" t="n">
-        <v>13.151</v>
+        <v>13.069</v>
       </c>
       <c r="O9" t="n">
         <v>0.347</v>
@@ -1211,7 +1211,7 @@
         <v>0.33</v>
       </c>
       <c r="R9" t="n">
-        <v>0.332</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="10">
@@ -1255,7 +1255,7 @@
         <v>1958.581</v>
       </c>
       <c r="N10" t="n">
-        <v>1929.119</v>
+        <v>1926.614</v>
       </c>
       <c r="O10" t="n">
         <v>0.998</v>
@@ -1267,7 +1267,7 @@
         <v>0.996</v>
       </c>
       <c r="R10" t="n">
-        <v>0.979</v>
+        <v>0.978</v>
       </c>
     </row>
     <row r="11">
@@ -1311,7 +1311,7 @@
         <v>1.907</v>
       </c>
       <c r="N11" t="n">
-        <v>1.982</v>
+        <v>1.979</v>
       </c>
       <c r="O11" t="n">
         <v>0.99</v>
@@ -1367,7 +1367,7 @@
         <v>4.85</v>
       </c>
       <c r="N12" t="n">
-        <v>5.227</v>
+        <v>5.203</v>
       </c>
       <c r="O12" t="n">
         <v>0.912</v>
@@ -1379,7 +1379,7 @@
         <v>0.922</v>
       </c>
       <c r="R12" t="n">
-        <v>0.943</v>
+        <v>0.942</v>
       </c>
     </row>
     <row r="13">
@@ -1423,7 +1423,7 @@
         <v>2.089</v>
       </c>
       <c r="N13" t="n">
-        <v>2.038</v>
+        <v>2.021</v>
       </c>
       <c r="O13" t="n">
         <v>0.971</v>
@@ -1479,7 +1479,7 @@
         <v>2.063</v>
       </c>
       <c r="N14" t="n">
-        <v>2.096</v>
+        <v>2.094</v>
       </c>
       <c r="O14" t="n">
         <v>0.982</v>
@@ -1491,7 +1491,7 @@
         <v>0.981</v>
       </c>
       <c r="R14" t="n">
-        <v>0.984</v>
+        <v>0.985</v>
       </c>
     </row>
     <row r="15">
@@ -1535,7 +1535,7 @@
         <v>7.391</v>
       </c>
       <c r="N15" t="n">
-        <v>7.077</v>
+        <v>7.093</v>
       </c>
       <c r="O15" t="n">
         <v>0.996</v>
@@ -1591,7 +1591,7 @@
         <v>2.205</v>
       </c>
       <c r="N16" t="n">
-        <v>2.203</v>
+        <v>2.187</v>
       </c>
       <c r="O16" t="n">
         <v>0.999</v>
@@ -1603,7 +1603,7 @@
         <v>0.999</v>
       </c>
       <c r="R16" t="n">
-        <v>0.996</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="17">
@@ -1647,7 +1647,7 @@
         <v>4.965</v>
       </c>
       <c r="N17" t="n">
-        <v>5.2</v>
+        <v>5.264</v>
       </c>
       <c r="O17" t="n">
         <v>0.965</v>
@@ -1659,7 +1659,7 @@
         <v>0.958</v>
       </c>
       <c r="R17" t="n">
-        <v>0.973</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="18">
@@ -1703,7 +1703,7 @@
         <v>5.208</v>
       </c>
       <c r="N18" t="n">
-        <v>5.366</v>
+        <v>5.438</v>
       </c>
       <c r="O18" t="n">
         <v>0.966</v>
@@ -1759,7 +1759,7 @@
         <v>4.834</v>
       </c>
       <c r="N19" t="n">
-        <v>4.935</v>
+        <v>5.025</v>
       </c>
       <c r="O19" t="n">
         <v>0.962</v>
@@ -1771,7 +1771,7 @@
         <v>0.957</v>
       </c>
       <c r="R19" t="n">
-        <v>0.97</v>
+        <v>0.971</v>
       </c>
     </row>
     <row r="20">
@@ -1815,7 +1815,7 @@
         <v>3.725</v>
       </c>
       <c r="N20" t="n">
-        <v>3.833</v>
+        <v>3.895</v>
       </c>
       <c r="O20" t="n">
         <v>0.906</v>
@@ -1827,7 +1827,7 @@
         <v>0.899</v>
       </c>
       <c r="R20" t="n">
-        <v>0.866</v>
+        <v>0.868</v>
       </c>
     </row>
     <row r="21">
@@ -1871,7 +1871,7 @@
         <v>4.292</v>
       </c>
       <c r="N21" t="n">
-        <v>4.397</v>
+        <v>4.441</v>
       </c>
       <c r="O21" t="n">
         <v>0.892</v>
@@ -1883,7 +1883,7 @@
         <v>0.854</v>
       </c>
       <c r="R21" t="n">
-        <v>0.884</v>
+        <v>0.888</v>
       </c>
     </row>
     <row r="22">
@@ -1927,7 +1927,7 @@
         <v>2.656</v>
       </c>
       <c r="N22" t="n">
-        <v>2.605</v>
+        <v>2.595</v>
       </c>
       <c r="O22" t="n">
         <v>0.997</v>
@@ -1983,7 +1983,7 @@
         <v>5.59</v>
       </c>
       <c r="N23" t="n">
-        <v>5.436</v>
+        <v>5.487</v>
       </c>
       <c r="O23" t="n">
         <v>0.993</v>
@@ -2039,7 +2039,7 @@
         <v>4.962</v>
       </c>
       <c r="N24" t="n">
-        <v>4.742</v>
+        <v>4.825</v>
       </c>
       <c r="O24" t="n">
         <v>0.996</v>
@@ -2095,7 +2095,7 @@
         <v>5.047</v>
       </c>
       <c r="N25" t="n">
-        <v>4.743</v>
+        <v>4.773</v>
       </c>
       <c r="O25" t="n">
         <v>0.998</v>
@@ -2151,7 +2151,7 @@
         <v>4.496</v>
       </c>
       <c r="N26" t="n">
-        <v>4.391</v>
+        <v>4.375</v>
       </c>
       <c r="O26" t="n">
         <v>0.993</v>
@@ -2163,7 +2163,7 @@
         <v>0.99</v>
       </c>
       <c r="R26" t="n">
-        <v>0.984</v>
+        <v>0.985</v>
       </c>
     </row>
     <row r="27">
@@ -2207,7 +2207,7 @@
         <v>5.066</v>
       </c>
       <c r="N27" t="n">
-        <v>5.177</v>
+        <v>5.162</v>
       </c>
       <c r="O27" t="n">
         <v>0.971</v>
@@ -2263,7 +2263,7 @@
         <v>5.128</v>
       </c>
       <c r="N28" t="n">
-        <v>4.804</v>
+        <v>4.762</v>
       </c>
       <c r="O28" t="n">
         <v>0.984</v>
@@ -2275,7 +2275,7 @@
         <v>0.975</v>
       </c>
       <c r="R28" t="n">
-        <v>0.981</v>
+        <v>0.982</v>
       </c>
     </row>
     <row r="29">
@@ -2319,7 +2319,7 @@
         <v>5.596</v>
       </c>
       <c r="N29" t="n">
-        <v>4.967</v>
+        <v>5.003</v>
       </c>
       <c r="O29" t="n">
         <v>0.958</v>
@@ -2331,7 +2331,7 @@
         <v>0.962</v>
       </c>
       <c r="R29" t="n">
-        <v>0.963</v>
+        <v>0.964</v>
       </c>
     </row>
     <row r="30">
@@ -2375,7 +2375,7 @@
         <v>4.307</v>
       </c>
       <c r="N30" t="n">
-        <v>4.282</v>
+        <v>4.274</v>
       </c>
       <c r="O30" t="n">
         <v>0.971</v>
@@ -2387,7 +2387,7 @@
         <v>0.965</v>
       </c>
       <c r="R30" t="n">
-        <v>0.978</v>
+        <v>0.979</v>
       </c>
     </row>
     <row r="31">
@@ -2431,7 +2431,7 @@
         <v>5.5</v>
       </c>
       <c r="N31" t="n">
-        <v>5.447</v>
+        <v>5.449</v>
       </c>
       <c r="O31" t="n">
         <v>0.993</v>
@@ -2487,7 +2487,7 @@
         <v>7.074</v>
       </c>
       <c r="N32" t="n">
-        <v>6.923</v>
+        <v>6.932</v>
       </c>
       <c r="O32" t="n">
         <v>0.997</v>
@@ -2499,7 +2499,7 @@
         <v>0.995</v>
       </c>
       <c r="R32" t="n">
-        <v>0.99</v>
+        <v>0.991</v>
       </c>
     </row>
     <row r="33">
@@ -2543,7 +2543,7 @@
         <v>4.154</v>
       </c>
       <c r="N33" t="n">
-        <v>4.302</v>
+        <v>4.283</v>
       </c>
       <c r="O33" t="n">
         <v>0.918</v>
@@ -2599,7 +2599,7 @@
         <v>5.226</v>
       </c>
       <c r="N34" t="n">
-        <v>5.158</v>
+        <v>5.162</v>
       </c>
       <c r="O34" t="n">
         <v>0.981</v>
@@ -2655,7 +2655,7 @@
         <v>6.371</v>
       </c>
       <c r="N35" t="n">
-        <v>6.259</v>
+        <v>6.21</v>
       </c>
       <c r="O35" t="n">
         <v>0.993</v>
@@ -2667,7 +2667,7 @@
         <v>0.993</v>
       </c>
       <c r="R35" t="n">
-        <v>0.991</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="36">
@@ -2711,7 +2711,7 @@
         <v>3.59</v>
       </c>
       <c r="N36" t="n">
-        <v>3.452</v>
+        <v>3.436</v>
       </c>
       <c r="O36" t="n">
         <v>0.987</v>
@@ -2767,7 +2767,7 @@
         <v>4.419</v>
       </c>
       <c r="N37" t="n">
-        <v>4.471</v>
+        <v>4.433</v>
       </c>
       <c r="O37" t="n">
         <v>0.98</v>
@@ -2779,7 +2779,7 @@
         <v>0.977</v>
       </c>
       <c r="R37" t="n">
-        <v>0.983</v>
+        <v>0.982</v>
       </c>
     </row>
     <row r="38">
@@ -2823,7 +2823,7 @@
         <v>3.534</v>
       </c>
       <c r="N38" t="n">
-        <v>3.424</v>
+        <v>3.41</v>
       </c>
       <c r="O38" t="n">
         <v>0.982</v>
@@ -2879,7 +2879,7 @@
         <v>4.708</v>
       </c>
       <c r="N39" t="n">
-        <v>4.704</v>
+        <v>4.681</v>
       </c>
       <c r="O39" t="n">
         <v>0.92</v>
@@ -2935,7 +2935,7 @@
         <v>5.429</v>
       </c>
       <c r="N40" t="n">
-        <v>5.36</v>
+        <v>5.405</v>
       </c>
       <c r="O40" t="n">
         <v>0.911</v>
@@ -2947,7 +2947,7 @@
         <v>0.904</v>
       </c>
       <c r="R40" t="n">
-        <v>0.871</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="41">
@@ -2991,7 +2991,7 @@
         <v>0.277</v>
       </c>
       <c r="N41" t="n">
-        <v>0.26</v>
+        <v>0.269</v>
       </c>
       <c r="O41" t="n">
         <v>0.994</v>
@@ -3003,7 +3003,7 @@
         <v>0.996</v>
       </c>
       <c r="R41" t="n">
-        <v>0.973</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="42">
@@ -3047,7 +3047,7 @@
         <v>0.902</v>
       </c>
       <c r="N42" t="n">
-        <v>0.915</v>
+        <v>0.907</v>
       </c>
       <c r="O42" t="n">
         <v>1</v>
@@ -3059,7 +3059,7 @@
         <v>0.999</v>
       </c>
       <c r="R42" t="n">
-        <v>0.996</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="43">
@@ -3103,7 +3103,7 @@
         <v>0.345</v>
       </c>
       <c r="N43" t="n">
-        <v>0.316</v>
+        <v>0.312</v>
       </c>
       <c r="O43" t="n">
         <v>0.638</v>
@@ -3115,7 +3115,7 @@
         <v>0.648</v>
       </c>
       <c r="R43" t="n">
-        <v>0.649</v>
+        <v>0.645</v>
       </c>
     </row>
     <row r="44">
@@ -3159,7 +3159,7 @@
         <v>0.465</v>
       </c>
       <c r="N44" t="n">
-        <v>0.452</v>
+        <v>0.448</v>
       </c>
       <c r="O44" t="n">
         <v>0.979</v>
@@ -3171,7 +3171,7 @@
         <v>0.973</v>
       </c>
       <c r="R44" t="n">
-        <v>0.974</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="45">
@@ -3215,7 +3215,7 @@
         <v>0.133</v>
       </c>
       <c r="N45" t="n">
-        <v>0.104</v>
+        <v>0.106</v>
       </c>
       <c r="O45" t="n">
         <v>0.997</v>
@@ -3227,7 +3227,7 @@
         <v>0.996</v>
       </c>
       <c r="R45" t="n">
-        <v>0.993</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="46">
@@ -3327,7 +3327,7 @@
         <v>0.952</v>
       </c>
       <c r="N47" t="n">
-        <v>0.95</v>
+        <v>0.947</v>
       </c>
       <c r="O47" t="n">
         <v>0.999</v>
@@ -3551,7 +3551,7 @@
         <v>0.009</v>
       </c>
       <c r="N51" t="n">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="O51" t="n">
         <v>1</v>
@@ -3607,7 +3607,7 @@
         <v>0.01</v>
       </c>
       <c r="N52" t="n">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="O52" t="n">
         <v>1</v>
@@ -3663,7 +3663,7 @@
         <v>0.075</v>
       </c>
       <c r="N53" t="n">
-        <v>0.087</v>
+        <v>0.095</v>
       </c>
       <c r="O53" t="n">
         <v>0.991</v>
@@ -3719,7 +3719,7 @@
         <v>0.007</v>
       </c>
       <c r="N54" t="n">
-        <v>0.011</v>
+        <v>0.014</v>
       </c>
       <c r="O54" t="n">
         <v>1</v>
@@ -3831,7 +3831,7 @@
         <v>0.925</v>
       </c>
       <c r="N56" t="n">
-        <v>0.911</v>
+        <v>0.903</v>
       </c>
       <c r="O56" t="n">
         <v>1</v>
@@ -3887,7 +3887,7 @@
         <v>0.015</v>
       </c>
       <c r="N57" t="n">
-        <v>0.019</v>
+        <v>0.022</v>
       </c>
       <c r="O57" t="n">
         <v>1</v>
@@ -3943,7 +3943,7 @@
         <v>0.019</v>
       </c>
       <c r="N58" t="n">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="O58" t="n">
         <v>1</v>
@@ -3999,7 +3999,7 @@
         <v>0.009</v>
       </c>
       <c r="N59" t="n">
-        <v>0.012</v>
+        <v>0.014</v>
       </c>
       <c r="O59" t="n">
         <v>1</v>
@@ -4055,7 +4055,7 @@
         <v>0.001</v>
       </c>
       <c r="N60" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="O60" t="n">
         <v>1</v>
@@ -4111,7 +4111,7 @@
         <v>0.013</v>
       </c>
       <c r="N61" t="n">
-        <v>0.015</v>
+        <v>0.019</v>
       </c>
       <c r="O61" t="n">
         <v>1</v>
@@ -4167,7 +4167,7 @@
         <v>0.005</v>
       </c>
       <c r="N62" t="n">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="O62" t="n">
         <v>1</v>
@@ -4223,7 +4223,7 @@
         <v>0.156</v>
       </c>
       <c r="N63" t="n">
-        <v>0.148</v>
+        <v>0.15</v>
       </c>
       <c r="O63" t="n">
         <v>0.993</v>
@@ -4235,7 +4235,7 @@
         <v>0.996</v>
       </c>
       <c r="R63" t="n">
-        <v>0.978</v>
+        <v>0.977</v>
       </c>
     </row>
     <row r="64">
@@ -4279,7 +4279,7 @@
         <v>0.79</v>
       </c>
       <c r="N64" t="n">
-        <v>0.756</v>
+        <v>0.757</v>
       </c>
       <c r="O64" t="n">
         <v>0.917</v>
@@ -4291,7 +4291,7 @@
         <v>0.908</v>
       </c>
       <c r="R64" t="n">
-        <v>0.876</v>
+        <v>0.877</v>
       </c>
     </row>
     <row r="65">
@@ -4335,7 +4335,7 @@
         <v>0.86</v>
       </c>
       <c r="N65" t="n">
-        <v>0.874</v>
+        <v>0.86</v>
       </c>
       <c r="O65" t="n">
         <v>0.994</v>
@@ -4391,7 +4391,7 @@
         <v>0.465</v>
       </c>
       <c r="N66" t="n">
-        <v>0.468</v>
+        <v>0.466</v>
       </c>
       <c r="O66" t="n">
         <v>0.999</v>
@@ -4403,7 +4403,7 @@
         <v>1</v>
       </c>
       <c r="R66" t="n">
-        <v>0.99</v>
+        <v>0.989</v>
       </c>
     </row>
     <row r="67">
@@ -4447,7 +4447,7 @@
         <v>0.358</v>
       </c>
       <c r="N67" t="n">
-        <v>0.296</v>
+        <v>0.294</v>
       </c>
       <c r="O67" t="n">
         <v>0.868</v>
@@ -4459,7 +4459,7 @@
         <v>0.89</v>
       </c>
       <c r="R67" t="n">
-        <v>0.863</v>
+        <v>0.854</v>
       </c>
     </row>
     <row r="68">
@@ -4503,7 +4503,7 @@
         <v>0.867</v>
       </c>
       <c r="N68" t="n">
-        <v>0.878</v>
+        <v>0.865</v>
       </c>
       <c r="O68" t="n">
         <v>0.998</v>
@@ -4515,7 +4515,7 @@
         <v>0.998</v>
       </c>
       <c r="R68" t="n">
-        <v>0.992</v>
+        <v>0.991</v>
       </c>
     </row>
     <row r="69">
@@ -4559,7 +4559,7 @@
         <v>0.354</v>
       </c>
       <c r="N69" t="n">
-        <v>0.312</v>
+        <v>0.315</v>
       </c>
       <c r="O69" t="n">
         <v>0.455</v>
@@ -4615,7 +4615,7 @@
         <v>0.595</v>
       </c>
       <c r="N70" t="n">
-        <v>0.624</v>
+        <v>0.611</v>
       </c>
       <c r="O70" t="n">
         <v>0.996</v>
@@ -4627,7 +4627,7 @@
         <v>0.993</v>
       </c>
       <c r="R70" t="n">
-        <v>0.991</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="71">
@@ -4671,7 +4671,7 @@
         <v>0.105</v>
       </c>
       <c r="N71" t="n">
-        <v>0.074</v>
+        <v>0.086</v>
       </c>
       <c r="O71" t="n">
         <v>0.422</v>
@@ -4683,7 +4683,7 @@
         <v>0.399</v>
       </c>
       <c r="R71" t="n">
-        <v>0.37</v>
+        <v>0.383</v>
       </c>
     </row>
     <row r="72">
@@ -4727,7 +4727,7 @@
         <v>#NUM!</v>
       </c>
       <c r="N72" t="n">
-        <v>0.535</v>
+        <v>0.538</v>
       </c>
       <c r="O72" t="e">
         <v>#NUM!</v>
@@ -4739,7 +4739,7 @@
         <v>#NUM!</v>
       </c>
       <c r="R72" t="n">
-        <v>0.982</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="73">
@@ -4783,7 +4783,7 @@
         <v>0.134</v>
       </c>
       <c r="N73" t="n">
-        <v>0.13</v>
+        <v>0.127</v>
       </c>
       <c r="O73" t="n">
         <v>0.281</v>
@@ -4795,7 +4795,7 @@
         <v>0.285</v>
       </c>
       <c r="R73" t="n">
-        <v>0.272</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="74">
@@ -4839,7 +4839,7 @@
         <v>0.287</v>
       </c>
       <c r="N74" t="n">
-        <v>0.274</v>
+        <v>0.273</v>
       </c>
       <c r="O74" t="n">
         <v>0.996</v>
@@ -4851,7 +4851,7 @@
         <v>0.994</v>
       </c>
       <c r="R74" t="n">
-        <v>0.972</v>
+        <v>0.971</v>
       </c>
     </row>
     <row r="75">
@@ -4895,7 +4895,7 @@
         <v>0.12</v>
       </c>
       <c r="N75" t="n">
-        <v>0.112</v>
+        <v>0.111</v>
       </c>
       <c r="O75" t="n">
         <v>0.281</v>
@@ -4907,7 +4907,7 @@
         <v>0.285</v>
       </c>
       <c r="R75" t="n">
-        <v>0.272</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="76">
@@ -4963,7 +4963,7 @@
         <v>0.988</v>
       </c>
       <c r="R76" t="n">
-        <v>0.987</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="77">
@@ -5007,7 +5007,7 @@
         <v>0.065</v>
       </c>
       <c r="N77" t="n">
-        <v>0.056</v>
+        <v>0.057</v>
       </c>
       <c r="O77" t="n">
         <v>0.918</v>
@@ -5019,7 +5019,7 @@
         <v>0.914</v>
       </c>
       <c r="R77" t="n">
-        <v>0.877</v>
+        <v>0.878</v>
       </c>
     </row>
   </sheetData>

--- a/tables/variables-2.xlsx
+++ b/tables/variables-2.xlsx
@@ -703,7 +703,7 @@
     <col min="11" max="11" width="8.71" hidden="0" customWidth="1"/>
     <col min="12" max="12" width="8.71" hidden="0" customWidth="1"/>
     <col min="13" max="13" width="8.71" hidden="0" customWidth="1"/>
-    <col min="14" max="14" width="8.71" hidden="0" customWidth="1"/>
+    <col min="14" max="14" width="7.71" hidden="0" customWidth="1"/>
     <col min="15" max="15" width="5.71" hidden="0" customWidth="1"/>
     <col min="16" max="16" width="5.71" hidden="0" customWidth="1"/>
     <col min="17" max="17" width="5.71" hidden="0" customWidth="1"/>
@@ -807,7 +807,7 @@
         <v>12.778</v>
       </c>
       <c r="N2" t="n">
-        <v>12.664</v>
+        <v>12.698</v>
       </c>
       <c r="O2" t="n">
         <v>0.991</v>
@@ -863,7 +863,7 @@
         <v>0.326</v>
       </c>
       <c r="N3" t="n">
-        <v>0.439</v>
+        <v>0.434</v>
       </c>
       <c r="O3" t="n">
         <v>0.103</v>
@@ -919,7 +919,7 @@
         <v>2.553</v>
       </c>
       <c r="N4" t="n">
-        <v>2.59</v>
+        <v>2.595</v>
       </c>
       <c r="O4" t="n">
         <v>0.997</v>
@@ -975,7 +975,7 @@
         <v>4.661</v>
       </c>
       <c r="N5" t="n">
-        <v>4.968</v>
+        <v>4.996</v>
       </c>
       <c r="O5" t="n">
         <v>0.268</v>
@@ -987,7 +987,7 @@
         <v>0.261</v>
       </c>
       <c r="R5" t="n">
-        <v>0.245</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="6">
@@ -1031,7 +1031,7 @@
         <v>700.749</v>
       </c>
       <c r="N6" t="n">
-        <v>600.767</v>
+        <v>598.437</v>
       </c>
       <c r="O6" t="n">
         <v>0.355</v>
@@ -1043,7 +1043,7 @@
         <v>0.349</v>
       </c>
       <c r="R6" t="n">
-        <v>0.299</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="7">
@@ -1087,7 +1087,7 @@
         <v>30.168</v>
       </c>
       <c r="N7" t="n">
-        <v>26.695</v>
+        <v>26.641</v>
       </c>
       <c r="O7" t="n">
         <v>0.848</v>
@@ -1143,7 +1143,7 @@
         <v>33.574</v>
       </c>
       <c r="N8" t="n">
-        <v>31.803</v>
+        <v>31.777</v>
       </c>
       <c r="O8" t="n">
         <v>0.872</v>
@@ -1199,7 +1199,7 @@
         <v>13.12</v>
       </c>
       <c r="N9" t="n">
-        <v>13.069</v>
+        <v>13.103</v>
       </c>
       <c r="O9" t="n">
         <v>0.347</v>
@@ -1211,7 +1211,7 @@
         <v>0.33</v>
       </c>
       <c r="R9" t="n">
-        <v>0.331</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="10">
@@ -1255,7 +1255,7 @@
         <v>1958.581</v>
       </c>
       <c r="N10" t="n">
-        <v>1926.614</v>
+        <v>1926.66</v>
       </c>
       <c r="O10" t="n">
         <v>0.998</v>
@@ -1311,7 +1311,7 @@
         <v>1.907</v>
       </c>
       <c r="N11" t="n">
-        <v>1.979</v>
+        <v>1.98</v>
       </c>
       <c r="O11" t="n">
         <v>0.99</v>
@@ -1367,7 +1367,7 @@
         <v>4.85</v>
       </c>
       <c r="N12" t="n">
-        <v>5.203</v>
+        <v>5.207</v>
       </c>
       <c r="O12" t="n">
         <v>0.912</v>
@@ -1423,7 +1423,7 @@
         <v>2.089</v>
       </c>
       <c r="N13" t="n">
-        <v>2.021</v>
+        <v>2.02</v>
       </c>
       <c r="O13" t="n">
         <v>0.971</v>
@@ -1479,7 +1479,7 @@
         <v>2.063</v>
       </c>
       <c r="N14" t="n">
-        <v>2.094</v>
+        <v>2.093</v>
       </c>
       <c r="O14" t="n">
         <v>0.982</v>
@@ -1535,7 +1535,7 @@
         <v>7.391</v>
       </c>
       <c r="N15" t="n">
-        <v>7.093</v>
+        <v>7.083</v>
       </c>
       <c r="O15" t="n">
         <v>0.996</v>
@@ -1591,7 +1591,7 @@
         <v>2.205</v>
       </c>
       <c r="N16" t="n">
-        <v>2.187</v>
+        <v>2.181</v>
       </c>
       <c r="O16" t="n">
         <v>0.999</v>
@@ -1603,7 +1603,7 @@
         <v>0.999</v>
       </c>
       <c r="R16" t="n">
-        <v>0.995</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="17">
@@ -1647,7 +1647,7 @@
         <v>4.965</v>
       </c>
       <c r="N17" t="n">
-        <v>5.264</v>
+        <v>5.251</v>
       </c>
       <c r="O17" t="n">
         <v>0.965</v>
@@ -1659,7 +1659,7 @@
         <v>0.958</v>
       </c>
       <c r="R17" t="n">
-        <v>0.974</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="18">
@@ -1703,7 +1703,7 @@
         <v>5.208</v>
       </c>
       <c r="N18" t="n">
-        <v>5.438</v>
+        <v>5.419</v>
       </c>
       <c r="O18" t="n">
         <v>0.966</v>
@@ -1715,7 +1715,7 @@
         <v>0.961</v>
       </c>
       <c r="R18" t="n">
-        <v>0.975</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="19">
@@ -1759,7 +1759,7 @@
         <v>4.834</v>
       </c>
       <c r="N19" t="n">
-        <v>5.025</v>
+        <v>5.011</v>
       </c>
       <c r="O19" t="n">
         <v>0.962</v>
@@ -1771,7 +1771,7 @@
         <v>0.957</v>
       </c>
       <c r="R19" t="n">
-        <v>0.971</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="20">
@@ -1815,7 +1815,7 @@
         <v>3.725</v>
       </c>
       <c r="N20" t="n">
-        <v>3.895</v>
+        <v>3.896</v>
       </c>
       <c r="O20" t="n">
         <v>0.906</v>
@@ -1871,7 +1871,7 @@
         <v>4.292</v>
       </c>
       <c r="N21" t="n">
-        <v>4.441</v>
+        <v>4.453</v>
       </c>
       <c r="O21" t="n">
         <v>0.892</v>
@@ -1883,7 +1883,7 @@
         <v>0.854</v>
       </c>
       <c r="R21" t="n">
-        <v>0.888</v>
+        <v>0.889</v>
       </c>
     </row>
     <row r="22">
@@ -1927,7 +1927,7 @@
         <v>2.656</v>
       </c>
       <c r="N22" t="n">
-        <v>2.595</v>
+        <v>2.597</v>
       </c>
       <c r="O22" t="n">
         <v>0.997</v>
@@ -1983,7 +1983,7 @@
         <v>5.59</v>
       </c>
       <c r="N23" t="n">
-        <v>5.487</v>
+        <v>5.464</v>
       </c>
       <c r="O23" t="n">
         <v>0.993</v>
@@ -2039,7 +2039,7 @@
         <v>4.962</v>
       </c>
       <c r="N24" t="n">
-        <v>4.825</v>
+        <v>4.803</v>
       </c>
       <c r="O24" t="n">
         <v>0.996</v>
@@ -2095,7 +2095,7 @@
         <v>5.047</v>
       </c>
       <c r="N25" t="n">
-        <v>4.773</v>
+        <v>4.75</v>
       </c>
       <c r="O25" t="n">
         <v>0.998</v>
@@ -2151,7 +2151,7 @@
         <v>4.496</v>
       </c>
       <c r="N26" t="n">
-        <v>4.375</v>
+        <v>4.388</v>
       </c>
       <c r="O26" t="n">
         <v>0.993</v>
@@ -2207,7 +2207,7 @@
         <v>5.066</v>
       </c>
       <c r="N27" t="n">
-        <v>5.162</v>
+        <v>5.146</v>
       </c>
       <c r="O27" t="n">
         <v>0.971</v>
@@ -2263,7 +2263,7 @@
         <v>5.128</v>
       </c>
       <c r="N28" t="n">
-        <v>4.762</v>
+        <v>4.748</v>
       </c>
       <c r="O28" t="n">
         <v>0.984</v>
@@ -2319,7 +2319,7 @@
         <v>5.596</v>
       </c>
       <c r="N29" t="n">
-        <v>5.003</v>
+        <v>4.983</v>
       </c>
       <c r="O29" t="n">
         <v>0.958</v>
@@ -2331,7 +2331,7 @@
         <v>0.962</v>
       </c>
       <c r="R29" t="n">
-        <v>0.964</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="30">
@@ -2375,7 +2375,7 @@
         <v>4.307</v>
       </c>
       <c r="N30" t="n">
-        <v>4.274</v>
+        <v>4.266</v>
       </c>
       <c r="O30" t="n">
         <v>0.971</v>
@@ -2431,7 +2431,7 @@
         <v>5.5</v>
       </c>
       <c r="N31" t="n">
-        <v>5.449</v>
+        <v>5.439</v>
       </c>
       <c r="O31" t="n">
         <v>0.993</v>
@@ -2487,7 +2487,7 @@
         <v>7.074</v>
       </c>
       <c r="N32" t="n">
-        <v>6.932</v>
+        <v>6.922</v>
       </c>
       <c r="O32" t="n">
         <v>0.997</v>
@@ -2543,7 +2543,7 @@
         <v>4.154</v>
       </c>
       <c r="N33" t="n">
-        <v>4.283</v>
+        <v>4.285</v>
       </c>
       <c r="O33" t="n">
         <v>0.918</v>
@@ -2599,7 +2599,7 @@
         <v>5.226</v>
       </c>
       <c r="N34" t="n">
-        <v>5.162</v>
+        <v>5.15</v>
       </c>
       <c r="O34" t="n">
         <v>0.981</v>
@@ -2611,7 +2611,7 @@
         <v>0.98</v>
       </c>
       <c r="R34" t="n">
-        <v>0.984</v>
+        <v>0.985</v>
       </c>
     </row>
     <row r="35">
@@ -2655,7 +2655,7 @@
         <v>6.371</v>
       </c>
       <c r="N35" t="n">
-        <v>6.21</v>
+        <v>6.183</v>
       </c>
       <c r="O35" t="n">
         <v>0.993</v>
@@ -2711,7 +2711,7 @@
         <v>3.59</v>
       </c>
       <c r="N36" t="n">
-        <v>3.436</v>
+        <v>3.414</v>
       </c>
       <c r="O36" t="n">
         <v>0.987</v>
@@ -2767,7 +2767,7 @@
         <v>4.419</v>
       </c>
       <c r="N37" t="n">
-        <v>4.433</v>
+        <v>4.42</v>
       </c>
       <c r="O37" t="n">
         <v>0.98</v>
@@ -2779,7 +2779,7 @@
         <v>0.977</v>
       </c>
       <c r="R37" t="n">
-        <v>0.982</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="38">
@@ -2823,7 +2823,7 @@
         <v>3.534</v>
       </c>
       <c r="N38" t="n">
-        <v>3.41</v>
+        <v>3.386</v>
       </c>
       <c r="O38" t="n">
         <v>0.982</v>
@@ -2879,7 +2879,7 @@
         <v>4.708</v>
       </c>
       <c r="N39" t="n">
-        <v>4.681</v>
+        <v>4.666</v>
       </c>
       <c r="O39" t="n">
         <v>0.92</v>
@@ -2891,7 +2891,7 @@
         <v>0.911</v>
       </c>
       <c r="R39" t="n">
-        <v>0.942</v>
+        <v>0.943</v>
       </c>
     </row>
     <row r="40">
@@ -2935,7 +2935,7 @@
         <v>5.429</v>
       </c>
       <c r="N40" t="n">
-        <v>5.405</v>
+        <v>5.418</v>
       </c>
       <c r="O40" t="n">
         <v>0.911</v>
@@ -2991,7 +2991,7 @@
         <v>0.277</v>
       </c>
       <c r="N41" t="n">
-        <v>0.269</v>
+        <v>0.272</v>
       </c>
       <c r="O41" t="n">
         <v>0.994</v>
@@ -3003,7 +3003,7 @@
         <v>0.996</v>
       </c>
       <c r="R41" t="n">
-        <v>0.972</v>
+        <v>0.971</v>
       </c>
     </row>
     <row r="42">
@@ -3103,7 +3103,7 @@
         <v>0.345</v>
       </c>
       <c r="N43" t="n">
-        <v>0.312</v>
+        <v>0.31</v>
       </c>
       <c r="O43" t="n">
         <v>0.638</v>
@@ -3215,7 +3215,7 @@
         <v>0.133</v>
       </c>
       <c r="N45" t="n">
-        <v>0.106</v>
+        <v>0.107</v>
       </c>
       <c r="O45" t="n">
         <v>0.997</v>
@@ -3283,7 +3283,7 @@
         <v>0.46</v>
       </c>
       <c r="R46" t="n">
-        <v>0.439</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="47">
@@ -3327,7 +3327,7 @@
         <v>0.952</v>
       </c>
       <c r="N47" t="n">
-        <v>0.947</v>
+        <v>0.946</v>
       </c>
       <c r="O47" t="n">
         <v>0.999</v>
@@ -3663,7 +3663,7 @@
         <v>0.075</v>
       </c>
       <c r="N53" t="n">
-        <v>0.095</v>
+        <v>0.096</v>
       </c>
       <c r="O53" t="n">
         <v>0.991</v>
@@ -3775,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="O55" t="n">
         <v>1</v>
@@ -3831,7 +3831,7 @@
         <v>0.925</v>
       </c>
       <c r="N56" t="n">
-        <v>0.903</v>
+        <v>0.902</v>
       </c>
       <c r="O56" t="n">
         <v>1</v>
@@ -3887,7 +3887,7 @@
         <v>0.015</v>
       </c>
       <c r="N57" t="n">
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
       <c r="O57" t="n">
         <v>1</v>
@@ -4223,7 +4223,7 @@
         <v>0.156</v>
       </c>
       <c r="N63" t="n">
-        <v>0.15</v>
+        <v>0.149</v>
       </c>
       <c r="O63" t="n">
         <v>0.993</v>
@@ -4291,7 +4291,7 @@
         <v>0.908</v>
       </c>
       <c r="R64" t="n">
-        <v>0.877</v>
+        <v>0.878</v>
       </c>
     </row>
     <row r="65">
@@ -4335,7 +4335,7 @@
         <v>0.86</v>
       </c>
       <c r="N65" t="n">
-        <v>0.86</v>
+        <v>0.861</v>
       </c>
       <c r="O65" t="n">
         <v>0.994</v>
@@ -4391,7 +4391,7 @@
         <v>0.465</v>
       </c>
       <c r="N66" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="O66" t="n">
         <v>0.999</v>
@@ -4559,7 +4559,7 @@
         <v>0.354</v>
       </c>
       <c r="N69" t="n">
-        <v>0.315</v>
+        <v>0.314</v>
       </c>
       <c r="O69" t="n">
         <v>0.455</v>
@@ -4571,7 +4571,7 @@
         <v>0.435</v>
       </c>
       <c r="R69" t="n">
-        <v>0.4</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="70">
@@ -4727,7 +4727,7 @@
         <v>#NUM!</v>
       </c>
       <c r="N72" t="n">
-        <v>0.538</v>
+        <v>0.547</v>
       </c>
       <c r="O72" t="e">
         <v>#NUM!</v>
@@ -4783,7 +4783,7 @@
         <v>0.134</v>
       </c>
       <c r="N73" t="n">
-        <v>0.127</v>
+        <v>0.128</v>
       </c>
       <c r="O73" t="n">
         <v>0.281</v>
@@ -4795,7 +4795,7 @@
         <v>0.285</v>
       </c>
       <c r="R73" t="n">
-        <v>0.271</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="74">
@@ -4839,7 +4839,7 @@
         <v>0.287</v>
       </c>
       <c r="N74" t="n">
-        <v>0.273</v>
+        <v>0.274</v>
       </c>
       <c r="O74" t="n">
         <v>0.996</v>
@@ -4895,7 +4895,7 @@
         <v>0.12</v>
       </c>
       <c r="N75" t="n">
-        <v>0.111</v>
+        <v>0.112</v>
       </c>
       <c r="O75" t="n">
         <v>0.281</v>
@@ -4907,7 +4907,7 @@
         <v>0.285</v>
       </c>
       <c r="R75" t="n">
-        <v>0.27</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="76">

--- a/tables/variables-2.xlsx
+++ b/tables/variables-2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -38,6 +38,9 @@
     <t xml:space="preserve">ESS10SC</t>
   </si>
   <si>
+    <t xml:space="preserve">ESS11</t>
+  </si>
+  <si>
     <t xml:space="preserve">flag</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
     <t xml:space="preserve">R10_Y</t>
   </si>
   <si>
+    <t xml:space="preserve">R11_Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">R07_Z</t>
   </si>
   <si>
@@ -68,6 +74,9 @@
     <t xml:space="preserve">R10_Z</t>
   </si>
   <si>
+    <t xml:space="preserve">R11_Z</t>
+  </si>
+  <si>
     <t xml:space="preserve">eduyrs</t>
   </si>
   <si>
@@ -86,7 +95,7 @@
     <t xml:space="preserve">hhmmb</t>
   </si>
   <si>
-    <t xml:space="preserve">1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,20</t>
+    <t xml:space="preserve">0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,20</t>
   </si>
   <si>
     <t xml:space="preserve">njbspv</t>
@@ -698,16 +707,19 @@
     <col min="6" max="6" width="5.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="5.71" hidden="0" customWidth="1"/>
     <col min="8" max="8" width="7.71" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="4.71" hidden="0" customWidth="1"/>
-    <col min="10" max="10" width="99.71" hidden="0" customWidth="1"/>
-    <col min="11" max="11" width="8.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="5.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="4.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="99.71" hidden="0" customWidth="1"/>
     <col min="12" max="12" width="8.71" hidden="0" customWidth="1"/>
     <col min="13" max="13" width="8.71" hidden="0" customWidth="1"/>
-    <col min="14" max="14" width="7.71" hidden="0" customWidth="1"/>
-    <col min="15" max="15" width="5.71" hidden="0" customWidth="1"/>
-    <col min="16" max="16" width="5.71" hidden="0" customWidth="1"/>
+    <col min="14" max="14" width="8.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="7.71" hidden="0" customWidth="1"/>
+    <col min="16" max="16" width="8.71" hidden="0" customWidth="1"/>
     <col min="17" max="17" width="5.71" hidden="0" customWidth="1"/>
     <col min="18" max="18" width="5.71" hidden="0" customWidth="1"/>
+    <col min="19" max="19" width="5.71" hidden="0" customWidth="1"/>
+    <col min="20" max="20" width="5.71" hidden="0" customWidth="1"/>
+    <col min="21" max="21" width="5.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -765,16 +777,25 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -792,34 +813,43 @@
         <v>1</v>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="n">
         <v>12.79</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>12.911</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>12.778</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>12.698</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
+        <v>13.385</v>
+      </c>
+      <c r="Q2" t="n">
         <v>0.991</v>
       </c>
-      <c r="P2" t="n">
+      <c r="R2" t="n">
         <v>0.99</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="S2" t="n">
         <v>0.986</v>
       </c>
-      <c r="R2" t="n">
+      <c r="T2" t="n">
         <v>0.955</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.987</v>
       </c>
     </row>
     <row r="3">
@@ -827,10 +857,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -848,34 +878,43 @@
         <v>1</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="n">
         <v>0.582</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>0.708</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.326</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>0.434</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="Q3" t="n">
         <v>0.103</v>
       </c>
-      <c r="P3" t="n">
+      <c r="R3" t="n">
         <v>0.105</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="S3" t="n">
         <v>0.097</v>
       </c>
-      <c r="R3" t="n">
+      <c r="T3" t="n">
         <v>0.098</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.091</v>
       </c>
     </row>
     <row r="4">
@@ -883,10 +922,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -904,34 +943,43 @@
         <v>1</v>
       </c>
       <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="n">
         <v>2.635</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>2.614</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>2.553</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>2.595</v>
       </c>
-      <c r="O4" t="n">
-        <v>0.997</v>
-      </c>
       <c r="P4" t="n">
-        <v>0.997</v>
+        <v>2.455</v>
       </c>
       <c r="Q4" t="n">
         <v>0.997</v>
       </c>
       <c r="R4" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="T4" t="n">
         <v>0.988</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.997</v>
       </c>
     </row>
     <row r="5">
@@ -939,10 +987,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -960,34 +1008,43 @@
         <v>1</v>
       </c>
       <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" t="n">
         <v>7.535</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>6.569</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>4.661</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>4.996</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
+        <v>4.922</v>
+      </c>
+      <c r="Q5" t="n">
         <v>0.268</v>
       </c>
-      <c r="P5" t="n">
+      <c r="R5" t="n">
         <v>0.257</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="S5" t="n">
         <v>0.261</v>
       </c>
-      <c r="R5" t="n">
+      <c r="T5" t="n">
         <v>0.248</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.272</v>
       </c>
     </row>
     <row r="6">
@@ -995,10 +1052,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -1016,34 +1073,43 @@
         <v>1</v>
       </c>
       <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" t="n">
         <v>711.195</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>678.719</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>700.749</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>598.437</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
+        <v>705.619</v>
+      </c>
+      <c r="Q6" t="n">
         <v>0.355</v>
       </c>
-      <c r="P6" t="n">
+      <c r="R6" t="n">
         <v>0.338</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="S6" t="n">
         <v>0.349</v>
       </c>
-      <c r="R6" t="n">
+      <c r="T6" t="n">
         <v>0.298</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.351</v>
       </c>
     </row>
     <row r="7">
@@ -1051,10 +1117,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -1072,34 +1138,43 @@
         <v>1</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="n">
         <v>31.091</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>30.315</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>30.168</v>
       </c>
-      <c r="N7" t="n">
-        <v>26.641</v>
-      </c>
       <c r="O7" t="n">
+        <v>85.791</v>
+      </c>
+      <c r="P7" t="n">
+        <v>31.174</v>
+      </c>
+      <c r="Q7" t="n">
         <v>0.848</v>
       </c>
-      <c r="P7" t="n">
+      <c r="R7" t="n">
         <v>0.812</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="S7" t="n">
         <v>0.801</v>
       </c>
-      <c r="R7" t="n">
-        <v>0.716</v>
+      <c r="T7" t="n">
+        <v>0.822</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.855</v>
       </c>
     </row>
     <row r="8">
@@ -1107,10 +1182,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -1128,34 +1203,43 @@
         <v>1</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" t="n">
         <v>34.301</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>34.548</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>33.574</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>31.777</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
+        <v>33.79</v>
+      </c>
+      <c r="Q8" t="n">
         <v>0.872</v>
       </c>
-      <c r="P8" t="n">
+      <c r="R8" t="n">
         <v>0.856</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="S8" t="n">
         <v>0.841</v>
       </c>
-      <c r="R8" t="n">
+      <c r="T8" t="n">
         <v>0.812</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.898</v>
       </c>
     </row>
     <row r="9">
@@ -1163,10 +1247,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -1184,34 +1268,43 @@
         <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" t="n">
         <v>13.701</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>13.045</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>13.12</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>13.103</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
+        <v>12.761</v>
+      </c>
+      <c r="Q9" t="n">
         <v>0.347</v>
       </c>
-      <c r="P9" t="n">
+      <c r="R9" t="n">
         <v>0.327</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="S9" t="n">
         <v>0.33</v>
       </c>
-      <c r="R9" t="n">
+      <c r="T9" t="n">
         <v>0.332</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.354</v>
       </c>
     </row>
     <row r="10">
@@ -1219,10 +1312,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -1240,34 +1333,43 @@
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" t="n">
         <v>1960.296</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>1960.396</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>1958.581</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>1926.66</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
+        <v>1957.711</v>
+      </c>
+      <c r="Q10" t="n">
         <v>0.998</v>
       </c>
-      <c r="P10" t="n">
+      <c r="R10" t="n">
         <v>0.997</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="S10" t="n">
         <v>0.996</v>
       </c>
-      <c r="R10" t="n">
+      <c r="T10" t="n">
         <v>0.978</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.993</v>
       </c>
     </row>
     <row r="11">
@@ -1275,10 +1377,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -1296,34 +1398,43 @@
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" t="n">
         <v>1.913</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>1.918</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>1.907</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>1.98</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="Q11" t="n">
         <v>0.99</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.991</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.992</v>
       </c>
       <c r="R11" t="n">
         <v>0.991</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.992</v>
       </c>
     </row>
     <row r="12">
@@ -1331,10 +1442,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -1352,34 +1463,43 @@
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" t="n">
         <v>4.433</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>4.501</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>4.85</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>5.207</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
+        <v>4.899</v>
+      </c>
+      <c r="Q12" t="n">
         <v>0.912</v>
       </c>
-      <c r="P12" t="n">
+      <c r="R12" t="n">
         <v>0.919</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="S12" t="n">
         <v>0.922</v>
       </c>
-      <c r="R12" t="n">
+      <c r="T12" t="n">
         <v>0.942</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.935</v>
       </c>
     </row>
     <row r="13">
@@ -1387,10 +1507,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -1408,33 +1528,42 @@
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" t="n">
         <v>2.007</v>
       </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
         <v>2.084</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>2.089</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>2.02</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
+        <v>1.958</v>
+      </c>
+      <c r="Q13" t="n">
         <v>0.971</v>
       </c>
-      <c r="P13" t="n">
+      <c r="R13" t="n">
         <v>0.973</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="S13" t="n">
         <v>0.968</v>
       </c>
-      <c r="R13" t="n">
+      <c r="T13" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="U13" t="n">
         <v>0.981</v>
       </c>
     </row>
@@ -1443,10 +1572,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1464,33 +1593,42 @@
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" t="n">
         <v>2.072</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>2.103</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>2.063</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>2.093</v>
       </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
+        <v>2.083</v>
+      </c>
+      <c r="Q14" t="n">
         <v>0.982</v>
       </c>
-      <c r="P14" t="n">
+      <c r="R14" t="n">
         <v>0.985</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="S14" t="n">
         <v>0.981</v>
       </c>
-      <c r="R14" t="n">
+      <c r="T14" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="U14" t="n">
         <v>0.985</v>
       </c>
     </row>
@@ -1499,10 +1637,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -1520,34 +1658,43 @@
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" t="n">
         <v>7.354</v>
       </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
         <v>7.407</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>7.391</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>7.083</v>
       </c>
-      <c r="O15" t="n">
-        <v>0.996</v>
-      </c>
       <c r="P15" t="n">
-        <v>0.995</v>
+        <v>7.604</v>
       </c>
       <c r="Q15" t="n">
         <v>0.996</v>
       </c>
       <c r="R15" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="T15" t="n">
         <v>0.994</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.997</v>
       </c>
     </row>
     <row r="16">
@@ -1555,55 +1702,64 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
         <v>46</v>
       </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>43</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>2.179</v>
       </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
         <v>2.196</v>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>2.205</v>
       </c>
-      <c r="N16" t="n">
+      <c r="O16" t="n">
         <v>2.181</v>
       </c>
-      <c r="O16" t="n">
-        <v>0.999</v>
-      </c>
       <c r="P16" t="n">
-        <v>0.999</v>
+        <v>2.163</v>
       </c>
       <c r="Q16" t="n">
         <v>0.999</v>
       </c>
       <c r="R16" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="T16" t="n">
         <v>0.996</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.999</v>
       </c>
     </row>
     <row r="17">
@@ -1611,10 +1767,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -1632,34 +1788,43 @@
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" t="n">
         <v>4.768</v>
       </c>
-      <c r="L17" t="n">
+      <c r="M17" t="n">
         <v>4.829</v>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>4.965</v>
       </c>
-      <c r="N17" t="n">
+      <c r="O17" t="n">
         <v>5.251</v>
       </c>
-      <c r="O17" t="n">
+      <c r="P17" t="n">
+        <v>5.381</v>
+      </c>
+      <c r="Q17" t="n">
         <v>0.965</v>
       </c>
-      <c r="P17" t="n">
+      <c r="R17" t="n">
         <v>0.965</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="S17" t="n">
         <v>0.958</v>
       </c>
-      <c r="R17" t="n">
+      <c r="T17" t="n">
         <v>0.973</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.975</v>
       </c>
     </row>
     <row r="18">
@@ -1667,10 +1832,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -1688,34 +1853,43 @@
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" t="n">
         <v>5.424</v>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>5.198</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>5.208</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>5.419</v>
       </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
+        <v>5.401</v>
+      </c>
+      <c r="Q18" t="n">
         <v>0.966</v>
       </c>
-      <c r="P18" t="n">
+      <c r="R18" t="n">
         <v>0.968</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="S18" t="n">
         <v>0.961</v>
       </c>
-      <c r="R18" t="n">
+      <c r="T18" t="n">
         <v>0.974</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.978</v>
       </c>
     </row>
     <row r="19">
@@ -1723,10 +1897,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -1744,34 +1918,43 @@
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" t="n">
         <v>4.848</v>
       </c>
-      <c r="L19" t="n">
+      <c r="M19" t="n">
         <v>4.731</v>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>4.834</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>5.011</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
+        <v>5.035</v>
+      </c>
+      <c r="Q19" t="n">
         <v>0.962</v>
       </c>
-      <c r="P19" t="n">
+      <c r="R19" t="n">
         <v>0.965</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="S19" t="n">
         <v>0.957</v>
       </c>
-      <c r="R19" t="n">
+      <c r="T19" t="n">
         <v>0.97</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.973</v>
       </c>
     </row>
     <row r="20">
@@ -1779,10 +1962,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -1800,34 +1983,43 @@
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" t="n">
         <v>3.94</v>
       </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
         <v>3.974</v>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>3.725</v>
       </c>
-      <c r="N20" t="n">
+      <c r="O20" t="n">
         <v>3.896</v>
       </c>
-      <c r="O20" t="n">
+      <c r="P20" t="n">
+        <v>3.854</v>
+      </c>
+      <c r="Q20" t="n">
         <v>0.906</v>
       </c>
-      <c r="P20" t="n">
+      <c r="R20" t="n">
         <v>0.908</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="S20" t="n">
         <v>0.899</v>
       </c>
-      <c r="R20" t="n">
+      <c r="T20" t="n">
         <v>0.868</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.927</v>
       </c>
     </row>
     <row r="21">
@@ -1835,10 +2027,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -1856,34 +2048,43 @@
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" t="n">
         <v>4.528</v>
       </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
         <v>4.482</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>4.292</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>4.453</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
+        <v>4.482</v>
+      </c>
+      <c r="Q21" t="n">
         <v>0.892</v>
       </c>
-      <c r="P21" t="n">
+      <c r="R21" t="n">
         <v>0.869</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="S21" t="n">
         <v>0.854</v>
       </c>
-      <c r="R21" t="n">
+      <c r="T21" t="n">
         <v>0.889</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.895</v>
       </c>
     </row>
     <row r="22">
@@ -1891,10 +2092,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -1912,34 +2113,43 @@
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="s">
-        <v>39</v>
-      </c>
-      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" t="n">
         <v>2.568</v>
       </c>
-      <c r="L22" t="n">
+      <c r="M22" t="n">
         <v>2.582</v>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>2.656</v>
       </c>
-      <c r="N22" t="n">
+      <c r="O22" t="n">
         <v>2.597</v>
       </c>
-      <c r="O22" t="n">
+      <c r="P22" t="n">
+        <v>2.529</v>
+      </c>
+      <c r="Q22" t="n">
         <v>0.997</v>
       </c>
-      <c r="P22" t="n">
+      <c r="R22" t="n">
         <v>0.998</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="S22" t="n">
         <v>0.998</v>
       </c>
-      <c r="R22" t="n">
+      <c r="T22" t="n">
         <v>0.997</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.999</v>
       </c>
     </row>
     <row r="23">
@@ -1947,10 +2157,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -1968,34 +2178,43 @@
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="s">
-        <v>41</v>
-      </c>
-      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" t="n">
         <v>5.764</v>
       </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
         <v>5.765</v>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>5.59</v>
       </c>
-      <c r="N23" t="n">
+      <c r="O23" t="n">
         <v>5.464</v>
       </c>
-      <c r="O23" t="n">
-        <v>0.993</v>
-      </c>
       <c r="P23" t="n">
-        <v>0.993</v>
+        <v>5.964</v>
       </c>
       <c r="Q23" t="n">
         <v>0.993</v>
       </c>
       <c r="R23" t="n">
         <v>0.993</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.995</v>
       </c>
     </row>
     <row r="24">
@@ -2003,10 +2222,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -2024,34 +2243,43 @@
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="s">
-        <v>41</v>
-      </c>
-      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" t="n">
         <v>5.115</v>
       </c>
-      <c r="L24" t="n">
+      <c r="M24" t="n">
         <v>5.19</v>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>4.962</v>
       </c>
-      <c r="N24" t="n">
+      <c r="O24" t="n">
         <v>4.803</v>
       </c>
-      <c r="O24" t="n">
-        <v>0.996</v>
-      </c>
       <c r="P24" t="n">
-        <v>0.996</v>
+        <v>5.485</v>
       </c>
       <c r="Q24" t="n">
         <v>0.996</v>
       </c>
       <c r="R24" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="T24" t="n">
         <v>0.995</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.998</v>
       </c>
     </row>
     <row r="25">
@@ -2059,10 +2287,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -2080,34 +2308,43 @@
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="s">
-        <v>41</v>
-      </c>
-      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" t="n">
         <v>5.201</v>
       </c>
-      <c r="L25" t="n">
+      <c r="M25" t="n">
         <v>5.255</v>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>5.047</v>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
         <v>4.75</v>
       </c>
-      <c r="O25" t="n">
+      <c r="P25" t="n">
+        <v>5.403</v>
+      </c>
+      <c r="Q25" t="n">
         <v>0.998</v>
       </c>
-      <c r="P25" t="n">
+      <c r="R25" t="n">
         <v>0.997</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="S25" t="n">
         <v>0.997</v>
       </c>
-      <c r="R25" t="n">
+      <c r="T25" t="n">
         <v>0.995</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.998</v>
       </c>
     </row>
     <row r="26">
@@ -2115,10 +2352,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -2136,34 +2373,43 @@
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="s">
-        <v>41</v>
-      </c>
-      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" t="n">
         <v>4.309</v>
       </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
         <v>4.46</v>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>4.496</v>
       </c>
-      <c r="N26" t="n">
+      <c r="O26" t="n">
         <v>4.388</v>
       </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
+        <v>4.469</v>
+      </c>
+      <c r="Q26" t="n">
         <v>0.993</v>
       </c>
-      <c r="P26" t="n">
+      <c r="R26" t="n">
         <v>0.991</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="S26" t="n">
         <v>0.99</v>
       </c>
-      <c r="R26" t="n">
+      <c r="T26" t="n">
         <v>0.985</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.994</v>
       </c>
     </row>
     <row r="27">
@@ -2171,10 +2417,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2192,34 +2438,43 @@
         <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="s">
-        <v>41</v>
-      </c>
-      <c r="K27" t="n">
-        <v>5.088</v>
+        <v>1</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>44</v>
       </c>
       <c r="L27" t="n">
         <v>5.088</v>
       </c>
       <c r="M27" t="n">
+        <v>5.088</v>
+      </c>
+      <c r="N27" t="n">
         <v>5.066</v>
       </c>
-      <c r="N27" t="n">
+      <c r="O27" t="n">
         <v>5.146</v>
       </c>
-      <c r="O27" t="n">
+      <c r="P27" t="n">
+        <v>5.369</v>
+      </c>
+      <c r="Q27" t="n">
         <v>0.971</v>
       </c>
-      <c r="P27" t="n">
+      <c r="R27" t="n">
         <v>0.966</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="S27" t="n">
         <v>0.963</v>
       </c>
-      <c r="R27" t="n">
+      <c r="T27" t="n">
         <v>0.98</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.972</v>
       </c>
     </row>
     <row r="28">
@@ -2227,10 +2482,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -2248,34 +2503,43 @@
         <v>1</v>
       </c>
       <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="s">
-        <v>41</v>
-      </c>
-      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" t="n">
         <v>4.688</v>
       </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
         <v>4.936</v>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>5.128</v>
       </c>
-      <c r="N28" t="n">
+      <c r="O28" t="n">
         <v>4.748</v>
       </c>
-      <c r="O28" t="n">
+      <c r="P28" t="n">
+        <v>4.833</v>
+      </c>
+      <c r="Q28" t="n">
         <v>0.984</v>
       </c>
-      <c r="P28" t="n">
+      <c r="R28" t="n">
         <v>0.98</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="S28" t="n">
         <v>0.975</v>
       </c>
-      <c r="R28" t="n">
+      <c r="T28" t="n">
         <v>0.982</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.985</v>
       </c>
     </row>
     <row r="29">
@@ -2283,10 +2547,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -2304,34 +2568,43 @@
         <v>1</v>
       </c>
       <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="s">
-        <v>41</v>
-      </c>
-      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" t="n">
         <v>5.468</v>
       </c>
-      <c r="L29" t="n">
+      <c r="M29" t="n">
         <v>5.569</v>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>5.596</v>
       </c>
-      <c r="N29" t="n">
+      <c r="O29" t="n">
         <v>4.983</v>
       </c>
-      <c r="O29" t="n">
+      <c r="P29" t="n">
+        <v>5.476</v>
+      </c>
+      <c r="Q29" t="n">
         <v>0.958</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0.965</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0.962</v>
       </c>
       <c r="R29" t="n">
         <v>0.965</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.962</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.955</v>
       </c>
     </row>
     <row r="30">
@@ -2339,10 +2612,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -2360,34 +2633,43 @@
         <v>1</v>
       </c>
       <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="s">
-        <v>41</v>
-      </c>
-      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>44</v>
+      </c>
+      <c r="L30" t="n">
         <v>4.079</v>
       </c>
-      <c r="L30" t="n">
+      <c r="M30" t="n">
         <v>4.334</v>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>4.307</v>
       </c>
-      <c r="N30" t="n">
+      <c r="O30" t="n">
         <v>4.266</v>
       </c>
-      <c r="O30" t="n">
+      <c r="P30" t="n">
+        <v>4.222</v>
+      </c>
+      <c r="Q30" t="n">
         <v>0.971</v>
       </c>
-      <c r="P30" t="n">
+      <c r="R30" t="n">
         <v>0.974</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="S30" t="n">
         <v>0.965</v>
       </c>
-      <c r="R30" t="n">
+      <c r="T30" t="n">
         <v>0.979</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.976</v>
       </c>
     </row>
     <row r="31">
@@ -2395,10 +2677,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -2416,34 +2698,43 @@
         <v>1</v>
       </c>
       <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="s">
-        <v>41</v>
-      </c>
-      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" t="n">
         <v>5.65</v>
       </c>
-      <c r="L31" t="n">
+      <c r="M31" t="n">
         <v>5.579</v>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>5.5</v>
       </c>
-      <c r="N31" t="n">
+      <c r="O31" t="n">
         <v>5.439</v>
       </c>
-      <c r="O31" t="n">
-        <v>0.993</v>
-      </c>
       <c r="P31" t="n">
-        <v>0.993</v>
+        <v>5.321</v>
       </c>
       <c r="Q31" t="n">
         <v>0.993</v>
       </c>
       <c r="R31" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="T31" t="n">
         <v>0.992</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.993</v>
       </c>
     </row>
     <row r="32">
@@ -2451,10 +2742,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
@@ -2472,34 +2763,43 @@
         <v>1</v>
       </c>
       <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="s">
-        <v>41</v>
-      </c>
-      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>44</v>
+      </c>
+      <c r="L32" t="n">
         <v>7.07</v>
       </c>
-      <c r="L32" t="n">
+      <c r="M32" t="n">
         <v>7.125</v>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>7.074</v>
       </c>
-      <c r="N32" t="n">
+      <c r="O32" t="n">
         <v>6.922</v>
       </c>
-      <c r="O32" t="n">
+      <c r="P32" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="Q32" t="n">
         <v>0.997</v>
       </c>
-      <c r="P32" t="n">
+      <c r="R32" t="n">
         <v>0.996</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="S32" t="n">
         <v>0.995</v>
       </c>
-      <c r="R32" t="n">
+      <c r="T32" t="n">
         <v>0.991</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.994</v>
       </c>
     </row>
     <row r="33">
@@ -2507,10 +2807,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
@@ -2528,34 +2828,43 @@
         <v>1</v>
       </c>
       <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="s">
-        <v>41</v>
-      </c>
-      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>44</v>
+      </c>
+      <c r="L33" t="n">
         <v>3.843</v>
       </c>
-      <c r="L33" t="n">
+      <c r="M33" t="n">
         <v>3.937</v>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>4.154</v>
       </c>
-      <c r="N33" t="n">
+      <c r="O33" t="n">
         <v>4.285</v>
       </c>
-      <c r="O33" t="n">
+      <c r="P33" t="n">
+        <v>4.481</v>
+      </c>
+      <c r="Q33" t="n">
         <v>0.918</v>
       </c>
-      <c r="P33" t="n">
+      <c r="R33" t="n">
         <v>0.922</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="S33" t="n">
         <v>0.926</v>
       </c>
-      <c r="R33" t="n">
+      <c r="T33" t="n">
         <v>0.953</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.941</v>
       </c>
     </row>
     <row r="34">
@@ -2563,10 +2872,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
@@ -2584,34 +2893,43 @@
         <v>1</v>
       </c>
       <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="s">
-        <v>41</v>
-      </c>
-      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" t="n">
         <v>5.244</v>
       </c>
-      <c r="L34" t="n">
+      <c r="M34" t="n">
         <v>5.314</v>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>5.226</v>
       </c>
-      <c r="N34" t="n">
+      <c r="O34" t="n">
         <v>5.15</v>
       </c>
-      <c r="O34" t="n">
+      <c r="P34" t="n">
+        <v>5.802</v>
+      </c>
+      <c r="Q34" t="n">
         <v>0.981</v>
       </c>
-      <c r="P34" t="n">
+      <c r="R34" t="n">
         <v>0.981</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="S34" t="n">
         <v>0.98</v>
       </c>
-      <c r="R34" t="n">
+      <c r="T34" t="n">
         <v>0.985</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.984</v>
       </c>
     </row>
     <row r="35">
@@ -2619,10 +2937,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
@@ -2640,34 +2958,43 @@
         <v>1</v>
       </c>
       <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="s">
-        <v>41</v>
-      </c>
-      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>44</v>
+      </c>
+      <c r="L35" t="n">
         <v>6.204</v>
       </c>
-      <c r="L35" t="n">
+      <c r="M35" t="n">
         <v>6.353</v>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>6.371</v>
       </c>
-      <c r="N35" t="n">
+      <c r="O35" t="n">
         <v>6.183</v>
       </c>
-      <c r="O35" t="n">
-        <v>0.993</v>
-      </c>
       <c r="P35" t="n">
-        <v>0.993</v>
+        <v>6.718</v>
       </c>
       <c r="Q35" t="n">
         <v>0.993</v>
       </c>
       <c r="R35" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="T35" t="n">
         <v>0.992</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.993</v>
       </c>
     </row>
     <row r="36">
@@ -2675,10 +3002,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
@@ -2696,34 +3023,43 @@
         <v>1</v>
       </c>
       <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="s">
-        <v>41</v>
-      </c>
-      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>44</v>
+      </c>
+      <c r="L36" t="n">
         <v>3.522</v>
       </c>
-      <c r="L36" t="n">
+      <c r="M36" t="n">
         <v>3.597</v>
       </c>
-      <c r="M36" t="n">
+      <c r="N36" t="n">
         <v>3.59</v>
       </c>
-      <c r="N36" t="n">
+      <c r="O36" t="n">
         <v>3.414</v>
       </c>
-      <c r="O36" t="n">
+      <c r="P36" t="n">
+        <v>3.983</v>
+      </c>
+      <c r="Q36" t="n">
         <v>0.987</v>
       </c>
-      <c r="P36" t="n">
+      <c r="R36" t="n">
         <v>0.985</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="S36" t="n">
         <v>0.982</v>
       </c>
-      <c r="R36" t="n">
+      <c r="T36" t="n">
         <v>0.987</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.986</v>
       </c>
     </row>
     <row r="37">
@@ -2731,10 +3067,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
@@ -2752,33 +3088,42 @@
         <v>1</v>
       </c>
       <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="s">
-        <v>41</v>
-      </c>
-      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>44</v>
+      </c>
+      <c r="L37" t="n">
         <v>4.392</v>
       </c>
-      <c r="L37" t="n">
+      <c r="M37" t="n">
         <v>4.496</v>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>4.419</v>
       </c>
-      <c r="N37" t="n">
+      <c r="O37" t="n">
         <v>4.42</v>
       </c>
-      <c r="O37" t="n">
+      <c r="P37" t="n">
+        <v>4.779</v>
+      </c>
+      <c r="Q37" t="n">
         <v>0.98</v>
       </c>
-      <c r="P37" t="n">
+      <c r="R37" t="n">
         <v>0.98</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="S37" t="n">
         <v>0.977</v>
       </c>
-      <c r="R37" t="n">
+      <c r="T37" t="n">
+        <v>0.983</v>
+      </c>
+      <c r="U37" t="n">
         <v>0.983</v>
       </c>
     </row>
@@ -2787,10 +3132,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
@@ -2808,34 +3153,43 @@
         <v>1</v>
       </c>
       <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="s">
-        <v>41</v>
-      </c>
-      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>44</v>
+      </c>
+      <c r="L38" t="n">
         <v>3.509</v>
       </c>
-      <c r="L38" t="n">
+      <c r="M38" t="n">
         <v>3.56</v>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>3.534</v>
       </c>
-      <c r="N38" t="n">
+      <c r="O38" t="n">
         <v>3.386</v>
       </c>
-      <c r="O38" t="n">
+      <c r="P38" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="Q38" t="n">
         <v>0.982</v>
       </c>
-      <c r="P38" t="n">
+      <c r="R38" t="n">
         <v>0.981</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="S38" t="n">
         <v>0.979</v>
       </c>
-      <c r="R38" t="n">
+      <c r="T38" t="n">
         <v>0.984</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.981</v>
       </c>
     </row>
     <row r="39">
@@ -2843,10 +3197,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
@@ -2864,34 +3218,43 @@
         <v>1</v>
       </c>
       <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="s">
-        <v>41</v>
-      </c>
-      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
+        <v>44</v>
+      </c>
+      <c r="L39" t="n">
         <v>4.676</v>
       </c>
-      <c r="L39" t="n">
+      <c r="M39" t="n">
         <v>4.624</v>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>4.708</v>
       </c>
-      <c r="N39" t="n">
+      <c r="O39" t="n">
         <v>4.666</v>
       </c>
-      <c r="O39" t="n">
+      <c r="P39" t="n">
+        <v>4.958</v>
+      </c>
+      <c r="Q39" t="n">
         <v>0.92</v>
       </c>
-      <c r="P39" t="n">
+      <c r="R39" t="n">
         <v>0.922</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="S39" t="n">
         <v>0.911</v>
       </c>
-      <c r="R39" t="n">
+      <c r="T39" t="n">
         <v>0.943</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.931</v>
       </c>
     </row>
     <row r="40">
@@ -2899,10 +3262,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
@@ -2920,34 +3283,43 @@
         <v>1</v>
       </c>
       <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="s">
-        <v>41</v>
-      </c>
-      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>44</v>
+      </c>
+      <c r="L40" t="n">
         <v>5.678</v>
       </c>
-      <c r="L40" t="n">
+      <c r="M40" t="n">
         <v>5.658</v>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>5.429</v>
       </c>
-      <c r="N40" t="n">
+      <c r="O40" t="n">
         <v>5.418</v>
       </c>
-      <c r="O40" t="n">
+      <c r="P40" t="n">
+        <v>5.751</v>
+      </c>
+      <c r="Q40" t="n">
         <v>0.911</v>
       </c>
-      <c r="P40" t="n">
+      <c r="R40" t="n">
         <v>0.912</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="S40" t="n">
         <v>0.904</v>
       </c>
-      <c r="R40" t="n">
+      <c r="T40" t="n">
         <v>0.872</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.931</v>
       </c>
     </row>
     <row r="41">
@@ -2955,10 +3327,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
@@ -2976,34 +3348,43 @@
         <v>1</v>
       </c>
       <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="s">
-        <v>73</v>
-      </c>
-      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>76</v>
+      </c>
+      <c r="L41" t="n">
         <v>0.309</v>
       </c>
-      <c r="L41" t="n">
+      <c r="M41" t="n">
         <v>0.289</v>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>0.277</v>
       </c>
-      <c r="N41" t="n">
+      <c r="O41" t="n">
         <v>0.272</v>
       </c>
-      <c r="O41" t="n">
+      <c r="P41" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="Q41" t="n">
         <v>0.994</v>
       </c>
-      <c r="P41" t="n">
+      <c r="R41" t="n">
         <v>0.995</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="S41" t="n">
         <v>0.996</v>
       </c>
-      <c r="R41" t="n">
+      <c r="T41" t="n">
         <v>0.971</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.995</v>
       </c>
     </row>
     <row r="42">
@@ -3011,10 +3392,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
@@ -3032,34 +3413,43 @@
         <v>1</v>
       </c>
       <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="s">
-        <v>73</v>
-      </c>
-      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>76</v>
+      </c>
+      <c r="L42" t="n">
         <v>0.887</v>
       </c>
-      <c r="L42" t="n">
+      <c r="M42" t="n">
         <v>0.894</v>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>0.902</v>
       </c>
-      <c r="N42" t="n">
+      <c r="O42" t="n">
         <v>0.907</v>
       </c>
-      <c r="O42" t="n">
-        <v>1</v>
-      </c>
       <c r="P42" t="n">
-        <v>1</v>
+        <v>0.893</v>
       </c>
       <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
         <v>0.999</v>
       </c>
-      <c r="R42" t="n">
+      <c r="T42" t="n">
         <v>0.995</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.999</v>
       </c>
     </row>
     <row r="43">
@@ -3067,11 +3457,11 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" t="s">
         <v>75</v>
       </c>
-      <c r="C43" t="s">
-        <v>72</v>
-      </c>
       <c r="D43" t="b">
         <v>1</v>
       </c>
@@ -3088,34 +3478,43 @@
         <v>1</v>
       </c>
       <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="s">
-        <v>73</v>
-      </c>
-      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>76</v>
+      </c>
+      <c r="L43" t="n">
         <v>0.332</v>
       </c>
-      <c r="L43" t="n">
+      <c r="M43" t="n">
         <v>0.336</v>
       </c>
-      <c r="M43" t="n">
+      <c r="N43" t="n">
         <v>0.345</v>
       </c>
-      <c r="N43" t="n">
+      <c r="O43" t="n">
         <v>0.31</v>
       </c>
-      <c r="O43" t="n">
+      <c r="P43" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="Q43" t="n">
         <v>0.638</v>
       </c>
-      <c r="P43" t="n">
+      <c r="R43" t="n">
         <v>0.649</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="S43" t="n">
         <v>0.648</v>
       </c>
-      <c r="R43" t="n">
+      <c r="T43" t="n">
         <v>0.645</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.687</v>
       </c>
     </row>
     <row r="44">
@@ -3123,55 +3522,64 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
         <v>76</v>
       </c>
-      <c r="C44" t="s">
-        <v>72</v>
-      </c>
-      <c r="D44" t="b">
-        <v>1</v>
-      </c>
-      <c r="E44" t="b">
-        <v>1</v>
-      </c>
-      <c r="F44" t="b">
-        <v>1</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="b">
-        <v>1</v>
-      </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="s">
-        <v>73</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="L44" t="n">
         <v>0.499</v>
       </c>
-      <c r="L44" t="n">
+      <c r="M44" t="n">
         <v>0.455</v>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>0.465</v>
       </c>
-      <c r="N44" t="n">
+      <c r="O44" t="n">
         <v>0.448</v>
       </c>
-      <c r="O44" t="n">
+      <c r="P44" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="Q44" t="n">
         <v>0.979</v>
       </c>
-      <c r="P44" t="n">
+      <c r="R44" t="n">
         <v>0.973</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="S44" t="n">
         <v>0.973</v>
       </c>
-      <c r="R44" t="n">
+      <c r="T44" t="n">
         <v>0.975</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.979</v>
       </c>
     </row>
     <row r="45">
@@ -3179,10 +3587,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
@@ -3200,34 +3608,43 @@
         <v>1</v>
       </c>
       <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="s">
-        <v>73</v>
-      </c>
-      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="s">
+        <v>76</v>
+      </c>
+      <c r="L45" t="n">
         <v>0.169</v>
       </c>
-      <c r="L45" t="n">
+      <c r="M45" t="n">
         <v>0.148</v>
       </c>
-      <c r="M45" t="n">
+      <c r="N45" t="n">
         <v>0.133</v>
       </c>
-      <c r="N45" t="n">
+      <c r="O45" t="n">
         <v>0.107</v>
       </c>
-      <c r="O45" t="n">
+      <c r="P45" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="Q45" t="n">
         <v>0.997</v>
       </c>
-      <c r="P45" t="n">
+      <c r="R45" t="n">
         <v>0.996</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="S45" t="n">
         <v>0.996</v>
       </c>
-      <c r="R45" t="n">
+      <c r="T45" t="n">
         <v>0.992</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.997</v>
       </c>
     </row>
     <row r="46">
@@ -3235,10 +3652,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
@@ -3256,34 +3673,43 @@
         <v>1</v>
       </c>
       <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="s">
-        <v>73</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.019</v>
+        <v>1</v>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>76</v>
       </c>
       <c r="L46" t="n">
         <v>0.019</v>
       </c>
       <c r="M46" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="N46" t="n">
         <v>0.027</v>
       </c>
-      <c r="N46" t="n">
+      <c r="O46" t="n">
         <v>0.029</v>
       </c>
-      <c r="O46" t="n">
+      <c r="P46" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="Q46" t="n">
         <v>0.475</v>
       </c>
-      <c r="P46" t="n">
+      <c r="R46" t="n">
         <v>0.453</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="S46" t="n">
         <v>0.46</v>
       </c>
-      <c r="R46" t="n">
+      <c r="T46" t="n">
         <v>0.437</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.448</v>
       </c>
     </row>
     <row r="47">
@@ -3291,10 +3717,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
@@ -3312,34 +3738,43 @@
         <v>1</v>
       </c>
       <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="s">
-        <v>73</v>
-      </c>
-      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>76</v>
+      </c>
+      <c r="L47" t="n">
         <v>0.947</v>
       </c>
-      <c r="L47" t="n">
+      <c r="M47" t="n">
         <v>0.954</v>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>0.952</v>
       </c>
-      <c r="N47" t="n">
+      <c r="O47" t="n">
         <v>0.946</v>
       </c>
-      <c r="O47" t="n">
-        <v>0.999</v>
-      </c>
       <c r="P47" t="n">
-        <v>1</v>
+        <v>0.944</v>
       </c>
       <c r="Q47" t="n">
         <v>0.999</v>
       </c>
       <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="T47" t="n">
         <v>0.994</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.999</v>
       </c>
     </row>
     <row r="48">
@@ -3347,10 +3782,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C48" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
@@ -3368,33 +3803,42 @@
         <v>1</v>
       </c>
       <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="s">
-        <v>81</v>
-      </c>
-      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>84</v>
+      </c>
+      <c r="L48" t="n">
         <v>0.013</v>
       </c>
-      <c r="L48" t="n">
+      <c r="M48" t="n">
         <v>0.011</v>
       </c>
-      <c r="M48" t="n">
+      <c r="N48" t="n">
         <v>0.01</v>
       </c>
-      <c r="N48" t="n">
+      <c r="O48" t="n">
         <v>0.014</v>
       </c>
-      <c r="O48" t="n">
-        <v>1</v>
-      </c>
       <c r="P48" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
       </c>
       <c r="R48" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1</v>
+      </c>
+      <c r="U48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3403,10 +3847,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C49" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
@@ -3426,11 +3870,11 @@
       <c r="I49" t="b">
         <v>1</v>
       </c>
-      <c r="J49" t="s">
-        <v>81</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.001</v>
+      <c r="J49" t="b">
+        <v>1</v>
+      </c>
+      <c r="K49" t="s">
+        <v>84</v>
       </c>
       <c r="L49" t="n">
         <v>0.001</v>
@@ -3442,15 +3886,24 @@
         <v>0.001</v>
       </c>
       <c r="O49" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="P49" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
       </c>
       <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1</v>
+      </c>
+      <c r="U49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3459,10 +3912,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
@@ -3480,33 +3933,42 @@
         <v>1</v>
       </c>
       <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="s">
-        <v>81</v>
-      </c>
-      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>84</v>
+      </c>
+      <c r="L50" t="n">
         <v>0.007</v>
       </c>
-      <c r="L50" t="n">
+      <c r="M50" t="n">
         <v>0.008</v>
       </c>
-      <c r="M50" t="n">
+      <c r="N50" t="n">
         <v>0.007</v>
       </c>
-      <c r="N50" t="n">
+      <c r="O50" t="n">
         <v>0.009</v>
       </c>
-      <c r="O50" t="n">
-        <v>1</v>
-      </c>
       <c r="P50" t="n">
-        <v>1</v>
+        <v>0.007</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
       </c>
       <c r="R50" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1</v>
+      </c>
+      <c r="U50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3515,54 +3977,63 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="s">
         <v>84</v>
       </c>
-      <c r="C51" t="s">
-        <v>72</v>
-      </c>
-      <c r="D51" t="b">
-        <v>1</v>
-      </c>
-      <c r="E51" t="b">
-        <v>1</v>
-      </c>
-      <c r="F51" t="b">
-        <v>1</v>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="b">
-        <v>1</v>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="s">
-        <v>81</v>
-      </c>
-      <c r="K51" t="n">
+      <c r="L51" t="n">
         <v>0.01</v>
       </c>
-      <c r="L51" t="n">
+      <c r="M51" t="n">
         <v>0.011</v>
       </c>
-      <c r="M51" t="n">
+      <c r="N51" t="n">
         <v>0.009</v>
       </c>
-      <c r="N51" t="n">
+      <c r="O51" t="n">
         <v>0.012</v>
       </c>
-      <c r="O51" t="n">
-        <v>1</v>
-      </c>
       <c r="P51" t="n">
-        <v>1</v>
+        <v>0.011</v>
       </c>
       <c r="Q51" t="n">
         <v>1</v>
       </c>
       <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1</v>
+      </c>
+      <c r="U51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3571,10 +4042,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
@@ -3592,33 +4063,42 @@
         <v>1</v>
       </c>
       <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="s">
-        <v>81</v>
-      </c>
-      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>84</v>
+      </c>
+      <c r="L52" t="n">
         <v>0.01</v>
       </c>
-      <c r="L52" t="n">
+      <c r="M52" t="n">
         <v>0.012</v>
       </c>
-      <c r="M52" t="n">
+      <c r="N52" t="n">
         <v>0.01</v>
       </c>
-      <c r="N52" t="n">
+      <c r="O52" t="n">
         <v>0.019</v>
       </c>
-      <c r="O52" t="n">
-        <v>1</v>
-      </c>
       <c r="P52" t="n">
-        <v>1</v>
+        <v>0.014</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
       </c>
       <c r="R52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1</v>
+      </c>
+      <c r="U52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3627,10 +4107,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C53" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D53" t="b">
         <v>1</v>
@@ -3648,34 +4128,43 @@
         <v>1</v>
       </c>
       <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="s">
-        <v>73</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.081</v>
+        <v>1</v>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>76</v>
       </c>
       <c r="L53" t="n">
         <v>0.081</v>
       </c>
       <c r="M53" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="N53" t="n">
         <v>0.075</v>
       </c>
-      <c r="N53" t="n">
+      <c r="O53" t="n">
         <v>0.096</v>
       </c>
-      <c r="O53" t="n">
-        <v>0.991</v>
-      </c>
       <c r="P53" t="n">
-        <v>0.992</v>
+        <v>0.079</v>
       </c>
       <c r="Q53" t="n">
         <v>0.991</v>
       </c>
       <c r="R53" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="T53" t="n">
         <v>0.983</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.993</v>
       </c>
     </row>
     <row r="54">
@@ -3683,10 +4172,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C54" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D54" t="b">
         <v>1</v>
@@ -3704,33 +4193,42 @@
         <v>1</v>
       </c>
       <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="s">
-        <v>81</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.012</v>
+        <v>1</v>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>84</v>
       </c>
       <c r="L54" t="n">
         <v>0.012</v>
       </c>
       <c r="M54" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="N54" t="n">
         <v>0.007</v>
       </c>
-      <c r="N54" t="n">
+      <c r="O54" t="n">
         <v>0.014</v>
       </c>
-      <c r="O54" t="n">
-        <v>1</v>
-      </c>
       <c r="P54" t="n">
-        <v>1</v>
+        <v>0.005</v>
       </c>
       <c r="Q54" t="n">
         <v>1</v>
       </c>
       <c r="R54" t="n">
+        <v>1</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1</v>
+      </c>
+      <c r="U54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3739,10 +4237,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C55" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D55" t="b">
         <v>1</v>
@@ -3760,13 +4258,13 @@
         <v>1</v>
       </c>
       <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="s">
-        <v>81</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>84</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -3775,18 +4273,27 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
         <v>0.003</v>
       </c>
-      <c r="O55" t="n">
-        <v>1</v>
-      </c>
       <c r="P55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
       </c>
       <c r="R55" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1</v>
+      </c>
+      <c r="U55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3795,10 +4302,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C56" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D56" t="b">
         <v>1</v>
@@ -3816,33 +4323,42 @@
         <v>1</v>
       </c>
       <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="s">
-        <v>81</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.919</v>
+        <v>1</v>
+      </c>
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" t="s">
+        <v>84</v>
       </c>
       <c r="L56" t="n">
         <v>0.919</v>
       </c>
       <c r="M56" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="N56" t="n">
         <v>0.925</v>
       </c>
-      <c r="N56" t="n">
+      <c r="O56" t="n">
         <v>0.902</v>
       </c>
-      <c r="O56" t="n">
-        <v>1</v>
-      </c>
       <c r="P56" t="n">
-        <v>1</v>
+        <v>0.921</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
       </c>
       <c r="R56" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1</v>
+      </c>
+      <c r="U56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3851,10 +4367,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C57" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D57" t="b">
         <v>1</v>
@@ -3872,33 +4388,42 @@
         <v>1</v>
       </c>
       <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="s">
-        <v>81</v>
-      </c>
-      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>84</v>
+      </c>
+      <c r="L57" t="n">
         <v>0.02</v>
       </c>
-      <c r="L57" t="n">
+      <c r="M57" t="n">
         <v>0.018</v>
       </c>
-      <c r="M57" t="n">
+      <c r="N57" t="n">
         <v>0.015</v>
       </c>
-      <c r="N57" t="n">
+      <c r="O57" t="n">
         <v>0.023</v>
       </c>
-      <c r="O57" t="n">
-        <v>1</v>
-      </c>
       <c r="P57" t="n">
-        <v>1</v>
+        <v>0.014</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
       </c>
       <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1</v>
+      </c>
+      <c r="U57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3907,10 +4432,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D58" t="b">
         <v>1</v>
@@ -3928,33 +4453,42 @@
         <v>1</v>
       </c>
       <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="s">
-        <v>81</v>
-      </c>
-      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="b">
+        <v>0</v>
+      </c>
+      <c r="K58" t="s">
+        <v>84</v>
+      </c>
+      <c r="L58" t="n">
         <v>0.018</v>
       </c>
-      <c r="L58" t="n">
+      <c r="M58" t="n">
         <v>0.017</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.019</v>
       </c>
       <c r="N58" t="n">
         <v>0.019</v>
       </c>
       <c r="O58" t="n">
-        <v>1</v>
+        <v>0.019</v>
       </c>
       <c r="P58" t="n">
-        <v>1</v>
+        <v>0.015</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
       </c>
       <c r="R58" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1</v>
+      </c>
+      <c r="U58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3963,10 +4497,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D59" t="b">
         <v>1</v>
@@ -3984,33 +4518,42 @@
         <v>1</v>
       </c>
       <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="s">
-        <v>81</v>
-      </c>
-      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="b">
+        <v>0</v>
+      </c>
+      <c r="K59" t="s">
+        <v>84</v>
+      </c>
+      <c r="L59" t="n">
         <v>0.014</v>
       </c>
-      <c r="L59" t="n">
+      <c r="M59" t="n">
         <v>0.011</v>
       </c>
-      <c r="M59" t="n">
+      <c r="N59" t="n">
         <v>0.009</v>
       </c>
-      <c r="N59" t="n">
+      <c r="O59" t="n">
         <v>0.014</v>
       </c>
-      <c r="O59" t="n">
-        <v>1</v>
-      </c>
       <c r="P59" t="n">
-        <v>1</v>
+        <v>0.012</v>
       </c>
       <c r="Q59" t="n">
         <v>1</v>
       </c>
       <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1</v>
+      </c>
+      <c r="U59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4019,10 +4562,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
@@ -4042,14 +4585,14 @@
       <c r="I60" t="b">
         <v>1</v>
       </c>
-      <c r="J60" t="s">
-        <v>81</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
+      <c r="J60" t="b">
+        <v>1</v>
+      </c>
+      <c r="K60" t="s">
+        <v>84</v>
       </c>
       <c r="L60" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
         <v>0.001</v>
@@ -4058,15 +4601,24 @@
         <v>0.001</v>
       </c>
       <c r="O60" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="P60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60" t="n">
         <v>1</v>
       </c>
       <c r="R60" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1</v>
+      </c>
+      <c r="U60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4075,10 +4627,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C61" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D61" t="b">
         <v>1</v>
@@ -4096,33 +4648,42 @@
         <v>1</v>
       </c>
       <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="s">
-        <v>81</v>
-      </c>
-      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" t="s">
+        <v>84</v>
+      </c>
+      <c r="L61" t="n">
         <v>0.017</v>
       </c>
-      <c r="L61" t="n">
+      <c r="M61" t="n">
         <v>0.019</v>
       </c>
-      <c r="M61" t="n">
+      <c r="N61" t="n">
         <v>0.013</v>
       </c>
-      <c r="N61" t="n">
+      <c r="O61" t="n">
         <v>0.019</v>
       </c>
-      <c r="O61" t="n">
-        <v>1</v>
-      </c>
       <c r="P61" t="n">
-        <v>1</v>
+        <v>0.012</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
       </c>
       <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1</v>
+      </c>
+      <c r="U61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4131,10 +4692,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C62" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D62" t="b">
         <v>1</v>
@@ -4152,33 +4713,42 @@
         <v>1</v>
       </c>
       <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" t="s">
-        <v>81</v>
-      </c>
-      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62" t="s">
+        <v>84</v>
+      </c>
+      <c r="L62" t="n">
         <v>0.006</v>
       </c>
-      <c r="L62" t="n">
+      <c r="M62" t="n">
         <v>0.004</v>
       </c>
-      <c r="M62" t="n">
+      <c r="N62" t="n">
         <v>0.005</v>
       </c>
-      <c r="N62" t="n">
+      <c r="O62" t="n">
         <v>0.011</v>
       </c>
-      <c r="O62" t="n">
-        <v>1</v>
-      </c>
       <c r="P62" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Q62" t="n">
         <v>1</v>
       </c>
       <c r="R62" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1</v>
+      </c>
+      <c r="U62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4187,10 +4757,10 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C63" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D63" t="b">
         <v>1</v>
@@ -4208,34 +4778,43 @@
         <v>1</v>
       </c>
       <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" t="s">
-        <v>73</v>
-      </c>
-      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63" t="s">
+        <v>76</v>
+      </c>
+      <c r="L63" t="n">
         <v>0.163</v>
       </c>
-      <c r="L63" t="n">
+      <c r="M63" t="n">
         <v>0.16</v>
       </c>
-      <c r="M63" t="n">
+      <c r="N63" t="n">
         <v>0.156</v>
       </c>
-      <c r="N63" t="n">
+      <c r="O63" t="n">
         <v>0.149</v>
       </c>
-      <c r="O63" t="n">
+      <c r="P63" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="Q63" t="n">
         <v>0.993</v>
       </c>
-      <c r="P63" t="n">
+      <c r="R63" t="n">
         <v>0.994</v>
       </c>
-      <c r="Q63" t="n">
+      <c r="S63" t="n">
         <v>0.996</v>
       </c>
-      <c r="R63" t="n">
+      <c r="T63" t="n">
         <v>0.977</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.994</v>
       </c>
     </row>
     <row r="64">
@@ -4243,10 +4822,10 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C64" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D64" t="b">
         <v>1</v>
@@ -4264,34 +4843,43 @@
         <v>1</v>
       </c>
       <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="s">
-        <v>98</v>
-      </c>
-      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="b">
+        <v>0</v>
+      </c>
+      <c r="K64" t="s">
+        <v>101</v>
+      </c>
+      <c r="L64" t="n">
         <v>0.795</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0.79</v>
       </c>
       <c r="M64" t="n">
         <v>0.79</v>
       </c>
       <c r="N64" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="O64" t="n">
         <v>0.757</v>
       </c>
-      <c r="O64" t="n">
+      <c r="P64" t="n">
+        <v>0.827</v>
+      </c>
+      <c r="Q64" t="n">
         <v>0.917</v>
       </c>
-      <c r="P64" t="n">
+      <c r="R64" t="n">
         <v>0.916</v>
       </c>
-      <c r="Q64" t="n">
+      <c r="S64" t="n">
         <v>0.908</v>
       </c>
-      <c r="R64" t="n">
+      <c r="T64" t="n">
         <v>0.878</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0.935</v>
       </c>
     </row>
     <row r="65">
@@ -4299,10 +4887,10 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C65" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
@@ -4320,34 +4908,43 @@
         <v>1</v>
       </c>
       <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="s">
-        <v>73</v>
-      </c>
-      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="b">
+        <v>0</v>
+      </c>
+      <c r="K65" t="s">
+        <v>76</v>
+      </c>
+      <c r="L65" t="n">
         <v>0.821</v>
       </c>
-      <c r="L65" t="n">
+      <c r="M65" t="n">
         <v>0.837</v>
       </c>
-      <c r="M65" t="n">
+      <c r="N65" t="n">
         <v>0.86</v>
       </c>
-      <c r="N65" t="n">
+      <c r="O65" t="n">
         <v>0.861</v>
       </c>
-      <c r="O65" t="n">
+      <c r="P65" t="n">
+        <v>0.849</v>
+      </c>
+      <c r="Q65" t="n">
         <v>0.994</v>
       </c>
-      <c r="P65" t="n">
+      <c r="R65" t="n">
         <v>0.995</v>
       </c>
-      <c r="Q65" t="n">
+      <c r="S65" t="n">
         <v>0.995</v>
       </c>
-      <c r="R65" t="n">
+      <c r="T65" t="n">
         <v>0.99</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.996</v>
       </c>
     </row>
     <row r="66">
@@ -4355,10 +4952,10 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C66" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D66" t="b">
         <v>1</v>
@@ -4376,34 +4973,43 @@
         <v>1</v>
       </c>
       <c r="I66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" t="s">
-        <v>73</v>
-      </c>
-      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="b">
+        <v>0</v>
+      </c>
+      <c r="K66" t="s">
+        <v>76</v>
+      </c>
+      <c r="L66" t="n">
         <v>0.47</v>
       </c>
-      <c r="L66" t="n">
+      <c r="M66" t="n">
         <v>0.474</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.465</v>
       </c>
       <c r="N66" t="n">
         <v>0.465</v>
       </c>
       <c r="O66" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="Q66" t="n">
         <v>0.999</v>
       </c>
-      <c r="P66" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>1</v>
-      </c>
       <c r="R66" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="n">
         <v>0.989</v>
+      </c>
+      <c r="U66" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -4411,10 +5017,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C67" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D67" t="b">
         <v>1</v>
@@ -4432,34 +5038,43 @@
         <v>1</v>
       </c>
       <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" t="s">
-        <v>73</v>
-      </c>
-      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
+      </c>
+      <c r="K67" t="s">
+        <v>76</v>
+      </c>
+      <c r="L67" t="n">
         <v>0.272</v>
       </c>
-      <c r="L67" t="n">
+      <c r="M67" t="n">
         <v>0.278</v>
       </c>
-      <c r="M67" t="n">
+      <c r="N67" t="n">
         <v>0.358</v>
       </c>
-      <c r="N67" t="n">
+      <c r="O67" t="n">
         <v>0.294</v>
       </c>
-      <c r="O67" t="n">
+      <c r="P67" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="Q67" t="n">
         <v>0.868</v>
       </c>
-      <c r="P67" t="n">
+      <c r="R67" t="n">
         <v>0.887</v>
       </c>
-      <c r="Q67" t="n">
+      <c r="S67" t="n">
         <v>0.89</v>
       </c>
-      <c r="R67" t="n">
+      <c r="T67" t="n">
         <v>0.854</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.867</v>
       </c>
     </row>
     <row r="68">
@@ -4467,10 +5082,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C68" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D68" t="b">
         <v>1</v>
@@ -4488,34 +5103,43 @@
         <v>1</v>
       </c>
       <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" t="s">
-        <v>73</v>
-      </c>
-      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="b">
+        <v>0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>76</v>
+      </c>
+      <c r="L68" t="n">
         <v>0.832</v>
       </c>
-      <c r="L68" t="n">
+      <c r="M68" t="n">
         <v>0.847</v>
       </c>
-      <c r="M68" t="n">
+      <c r="N68" t="n">
         <v>0.867</v>
       </c>
-      <c r="N68" t="n">
+      <c r="O68" t="n">
         <v>0.865</v>
       </c>
-      <c r="O68" t="n">
-        <v>0.998</v>
-      </c>
       <c r="P68" t="n">
-        <v>0.998</v>
+        <v>0.857</v>
       </c>
       <c r="Q68" t="n">
         <v>0.998</v>
       </c>
       <c r="R68" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="T68" t="n">
         <v>0.991</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0.998</v>
       </c>
     </row>
     <row r="69">
@@ -4523,10 +5147,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C69" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D69" t="b">
         <v>1</v>
@@ -4544,34 +5168,43 @@
         <v>1</v>
       </c>
       <c r="I69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" t="s">
-        <v>73</v>
-      </c>
-      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="b">
+        <v>0</v>
+      </c>
+      <c r="K69" t="s">
+        <v>76</v>
+      </c>
+      <c r="L69" t="n">
         <v>0.377</v>
       </c>
-      <c r="L69" t="n">
+      <c r="M69" t="n">
         <v>0.355</v>
       </c>
-      <c r="M69" t="n">
+      <c r="N69" t="n">
         <v>0.354</v>
       </c>
-      <c r="N69" t="n">
+      <c r="O69" t="n">
         <v>0.314</v>
       </c>
-      <c r="O69" t="n">
+      <c r="P69" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="Q69" t="n">
         <v>0.455</v>
       </c>
-      <c r="P69" t="n">
+      <c r="R69" t="n">
         <v>0.433</v>
       </c>
-      <c r="Q69" t="n">
+      <c r="S69" t="n">
         <v>0.435</v>
       </c>
-      <c r="R69" t="n">
+      <c r="T69" t="n">
         <v>0.399</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0.425</v>
       </c>
     </row>
     <row r="70">
@@ -4579,10 +5212,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C70" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D70" t="b">
         <v>1</v>
@@ -4602,32 +5235,41 @@
       <c r="I70" t="b">
         <v>1</v>
       </c>
-      <c r="J70" t="s">
-        <v>73</v>
-      </c>
-      <c r="K70" t="n">
+      <c r="J70" t="b">
+        <v>1</v>
+      </c>
+      <c r="K70" t="s">
+        <v>76</v>
+      </c>
+      <c r="L70" t="n">
         <v>0.574</v>
       </c>
-      <c r="L70" t="n">
+      <c r="M70" t="n">
         <v>0.593</v>
       </c>
-      <c r="M70" t="n">
+      <c r="N70" t="n">
         <v>0.595</v>
       </c>
-      <c r="N70" t="n">
+      <c r="O70" t="n">
         <v>0.611</v>
       </c>
-      <c r="O70" t="n">
+      <c r="P70" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="Q70" t="n">
         <v>0.996</v>
       </c>
-      <c r="P70" t="n">
+      <c r="R70" t="n">
         <v>0.993</v>
       </c>
-      <c r="Q70" t="n">
+      <c r="S70" t="n">
         <v>0.993</v>
       </c>
-      <c r="R70" t="n">
+      <c r="T70" t="n">
         <v>0.992</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0.993</v>
       </c>
     </row>
     <row r="71">
@@ -4635,10 +5277,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C71" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D71" t="b">
         <v>1</v>
@@ -4658,32 +5300,41 @@
       <c r="I71" t="b">
         <v>1</v>
       </c>
-      <c r="J71" t="s">
-        <v>73</v>
-      </c>
-      <c r="K71" t="n">
+      <c r="J71" t="b">
+        <v>1</v>
+      </c>
+      <c r="K71" t="s">
+        <v>76</v>
+      </c>
+      <c r="L71" t="n">
         <v>0.107</v>
       </c>
-      <c r="L71" t="n">
+      <c r="M71" t="n">
         <v>0.102</v>
       </c>
-      <c r="M71" t="n">
+      <c r="N71" t="n">
         <v>0.105</v>
       </c>
-      <c r="N71" t="n">
+      <c r="O71" t="n">
         <v>0.086</v>
       </c>
-      <c r="O71" t="n">
+      <c r="P71" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="Q71" t="n">
         <v>0.422</v>
       </c>
-      <c r="P71" t="n">
+      <c r="R71" t="n">
         <v>0.402</v>
       </c>
-      <c r="Q71" t="n">
+      <c r="S71" t="n">
         <v>0.399</v>
       </c>
-      <c r="R71" t="n">
+      <c r="T71" t="n">
         <v>0.383</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0.409</v>
       </c>
     </row>
     <row r="72">
@@ -4691,10 +5342,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C72" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D72" t="b">
         <v>0</v>
@@ -4712,13 +5363,13 @@
         <v>1</v>
       </c>
       <c r="I72" t="b">
-        <v>1</v>
-      </c>
-      <c r="J72" t="s">
-        <v>98</v>
-      </c>
-      <c r="K72" t="e">
-        <v>#NUM!</v>
+        <v>0</v>
+      </c>
+      <c r="J72" t="b">
+        <v>1</v>
+      </c>
+      <c r="K72" t="s">
+        <v>101</v>
       </c>
       <c r="L72" t="e">
         <v>#NUM!</v>
@@ -4726,11 +5377,11 @@
       <c r="M72" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="N72" t="n">
+      <c r="N72" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O72" t="n">
         <v>0.547</v>
-      </c>
-      <c r="O72" t="e">
-        <v>#NUM!</v>
       </c>
       <c r="P72" t="e">
         <v>#NUM!</v>
@@ -4738,8 +5389,17 @@
       <c r="Q72" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="R72" t="n">
+      <c r="R72" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="S72" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="T72" t="n">
         <v>0.981</v>
+      </c>
+      <c r="U72" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="73">
@@ -4747,10 +5407,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C73" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D73" t="b">
         <v>1</v>
@@ -4768,34 +5428,43 @@
         <v>1</v>
       </c>
       <c r="I73" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" t="s">
-        <v>73</v>
-      </c>
-      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="b">
+        <v>0</v>
+      </c>
+      <c r="K73" t="s">
+        <v>76</v>
+      </c>
+      <c r="L73" t="n">
         <v>0.127</v>
       </c>
-      <c r="L73" t="n">
+      <c r="M73" t="n">
         <v>0.12</v>
       </c>
-      <c r="M73" t="n">
+      <c r="N73" t="n">
         <v>0.134</v>
       </c>
-      <c r="N73" t="n">
+      <c r="O73" t="n">
         <v>0.128</v>
       </c>
-      <c r="O73" t="n">
+      <c r="P73" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="Q73" t="n">
         <v>0.281</v>
       </c>
-      <c r="P73" t="n">
+      <c r="R73" t="n">
         <v>0.28</v>
       </c>
-      <c r="Q73" t="n">
+      <c r="S73" t="n">
         <v>0.285</v>
       </c>
-      <c r="R73" t="n">
+      <c r="T73" t="n">
         <v>0.272</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="74">
@@ -4803,10 +5472,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C74" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D74" t="b">
         <v>1</v>
@@ -4824,34 +5493,43 @@
         <v>1</v>
       </c>
       <c r="I74" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" t="s">
-        <v>73</v>
-      </c>
-      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="b">
+        <v>0</v>
+      </c>
+      <c r="K74" t="s">
+        <v>76</v>
+      </c>
+      <c r="L74" t="n">
         <v>0.282</v>
       </c>
-      <c r="L74" t="n">
+      <c r="M74" t="n">
         <v>0.281</v>
       </c>
-      <c r="M74" t="n">
+      <c r="N74" t="n">
         <v>0.287</v>
       </c>
-      <c r="N74" t="n">
+      <c r="O74" t="n">
         <v>0.274</v>
       </c>
-      <c r="O74" t="n">
+      <c r="P74" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="Q74" t="n">
         <v>0.996</v>
       </c>
-      <c r="P74" t="n">
+      <c r="R74" t="n">
         <v>0.995</v>
       </c>
-      <c r="Q74" t="n">
+      <c r="S74" t="n">
         <v>0.994</v>
       </c>
-      <c r="R74" t="n">
+      <c r="T74" t="n">
         <v>0.971</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0.994</v>
       </c>
     </row>
     <row r="75">
@@ -4859,10 +5537,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C75" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D75" t="b">
         <v>1</v>
@@ -4880,34 +5558,43 @@
         <v>1</v>
       </c>
       <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" t="s">
-        <v>73</v>
-      </c>
-      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="b">
+        <v>0</v>
+      </c>
+      <c r="K75" t="s">
+        <v>76</v>
+      </c>
+      <c r="L75" t="n">
         <v>0.133</v>
       </c>
-      <c r="L75" t="n">
+      <c r="M75" t="n">
         <v>0.131</v>
       </c>
-      <c r="M75" t="n">
+      <c r="N75" t="n">
         <v>0.12</v>
       </c>
-      <c r="N75" t="n">
+      <c r="O75" t="n">
         <v>0.112</v>
       </c>
-      <c r="O75" t="n">
+      <c r="P75" t="n">
+        <v>0.084</v>
+      </c>
+      <c r="Q75" t="n">
         <v>0.281</v>
       </c>
-      <c r="P75" t="n">
+      <c r="R75" t="n">
         <v>0.279</v>
       </c>
-      <c r="Q75" t="n">
+      <c r="S75" t="n">
         <v>0.285</v>
       </c>
-      <c r="R75" t="n">
+      <c r="T75" t="n">
         <v>0.271</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0.241</v>
       </c>
     </row>
     <row r="76">
@@ -4915,10 +5602,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C76" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D76" t="b">
         <v>1</v>
@@ -4936,34 +5623,43 @@
         <v>1</v>
       </c>
       <c r="I76" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" t="s">
-        <v>98</v>
-      </c>
-      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="b">
+        <v>0</v>
+      </c>
+      <c r="K76" t="s">
+        <v>101</v>
+      </c>
+      <c r="L76" t="n">
         <v>0.693</v>
       </c>
-      <c r="L76" t="n">
+      <c r="M76" t="n">
         <v>0.694</v>
       </c>
-      <c r="M76" t="n">
+      <c r="N76" t="n">
         <v>0.717</v>
       </c>
-      <c r="N76" t="n">
+      <c r="O76" t="n">
         <v>0.748</v>
       </c>
-      <c r="O76" t="n">
+      <c r="P76" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="Q76" t="n">
         <v>0.992</v>
       </c>
-      <c r="P76" t="n">
+      <c r="R76" t="n">
         <v>0.989</v>
       </c>
-      <c r="Q76" t="n">
+      <c r="S76" t="n">
         <v>0.988</v>
       </c>
-      <c r="R76" t="n">
+      <c r="T76" t="n">
         <v>0.988</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0.992</v>
       </c>
     </row>
     <row r="77">
@@ -4971,10 +5667,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C77" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D77" t="b">
         <v>1</v>
@@ -4992,34 +5688,43 @@
         <v>1</v>
       </c>
       <c r="I77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" t="s">
-        <v>73</v>
-      </c>
-      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="b">
+        <v>0</v>
+      </c>
+      <c r="K77" t="s">
+        <v>76</v>
+      </c>
+      <c r="L77" t="n">
         <v>0.057</v>
       </c>
-      <c r="L77" t="n">
+      <c r="M77" t="n">
         <v>0.054</v>
       </c>
-      <c r="M77" t="n">
+      <c r="N77" t="n">
         <v>0.065</v>
       </c>
-      <c r="N77" t="n">
+      <c r="O77" t="n">
         <v>0.057</v>
       </c>
-      <c r="O77" t="n">
+      <c r="P77" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="Q77" t="n">
         <v>0.918</v>
       </c>
-      <c r="P77" t="n">
+      <c r="R77" t="n">
         <v>0.917</v>
       </c>
-      <c r="Q77" t="n">
+      <c r="S77" t="n">
         <v>0.914</v>
       </c>
-      <c r="R77" t="n">
+      <c r="T77" t="n">
         <v>0.878</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0.934</v>
       </c>
     </row>
   </sheetData>

--- a/tables/variables-2.xlsx
+++ b/tables/variables-2.xlsx
@@ -714,7 +714,7 @@
     <col min="13" max="13" width="8.71" hidden="0" customWidth="1"/>
     <col min="14" max="14" width="8.71" hidden="0" customWidth="1"/>
     <col min="15" max="15" width="7.71" hidden="0" customWidth="1"/>
-    <col min="16" max="16" width="8.71" hidden="0" customWidth="1"/>
+    <col min="16" max="16" width="7.71" hidden="0" customWidth="1"/>
     <col min="17" max="17" width="5.71" hidden="0" customWidth="1"/>
     <col min="18" max="18" width="5.71" hidden="0" customWidth="1"/>
     <col min="19" max="19" width="5.71" hidden="0" customWidth="1"/>
@@ -834,7 +834,7 @@
         <v>12.698</v>
       </c>
       <c r="P2" t="n">
-        <v>13.385</v>
+        <v>13.128</v>
       </c>
       <c r="Q2" t="n">
         <v>0.991</v>
@@ -899,7 +899,7 @@
         <v>0.434</v>
       </c>
       <c r="P3" t="n">
-        <v>0.245</v>
+        <v>0.287</v>
       </c>
       <c r="Q3" t="n">
         <v>0.103</v>
@@ -914,7 +914,7 @@
         <v>0.098</v>
       </c>
       <c r="U3" t="n">
-        <v>0.091</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="4">
@@ -964,7 +964,7 @@
         <v>2.595</v>
       </c>
       <c r="P4" t="n">
-        <v>2.455</v>
+        <v>2.508</v>
       </c>
       <c r="Q4" t="n">
         <v>0.997</v>
@@ -979,7 +979,7 @@
         <v>0.988</v>
       </c>
       <c r="U4" t="n">
-        <v>0.997</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="5">
@@ -1029,7 +1029,7 @@
         <v>4.996</v>
       </c>
       <c r="P5" t="n">
-        <v>4.922</v>
+        <v>4.6</v>
       </c>
       <c r="Q5" t="n">
         <v>0.268</v>
@@ -1044,7 +1044,7 @@
         <v>0.248</v>
       </c>
       <c r="U5" t="n">
-        <v>0.272</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="6">
@@ -1094,7 +1094,7 @@
         <v>598.437</v>
       </c>
       <c r="P6" t="n">
-        <v>705.619</v>
+        <v>654.367</v>
       </c>
       <c r="Q6" t="n">
         <v>0.355</v>
@@ -1109,7 +1109,7 @@
         <v>0.298</v>
       </c>
       <c r="U6" t="n">
-        <v>0.351</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="7">
@@ -1159,7 +1159,7 @@
         <v>85.791</v>
       </c>
       <c r="P7" t="n">
-        <v>31.174</v>
+        <v>30.035</v>
       </c>
       <c r="Q7" t="n">
         <v>0.848</v>
@@ -1174,7 +1174,7 @@
         <v>0.822</v>
       </c>
       <c r="U7" t="n">
-        <v>0.855</v>
+        <v>0.806</v>
       </c>
     </row>
     <row r="8">
@@ -1224,7 +1224,7 @@
         <v>31.777</v>
       </c>
       <c r="P8" t="n">
-        <v>33.79</v>
+        <v>33.695</v>
       </c>
       <c r="Q8" t="n">
         <v>0.872</v>
@@ -1239,7 +1239,7 @@
         <v>0.812</v>
       </c>
       <c r="U8" t="n">
-        <v>0.898</v>
+        <v>0.864</v>
       </c>
     </row>
     <row r="9">
@@ -1289,7 +1289,7 @@
         <v>13.103</v>
       </c>
       <c r="P9" t="n">
-        <v>12.761</v>
+        <v>12.5</v>
       </c>
       <c r="Q9" t="n">
         <v>0.347</v>
@@ -1304,7 +1304,7 @@
         <v>0.332</v>
       </c>
       <c r="U9" t="n">
-        <v>0.354</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="10">
@@ -1354,7 +1354,7 @@
         <v>1926.66</v>
       </c>
       <c r="P10" t="n">
-        <v>1957.711</v>
+        <v>1958.3</v>
       </c>
       <c r="Q10" t="n">
         <v>0.998</v>
@@ -1419,7 +1419,7 @@
         <v>1.98</v>
       </c>
       <c r="P11" t="n">
-        <v>1.814</v>
+        <v>1.871</v>
       </c>
       <c r="Q11" t="n">
         <v>0.99</v>
@@ -1434,7 +1434,7 @@
         <v>0.991</v>
       </c>
       <c r="U11" t="n">
-        <v>0.992</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="12">
@@ -1484,7 +1484,7 @@
         <v>5.207</v>
       </c>
       <c r="P12" t="n">
-        <v>4.899</v>
+        <v>4.966</v>
       </c>
       <c r="Q12" t="n">
         <v>0.912</v>
@@ -1499,7 +1499,7 @@
         <v>0.942</v>
       </c>
       <c r="U12" t="n">
-        <v>0.935</v>
+        <v>0.933</v>
       </c>
     </row>
     <row r="13">
@@ -1549,7 +1549,7 @@
         <v>2.02</v>
       </c>
       <c r="P13" t="n">
-        <v>1.958</v>
+        <v>1.939</v>
       </c>
       <c r="Q13" t="n">
         <v>0.971</v>
@@ -1614,7 +1614,7 @@
         <v>2.093</v>
       </c>
       <c r="P14" t="n">
-        <v>2.083</v>
+        <v>2.037</v>
       </c>
       <c r="Q14" t="n">
         <v>0.982</v>
@@ -1629,7 +1629,7 @@
         <v>0.985</v>
       </c>
       <c r="U14" t="n">
-        <v>0.985</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="15">
@@ -1679,7 +1679,7 @@
         <v>7.083</v>
       </c>
       <c r="P15" t="n">
-        <v>7.604</v>
+        <v>7.464</v>
       </c>
       <c r="Q15" t="n">
         <v>0.996</v>
@@ -1744,7 +1744,7 @@
         <v>2.181</v>
       </c>
       <c r="P16" t="n">
-        <v>2.163</v>
+        <v>2.144</v>
       </c>
       <c r="Q16" t="n">
         <v>0.999</v>
@@ -1809,7 +1809,7 @@
         <v>5.251</v>
       </c>
       <c r="P17" t="n">
-        <v>5.381</v>
+        <v>5.271</v>
       </c>
       <c r="Q17" t="n">
         <v>0.965</v>
@@ -1824,7 +1824,7 @@
         <v>0.973</v>
       </c>
       <c r="U17" t="n">
-        <v>0.975</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="18">
@@ -1874,7 +1874,7 @@
         <v>5.419</v>
       </c>
       <c r="P18" t="n">
-        <v>5.401</v>
+        <v>5.335</v>
       </c>
       <c r="Q18" t="n">
         <v>0.966</v>
@@ -1889,7 +1889,7 @@
         <v>0.974</v>
       </c>
       <c r="U18" t="n">
-        <v>0.978</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="19">
@@ -1939,7 +1939,7 @@
         <v>5.011</v>
       </c>
       <c r="P19" t="n">
-        <v>5.035</v>
+        <v>4.979</v>
       </c>
       <c r="Q19" t="n">
         <v>0.962</v>
@@ -1954,7 +1954,7 @@
         <v>0.97</v>
       </c>
       <c r="U19" t="n">
-        <v>0.973</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="20">
@@ -2004,7 +2004,7 @@
         <v>3.896</v>
       </c>
       <c r="P20" t="n">
-        <v>3.854</v>
+        <v>4.001</v>
       </c>
       <c r="Q20" t="n">
         <v>0.906</v>
@@ -2019,7 +2019,7 @@
         <v>0.868</v>
       </c>
       <c r="U20" t="n">
-        <v>0.927</v>
+        <v>0.895</v>
       </c>
     </row>
     <row r="21">
@@ -2069,7 +2069,7 @@
         <v>4.453</v>
       </c>
       <c r="P21" t="n">
-        <v>4.482</v>
+        <v>4.411</v>
       </c>
       <c r="Q21" t="n">
         <v>0.892</v>
@@ -2084,7 +2084,7 @@
         <v>0.889</v>
       </c>
       <c r="U21" t="n">
-        <v>0.895</v>
+        <v>0.877</v>
       </c>
     </row>
     <row r="22">
@@ -2134,7 +2134,7 @@
         <v>2.597</v>
       </c>
       <c r="P22" t="n">
-        <v>2.529</v>
+        <v>2.622</v>
       </c>
       <c r="Q22" t="n">
         <v>0.997</v>
@@ -2199,7 +2199,7 @@
         <v>5.464</v>
       </c>
       <c r="P23" t="n">
-        <v>5.964</v>
+        <v>5.679</v>
       </c>
       <c r="Q23" t="n">
         <v>0.993</v>
@@ -2264,7 +2264,7 @@
         <v>4.803</v>
       </c>
       <c r="P24" t="n">
-        <v>5.485</v>
+        <v>5.095</v>
       </c>
       <c r="Q24" t="n">
         <v>0.996</v>
@@ -2279,7 +2279,7 @@
         <v>0.995</v>
       </c>
       <c r="U24" t="n">
-        <v>0.998</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="25">
@@ -2329,7 +2329,7 @@
         <v>4.75</v>
       </c>
       <c r="P25" t="n">
-        <v>5.403</v>
+        <v>5.149</v>
       </c>
       <c r="Q25" t="n">
         <v>0.998</v>
@@ -2394,7 +2394,7 @@
         <v>4.388</v>
       </c>
       <c r="P26" t="n">
-        <v>4.469</v>
+        <v>4.765</v>
       </c>
       <c r="Q26" t="n">
         <v>0.993</v>
@@ -2459,7 +2459,7 @@
         <v>5.146</v>
       </c>
       <c r="P27" t="n">
-        <v>5.369</v>
+        <v>5.054</v>
       </c>
       <c r="Q27" t="n">
         <v>0.971</v>
@@ -2474,7 +2474,7 @@
         <v>0.98</v>
       </c>
       <c r="U27" t="n">
-        <v>0.972</v>
+        <v>0.969</v>
       </c>
     </row>
     <row r="28">
@@ -2524,7 +2524,7 @@
         <v>4.748</v>
       </c>
       <c r="P28" t="n">
-        <v>4.833</v>
+        <v>4.505</v>
       </c>
       <c r="Q28" t="n">
         <v>0.984</v>
@@ -2539,7 +2539,7 @@
         <v>0.982</v>
       </c>
       <c r="U28" t="n">
-        <v>0.985</v>
+        <v>0.984</v>
       </c>
     </row>
     <row r="29">
@@ -2589,7 +2589,7 @@
         <v>4.983</v>
       </c>
       <c r="P29" t="n">
-        <v>5.476</v>
+        <v>5.122</v>
       </c>
       <c r="Q29" t="n">
         <v>0.958</v>
@@ -2604,7 +2604,7 @@
         <v>0.965</v>
       </c>
       <c r="U29" t="n">
-        <v>0.955</v>
+        <v>0.958</v>
       </c>
     </row>
     <row r="30">
@@ -2654,7 +2654,7 @@
         <v>4.266</v>
       </c>
       <c r="P30" t="n">
-        <v>4.222</v>
+        <v>4.058</v>
       </c>
       <c r="Q30" t="n">
         <v>0.971</v>
@@ -2669,7 +2669,7 @@
         <v>0.979</v>
       </c>
       <c r="U30" t="n">
-        <v>0.976</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="31">
@@ -2719,7 +2719,7 @@
         <v>5.439</v>
       </c>
       <c r="P31" t="n">
-        <v>5.321</v>
+        <v>5.106</v>
       </c>
       <c r="Q31" t="n">
         <v>0.993</v>
@@ -2734,7 +2734,7 @@
         <v>0.992</v>
       </c>
       <c r="U31" t="n">
-        <v>0.993</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="32">
@@ -2784,7 +2784,7 @@
         <v>6.922</v>
       </c>
       <c r="P32" t="n">
-        <v>7.36</v>
+        <v>7.167</v>
       </c>
       <c r="Q32" t="n">
         <v>0.997</v>
@@ -2799,7 +2799,7 @@
         <v>0.991</v>
       </c>
       <c r="U32" t="n">
-        <v>0.994</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="33">
@@ -2849,7 +2849,7 @@
         <v>4.285</v>
       </c>
       <c r="P33" t="n">
-        <v>4.481</v>
+        <v>4.323</v>
       </c>
       <c r="Q33" t="n">
         <v>0.918</v>
@@ -2864,7 +2864,7 @@
         <v>0.953</v>
       </c>
       <c r="U33" t="n">
-        <v>0.941</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="34">
@@ -2914,7 +2914,7 @@
         <v>5.15</v>
       </c>
       <c r="P34" t="n">
-        <v>5.802</v>
+        <v>5.463</v>
       </c>
       <c r="Q34" t="n">
         <v>0.981</v>
@@ -2929,7 +2929,7 @@
         <v>0.985</v>
       </c>
       <c r="U34" t="n">
-        <v>0.984</v>
+        <v>0.982</v>
       </c>
     </row>
     <row r="35">
@@ -2979,7 +2979,7 @@
         <v>6.183</v>
       </c>
       <c r="P35" t="n">
-        <v>6.718</v>
+        <v>6.505</v>
       </c>
       <c r="Q35" t="n">
         <v>0.993</v>
@@ -2994,7 +2994,7 @@
         <v>0.992</v>
       </c>
       <c r="U35" t="n">
-        <v>0.993</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="36">
@@ -3044,7 +3044,7 @@
         <v>3.414</v>
       </c>
       <c r="P36" t="n">
-        <v>3.983</v>
+        <v>3.671</v>
       </c>
       <c r="Q36" t="n">
         <v>0.987</v>
@@ -3059,7 +3059,7 @@
         <v>0.987</v>
       </c>
       <c r="U36" t="n">
-        <v>0.986</v>
+        <v>0.985</v>
       </c>
     </row>
     <row r="37">
@@ -3109,7 +3109,7 @@
         <v>4.42</v>
       </c>
       <c r="P37" t="n">
-        <v>4.779</v>
+        <v>4.524</v>
       </c>
       <c r="Q37" t="n">
         <v>0.98</v>
@@ -3124,7 +3124,7 @@
         <v>0.983</v>
       </c>
       <c r="U37" t="n">
-        <v>0.983</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="38">
@@ -3174,7 +3174,7 @@
         <v>3.386</v>
       </c>
       <c r="P38" t="n">
-        <v>3.96</v>
+        <v>3.631</v>
       </c>
       <c r="Q38" t="n">
         <v>0.982</v>
@@ -3189,7 +3189,7 @@
         <v>0.984</v>
       </c>
       <c r="U38" t="n">
-        <v>0.981</v>
+        <v>0.982</v>
       </c>
     </row>
     <row r="39">
@@ -3239,7 +3239,7 @@
         <v>4.666</v>
       </c>
       <c r="P39" t="n">
-        <v>4.958</v>
+        <v>4.777</v>
       </c>
       <c r="Q39" t="n">
         <v>0.92</v>
@@ -3254,7 +3254,7 @@
         <v>0.943</v>
       </c>
       <c r="U39" t="n">
-        <v>0.931</v>
+        <v>0.933</v>
       </c>
     </row>
     <row r="40">
@@ -3304,7 +3304,7 @@
         <v>5.418</v>
       </c>
       <c r="P40" t="n">
-        <v>5.751</v>
+        <v>5.669</v>
       </c>
       <c r="Q40" t="n">
         <v>0.911</v>
@@ -3319,7 +3319,7 @@
         <v>0.872</v>
       </c>
       <c r="U40" t="n">
-        <v>0.931</v>
+        <v>0.898</v>
       </c>
     </row>
     <row r="41">
@@ -3369,7 +3369,7 @@
         <v>0.272</v>
       </c>
       <c r="P41" t="n">
-        <v>0.288</v>
+        <v>0.268</v>
       </c>
       <c r="Q41" t="n">
         <v>0.994</v>
@@ -3384,7 +3384,7 @@
         <v>0.971</v>
       </c>
       <c r="U41" t="n">
-        <v>0.995</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="42">
@@ -3434,7 +3434,7 @@
         <v>0.907</v>
       </c>
       <c r="P42" t="n">
-        <v>0.893</v>
+        <v>0.899</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
@@ -3499,7 +3499,7 @@
         <v>0.31</v>
       </c>
       <c r="P43" t="n">
-        <v>0.367</v>
+        <v>0.347</v>
       </c>
       <c r="Q43" t="n">
         <v>0.638</v>
@@ -3514,7 +3514,7 @@
         <v>0.645</v>
       </c>
       <c r="U43" t="n">
-        <v>0.687</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="44">
@@ -3564,7 +3564,7 @@
         <v>0.448</v>
       </c>
       <c r="P44" t="n">
-        <v>0.445</v>
+        <v>0.44</v>
       </c>
       <c r="Q44" t="n">
         <v>0.979</v>
@@ -3579,7 +3579,7 @@
         <v>0.975</v>
       </c>
       <c r="U44" t="n">
-        <v>0.979</v>
+        <v>0.977</v>
       </c>
     </row>
     <row r="45">
@@ -3629,7 +3629,7 @@
         <v>0.107</v>
       </c>
       <c r="P45" t="n">
-        <v>0.089</v>
+        <v>0.109</v>
       </c>
       <c r="Q45" t="n">
         <v>0.997</v>
@@ -3644,7 +3644,7 @@
         <v>0.992</v>
       </c>
       <c r="U45" t="n">
-        <v>0.997</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="46">
@@ -3694,7 +3694,7 @@
         <v>0.029</v>
       </c>
       <c r="P46" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="Q46" t="n">
         <v>0.475</v>
@@ -3709,7 +3709,7 @@
         <v>0.437</v>
       </c>
       <c r="U46" t="n">
-        <v>0.448</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="47">
@@ -3759,7 +3759,7 @@
         <v>0.946</v>
       </c>
       <c r="P47" t="n">
-        <v>0.944</v>
+        <v>0.945</v>
       </c>
       <c r="Q47" t="n">
         <v>0.999</v>
@@ -3954,7 +3954,7 @@
         <v>0.009</v>
       </c>
       <c r="P50" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4019,7 +4019,7 @@
         <v>0.012</v>
       </c>
       <c r="P51" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="Q51" t="n">
         <v>1</v>
@@ -4084,7 +4084,7 @@
         <v>0.019</v>
       </c>
       <c r="P52" t="n">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
@@ -4149,7 +4149,7 @@
         <v>0.096</v>
       </c>
       <c r="P53" t="n">
-        <v>0.079</v>
+        <v>0.077</v>
       </c>
       <c r="Q53" t="n">
         <v>0.991</v>
@@ -4344,7 +4344,7 @@
         <v>0.902</v>
       </c>
       <c r="P56" t="n">
-        <v>0.921</v>
+        <v>0.922</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
@@ -4474,7 +4474,7 @@
         <v>0.019</v>
       </c>
       <c r="P58" t="n">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
@@ -4799,7 +4799,7 @@
         <v>0.149</v>
       </c>
       <c r="P63" t="n">
-        <v>0.171</v>
+        <v>0.155</v>
       </c>
       <c r="Q63" t="n">
         <v>0.993</v>
@@ -4814,7 +4814,7 @@
         <v>0.977</v>
       </c>
       <c r="U63" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="64">
@@ -4864,7 +4864,7 @@
         <v>0.757</v>
       </c>
       <c r="P64" t="n">
-        <v>0.827</v>
+        <v>0.771</v>
       </c>
       <c r="Q64" t="n">
         <v>0.917</v>
@@ -4879,7 +4879,7 @@
         <v>0.878</v>
       </c>
       <c r="U64" t="n">
-        <v>0.935</v>
+        <v>0.902</v>
       </c>
     </row>
     <row r="65">
@@ -4929,7 +4929,7 @@
         <v>0.861</v>
       </c>
       <c r="P65" t="n">
-        <v>0.849</v>
+        <v>0.864</v>
       </c>
       <c r="Q65" t="n">
         <v>0.994</v>
@@ -4994,7 +4994,7 @@
         <v>0.465</v>
       </c>
       <c r="P66" t="n">
-        <v>0.463</v>
+        <v>0.467</v>
       </c>
       <c r="Q66" t="n">
         <v>0.999</v>
@@ -5059,7 +5059,7 @@
         <v>0.294</v>
       </c>
       <c r="P67" t="n">
-        <v>0.344</v>
+        <v>0.313</v>
       </c>
       <c r="Q67" t="n">
         <v>0.868</v>
@@ -5074,7 +5074,7 @@
         <v>0.854</v>
       </c>
       <c r="U67" t="n">
-        <v>0.867</v>
+        <v>0.883</v>
       </c>
     </row>
     <row r="68">
@@ -5124,7 +5124,7 @@
         <v>0.865</v>
       </c>
       <c r="P68" t="n">
-        <v>0.857</v>
+        <v>0.869</v>
       </c>
       <c r="Q68" t="n">
         <v>0.998</v>
@@ -5189,7 +5189,7 @@
         <v>0.314</v>
       </c>
       <c r="P69" t="n">
-        <v>0.365</v>
+        <v>0.341</v>
       </c>
       <c r="Q69" t="n">
         <v>0.455</v>
@@ -5204,7 +5204,7 @@
         <v>0.399</v>
       </c>
       <c r="U69" t="n">
-        <v>0.425</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="70">
@@ -5254,7 +5254,7 @@
         <v>0.611</v>
       </c>
       <c r="P70" t="n">
-        <v>0.586</v>
+        <v>0.63</v>
       </c>
       <c r="Q70" t="n">
         <v>0.996</v>
@@ -5319,7 +5319,7 @@
         <v>0.086</v>
       </c>
       <c r="P71" t="n">
-        <v>0.133</v>
+        <v>0.12</v>
       </c>
       <c r="Q71" t="n">
         <v>0.422</v>
@@ -5334,7 +5334,7 @@
         <v>0.383</v>
       </c>
       <c r="U71" t="n">
-        <v>0.409</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="72">
@@ -5449,7 +5449,7 @@
         <v>0.128</v>
       </c>
       <c r="P73" t="n">
-        <v>0.094</v>
+        <v>0.107</v>
       </c>
       <c r="Q73" t="n">
         <v>0.281</v>
@@ -5464,7 +5464,7 @@
         <v>0.272</v>
       </c>
       <c r="U73" t="n">
-        <v>0.24</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="74">
@@ -5514,7 +5514,7 @@
         <v>0.274</v>
       </c>
       <c r="P74" t="n">
-        <v>0.242</v>
+        <v>0.258</v>
       </c>
       <c r="Q74" t="n">
         <v>0.996</v>
@@ -5579,7 +5579,7 @@
         <v>0.112</v>
       </c>
       <c r="P75" t="n">
-        <v>0.084</v>
+        <v>0.097</v>
       </c>
       <c r="Q75" t="n">
         <v>0.281</v>
@@ -5594,7 +5594,7 @@
         <v>0.271</v>
       </c>
       <c r="U75" t="n">
-        <v>0.241</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="76">
@@ -5644,7 +5644,7 @@
         <v>0.748</v>
       </c>
       <c r="P76" t="n">
-        <v>0.737</v>
+        <v>0.736</v>
       </c>
       <c r="Q76" t="n">
         <v>0.992</v>
@@ -5659,7 +5659,7 @@
         <v>0.988</v>
       </c>
       <c r="U76" t="n">
-        <v>0.992</v>
+        <v>0.991</v>
       </c>
     </row>
     <row r="77">
@@ -5709,7 +5709,7 @@
         <v>0.057</v>
       </c>
       <c r="P77" t="n">
-        <v>0.063</v>
+        <v>0.062</v>
       </c>
       <c r="Q77" t="n">
         <v>0.918</v>
@@ -5724,7 +5724,7 @@
         <v>0.878</v>
       </c>
       <c r="U77" t="n">
-        <v>0.934</v>
+        <v>0.903</v>
       </c>
     </row>
   </sheetData>

--- a/tables/variables-2.xlsx
+++ b/tables/variables-2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t xml:space="preserve">ESS11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESS11SC</t>
   </si>
   <si>
     <t xml:space="preserve">flag</t>
@@ -708,18 +711,19 @@
     <col min="7" max="7" width="5.71" hidden="0" customWidth="1"/>
     <col min="8" max="8" width="7.71" hidden="0" customWidth="1"/>
     <col min="9" max="9" width="5.71" hidden="0" customWidth="1"/>
-    <col min="10" max="10" width="4.71" hidden="0" customWidth="1"/>
-    <col min="11" max="11" width="99.71" hidden="0" customWidth="1"/>
-    <col min="12" max="12" width="8.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="7.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="4.71" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="99.71" hidden="0" customWidth="1"/>
     <col min="13" max="13" width="8.71" hidden="0" customWidth="1"/>
     <col min="14" max="14" width="8.71" hidden="0" customWidth="1"/>
-    <col min="15" max="15" width="7.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="8.71" hidden="0" customWidth="1"/>
     <col min="16" max="16" width="7.71" hidden="0" customWidth="1"/>
-    <col min="17" max="17" width="5.71" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="8.71" hidden="0" customWidth="1"/>
     <col min="18" max="18" width="5.71" hidden="0" customWidth="1"/>
     <col min="19" max="19" width="5.71" hidden="0" customWidth="1"/>
     <col min="20" max="20" width="5.71" hidden="0" customWidth="1"/>
     <col min="21" max="21" width="5.71" hidden="0" customWidth="1"/>
+    <col min="22" max="22" width="5.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -786,16 +790,19 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -816,40 +823,43 @@
         <v>1</v>
       </c>
       <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="n">
         <v>12.79</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>12.911</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>12.778</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>12.698</v>
       </c>
-      <c r="P2" t="n">
-        <v>13.128</v>
-      </c>
       <c r="Q2" t="n">
+        <v>13.034</v>
+      </c>
+      <c r="R2" t="n">
         <v>0.991</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>0.99</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>0.986</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>0.955</v>
       </c>
-      <c r="U2" t="n">
-        <v>0.987</v>
+      <c r="V2" t="n">
+        <v>0.983</v>
       </c>
     </row>
     <row r="3">
@@ -857,10 +867,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -881,40 +891,43 @@
         <v>1</v>
       </c>
       <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.582</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.708</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>0.326</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>0.434</v>
       </c>
-      <c r="P3" t="n">
-        <v>0.287</v>
-      </c>
       <c r="Q3" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="R3" t="n">
         <v>0.103</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>0.105</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>0.097</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>0.098</v>
       </c>
-      <c r="U3" t="n">
-        <v>0.114</v>
+      <c r="V3" t="n">
+        <v>0.115</v>
       </c>
     </row>
     <row r="4">
@@ -922,10 +935,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -946,28 +959,28 @@
         <v>1</v>
       </c>
       <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="n">
         <v>2.635</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>2.614</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>2.553</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>2.595</v>
       </c>
-      <c r="P4" t="n">
-        <v>2.508</v>
-      </c>
       <c r="Q4" t="n">
-        <v>0.997</v>
+        <v>2.513</v>
       </c>
       <c r="R4" t="n">
         <v>0.997</v>
@@ -976,10 +989,13 @@
         <v>0.997</v>
       </c>
       <c r="T4" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="U4" t="n">
         <v>0.988</v>
       </c>
-      <c r="U4" t="n">
-        <v>0.995</v>
+      <c r="V4" t="n">
+        <v>0.993</v>
       </c>
     </row>
     <row r="5">
@@ -987,10 +1003,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -1011,39 +1027,42 @@
         <v>1</v>
       </c>
       <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" t="n">
         <v>7.535</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>6.569</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>4.661</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>4.996</v>
       </c>
-      <c r="P5" t="n">
-        <v>4.6</v>
-      </c>
       <c r="Q5" t="n">
+        <v>4.607</v>
+      </c>
+      <c r="R5" t="n">
         <v>0.268</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>0.257</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>0.261</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>0.248</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>0.264</v>
       </c>
     </row>
@@ -1052,10 +1071,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -1076,39 +1095,42 @@
         <v>1</v>
       </c>
       <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" t="n">
         <v>711.195</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>678.719</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>700.749</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>598.437</v>
       </c>
-      <c r="P6" t="n">
-        <v>654.367</v>
-      </c>
       <c r="Q6" t="n">
+        <v>653.63</v>
+      </c>
+      <c r="R6" t="n">
         <v>0.355</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>0.338</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>0.349</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>0.298</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>0.325</v>
       </c>
     </row>
@@ -1117,10 +1139,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -1141,40 +1163,43 @@
         <v>1</v>
       </c>
       <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="n">
         <v>31.091</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>30.315</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>30.168</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>85.791</v>
       </c>
-      <c r="P7" t="n">
-        <v>30.035</v>
-      </c>
       <c r="Q7" t="n">
+        <v>29.797</v>
+      </c>
+      <c r="R7" t="n">
         <v>0.848</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>0.812</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>0.801</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>0.822</v>
       </c>
-      <c r="U7" t="n">
-        <v>0.806</v>
+      <c r="V7" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="8">
@@ -1182,10 +1207,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -1206,40 +1231,43 @@
         <v>1</v>
       </c>
       <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" t="n">
         <v>34.301</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>34.548</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>33.574</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>31.777</v>
       </c>
-      <c r="P8" t="n">
-        <v>33.695</v>
-      </c>
       <c r="Q8" t="n">
+        <v>34.086</v>
+      </c>
+      <c r="R8" t="n">
         <v>0.872</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>0.856</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>0.841</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>0.812</v>
       </c>
-      <c r="U8" t="n">
-        <v>0.864</v>
+      <c r="V8" t="n">
+        <v>0.862</v>
       </c>
     </row>
     <row r="9">
@@ -1247,10 +1275,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -1271,40 +1299,43 @@
         <v>1</v>
       </c>
       <c r="J9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" t="n">
         <v>13.701</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>13.045</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>13.12</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>13.103</v>
       </c>
-      <c r="P9" t="n">
-        <v>12.5</v>
-      </c>
       <c r="Q9" t="n">
+        <v>12.606</v>
+      </c>
+      <c r="R9" t="n">
         <v>0.347</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>0.327</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>0.33</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>0.332</v>
       </c>
-      <c r="U9" t="n">
-        <v>0.328</v>
+      <c r="V9" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="10">
@@ -1312,10 +1343,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -1336,40 +1367,43 @@
         <v>1</v>
       </c>
       <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" t="n">
         <v>1960.296</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>1960.396</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>1958.581</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>1926.66</v>
       </c>
-      <c r="P10" t="n">
-        <v>1958.3</v>
-      </c>
       <c r="Q10" t="n">
+        <v>1953.157</v>
+      </c>
+      <c r="R10" t="n">
         <v>0.998</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>0.997</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>0.996</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>0.978</v>
       </c>
-      <c r="U10" t="n">
-        <v>0.993</v>
+      <c r="V10" t="n">
+        <v>0.991</v>
       </c>
     </row>
     <row r="11">
@@ -1377,10 +1411,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -1401,40 +1435,43 @@
         <v>1</v>
       </c>
       <c r="J11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" t="n">
         <v>1.913</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>1.918</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>1.907</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>1.98</v>
       </c>
-      <c r="P11" t="n">
-        <v>1.871</v>
-      </c>
       <c r="Q11" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="R11" t="n">
         <v>0.99</v>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>0.991</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>0.992</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>0.991</v>
       </c>
-      <c r="U11" t="n">
-        <v>0.993</v>
+      <c r="V11" t="n">
+        <v>0.992</v>
       </c>
     </row>
     <row r="12">
@@ -1442,10 +1479,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -1466,40 +1503,43 @@
         <v>1</v>
       </c>
       <c r="J12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
-        <v>44</v>
-      </c>
-      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" t="n">
         <v>4.433</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>4.501</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>4.85</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>5.207</v>
       </c>
-      <c r="P12" t="n">
-        <v>4.966</v>
-      </c>
       <c r="Q12" t="n">
+        <v>4.942</v>
+      </c>
+      <c r="R12" t="n">
         <v>0.912</v>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>0.919</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>0.922</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>0.942</v>
       </c>
-      <c r="U12" t="n">
-        <v>0.933</v>
+      <c r="V12" t="n">
+        <v>0.934</v>
       </c>
     </row>
     <row r="13">
@@ -1507,10 +1547,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -1531,39 +1571,42 @@
         <v>1</v>
       </c>
       <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" t="n">
         <v>2.007</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>2.084</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>2.089</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>2.02</v>
       </c>
-      <c r="P13" t="n">
-        <v>1.939</v>
-      </c>
       <c r="Q13" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R13" t="n">
         <v>0.971</v>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>0.973</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>0.968</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>0.981</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>0.981</v>
       </c>
     </row>
@@ -1572,63 +1615,66 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
         <v>47</v>
       </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" t="s">
-        <v>46</v>
-      </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>2.072</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>2.103</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>2.063</v>
       </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
         <v>2.093</v>
       </c>
-      <c r="P14" t="n">
-        <v>2.037</v>
-      </c>
       <c r="Q14" t="n">
+        <v>2.068</v>
+      </c>
+      <c r="R14" t="n">
         <v>0.982</v>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>0.985</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>0.981</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>0.985</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>0.983</v>
       </c>
     </row>
@@ -1637,10 +1683,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -1661,40 +1707,43 @@
         <v>1</v>
       </c>
       <c r="J15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" t="s">
-        <v>44</v>
-      </c>
-      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" t="n">
         <v>7.354</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>7.407</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>7.391</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>7.083</v>
       </c>
-      <c r="P15" t="n">
-        <v>7.464</v>
-      </c>
       <c r="Q15" t="n">
+        <v>7.438</v>
+      </c>
+      <c r="R15" t="n">
         <v>0.996</v>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>0.995</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>0.996</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>0.994</v>
       </c>
-      <c r="U15" t="n">
-        <v>0.997</v>
+      <c r="V15" t="n">
+        <v>0.996</v>
       </c>
     </row>
     <row r="16">
@@ -1702,10 +1751,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -1726,28 +1775,28 @@
         <v>1</v>
       </c>
       <c r="J16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" t="s">
-        <v>46</v>
-      </c>
-      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" t="n">
         <v>2.179</v>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>2.196</v>
       </c>
-      <c r="N16" t="n">
+      <c r="O16" t="n">
         <v>2.205</v>
       </c>
-      <c r="O16" t="n">
+      <c r="P16" t="n">
         <v>2.181</v>
       </c>
-      <c r="P16" t="n">
-        <v>2.144</v>
-      </c>
       <c r="Q16" t="n">
-        <v>0.999</v>
+        <v>2.146</v>
       </c>
       <c r="R16" t="n">
         <v>0.999</v>
@@ -1756,10 +1805,13 @@
         <v>0.999</v>
       </c>
       <c r="T16" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="U16" t="n">
         <v>0.996</v>
       </c>
-      <c r="U16" t="n">
-        <v>0.999</v>
+      <c r="V16" t="n">
+        <v>0.998</v>
       </c>
     </row>
     <row r="17">
@@ -1767,10 +1819,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -1791,39 +1843,42 @@
         <v>1</v>
       </c>
       <c r="J17" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" t="n">
         <v>4.768</v>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>4.829</v>
       </c>
-      <c r="N17" t="n">
+      <c r="O17" t="n">
         <v>4.965</v>
       </c>
-      <c r="O17" t="n">
+      <c r="P17" t="n">
         <v>5.251</v>
       </c>
-      <c r="P17" t="n">
-        <v>5.271</v>
-      </c>
       <c r="Q17" t="n">
-        <v>0.965</v>
+        <v>5.249</v>
       </c>
       <c r="R17" t="n">
         <v>0.965</v>
       </c>
       <c r="S17" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="T17" t="n">
         <v>0.958</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>0.973</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>0.972</v>
       </c>
     </row>
@@ -1832,10 +1887,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -1856,39 +1911,42 @@
         <v>1</v>
       </c>
       <c r="J18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" t="n">
         <v>5.424</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>5.198</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>5.208</v>
       </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
         <v>5.419</v>
       </c>
-      <c r="P18" t="n">
-        <v>5.335</v>
-      </c>
       <c r="Q18" t="n">
+        <v>5.277</v>
+      </c>
+      <c r="R18" t="n">
         <v>0.966</v>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>0.968</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>0.961</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>0.974</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>0.975</v>
       </c>
     </row>
@@ -1897,10 +1955,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -1921,39 +1979,42 @@
         <v>1</v>
       </c>
       <c r="J19" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" t="n">
         <v>4.848</v>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>4.731</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>4.834</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
         <v>5.011</v>
       </c>
-      <c r="P19" t="n">
-        <v>4.979</v>
-      </c>
       <c r="Q19" t="n">
+        <v>4.934</v>
+      </c>
+      <c r="R19" t="n">
         <v>0.962</v>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>0.965</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>0.957</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>0.97</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>0.972</v>
       </c>
     </row>
@@ -1962,10 +2023,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -1986,39 +2047,42 @@
         <v>1</v>
       </c>
       <c r="J20" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" t="s">
-        <v>44</v>
-      </c>
-      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20" t="n">
         <v>3.94</v>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>3.974</v>
       </c>
-      <c r="N20" t="n">
+      <c r="O20" t="n">
         <v>3.725</v>
       </c>
-      <c r="O20" t="n">
+      <c r="P20" t="n">
         <v>3.896</v>
       </c>
-      <c r="P20" t="n">
-        <v>4.001</v>
-      </c>
       <c r="Q20" t="n">
+        <v>3.966</v>
+      </c>
+      <c r="R20" t="n">
         <v>0.906</v>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>0.908</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>0.899</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>0.868</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>0.895</v>
       </c>
     </row>
@@ -2027,10 +2091,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -2051,40 +2115,43 @@
         <v>1</v>
       </c>
       <c r="J21" t="b">
-        <v>0</v>
-      </c>
-      <c r="K21" t="s">
-        <v>44</v>
-      </c>
-      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21" t="n">
         <v>4.528</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>4.482</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>4.292</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
         <v>4.453</v>
       </c>
-      <c r="P21" t="n">
-        <v>4.411</v>
-      </c>
       <c r="Q21" t="n">
+        <v>4.443</v>
+      </c>
+      <c r="R21" t="n">
         <v>0.892</v>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>0.869</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>0.854</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>0.889</v>
       </c>
-      <c r="U21" t="n">
-        <v>0.877</v>
+      <c r="V21" t="n">
+        <v>0.88</v>
       </c>
     </row>
     <row r="22">
@@ -2092,10 +2159,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -2116,40 +2183,43 @@
         <v>1</v>
       </c>
       <c r="J22" t="b">
-        <v>0</v>
-      </c>
-      <c r="K22" t="s">
-        <v>42</v>
-      </c>
-      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>43</v>
+      </c>
+      <c r="M22" t="n">
         <v>2.568</v>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>2.582</v>
       </c>
-      <c r="N22" t="n">
+      <c r="O22" t="n">
         <v>2.656</v>
       </c>
-      <c r="O22" t="n">
+      <c r="P22" t="n">
         <v>2.597</v>
       </c>
-      <c r="P22" t="n">
-        <v>2.622</v>
-      </c>
       <c r="Q22" t="n">
+        <v>2.629</v>
+      </c>
+      <c r="R22" t="n">
         <v>0.997</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0.998</v>
       </c>
       <c r="S22" t="n">
         <v>0.998</v>
       </c>
       <c r="T22" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="U22" t="n">
         <v>0.997</v>
       </c>
-      <c r="U22" t="n">
-        <v>0.999</v>
+      <c r="V22" t="n">
+        <v>0.998</v>
       </c>
     </row>
     <row r="23">
@@ -2157,10 +2227,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -2181,28 +2251,28 @@
         <v>1</v>
       </c>
       <c r="J23" t="b">
-        <v>0</v>
-      </c>
-      <c r="K23" t="s">
-        <v>44</v>
-      </c>
-      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M23" t="n">
         <v>5.764</v>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>5.765</v>
       </c>
-      <c r="N23" t="n">
+      <c r="O23" t="n">
         <v>5.59</v>
       </c>
-      <c r="O23" t="n">
+      <c r="P23" t="n">
         <v>5.464</v>
       </c>
-      <c r="P23" t="n">
-        <v>5.679</v>
-      </c>
       <c r="Q23" t="n">
-        <v>0.993</v>
+        <v>5.672</v>
       </c>
       <c r="R23" t="n">
         <v>0.993</v>
@@ -2214,7 +2284,10 @@
         <v>0.993</v>
       </c>
       <c r="U23" t="n">
-        <v>0.995</v>
+        <v>0.993</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.994</v>
       </c>
     </row>
     <row r="24">
@@ -2222,10 +2295,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -2246,28 +2319,28 @@
         <v>1</v>
       </c>
       <c r="J24" t="b">
-        <v>0</v>
-      </c>
-      <c r="K24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>45</v>
+      </c>
+      <c r="M24" t="n">
         <v>5.115</v>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>5.19</v>
       </c>
-      <c r="N24" t="n">
+      <c r="O24" t="n">
         <v>4.962</v>
       </c>
-      <c r="O24" t="n">
+      <c r="P24" t="n">
         <v>4.803</v>
       </c>
-      <c r="P24" t="n">
-        <v>5.095</v>
-      </c>
       <c r="Q24" t="n">
-        <v>0.996</v>
+        <v>5.075</v>
       </c>
       <c r="R24" t="n">
         <v>0.996</v>
@@ -2276,9 +2349,12 @@
         <v>0.996</v>
       </c>
       <c r="T24" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="U24" t="n">
         <v>0.995</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>0.997</v>
       </c>
     </row>
@@ -2287,10 +2363,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -2311,40 +2387,43 @@
         <v>1</v>
       </c>
       <c r="J25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K25" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>45</v>
+      </c>
+      <c r="M25" t="n">
         <v>5.201</v>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>5.255</v>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
         <v>5.047</v>
       </c>
-      <c r="O25" t="n">
+      <c r="P25" t="n">
         <v>4.75</v>
       </c>
-      <c r="P25" t="n">
-        <v>5.149</v>
-      </c>
       <c r="Q25" t="n">
+        <v>5.123</v>
+      </c>
+      <c r="R25" t="n">
         <v>0.998</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0.997</v>
       </c>
       <c r="S25" t="n">
         <v>0.997</v>
       </c>
       <c r="T25" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="U25" t="n">
         <v>0.995</v>
       </c>
-      <c r="U25" t="n">
-        <v>0.998</v>
+      <c r="V25" t="n">
+        <v>0.997</v>
       </c>
     </row>
     <row r="26">
@@ -2352,10 +2431,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -2376,40 +2455,43 @@
         <v>1</v>
       </c>
       <c r="J26" t="b">
-        <v>0</v>
-      </c>
-      <c r="K26" t="s">
-        <v>44</v>
-      </c>
-      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>45</v>
+      </c>
+      <c r="M26" t="n">
         <v>4.309</v>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>4.46</v>
       </c>
-      <c r="N26" t="n">
+      <c r="O26" t="n">
         <v>4.496</v>
       </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
         <v>4.388</v>
       </c>
-      <c r="P26" t="n">
-        <v>4.765</v>
-      </c>
       <c r="Q26" t="n">
+        <v>4.676</v>
+      </c>
+      <c r="R26" t="n">
         <v>0.993</v>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>0.991</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>0.99</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>0.985</v>
       </c>
-      <c r="U26" t="n">
-        <v>0.994</v>
+      <c r="V26" t="n">
+        <v>0.992</v>
       </c>
     </row>
     <row r="27">
@@ -2417,10 +2499,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2441,39 +2523,42 @@
         <v>1</v>
       </c>
       <c r="J27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K27" t="s">
-        <v>44</v>
-      </c>
-      <c r="L27" t="n">
-        <v>5.088</v>
+        <v>1</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>45</v>
       </c>
       <c r="M27" t="n">
         <v>5.088</v>
       </c>
       <c r="N27" t="n">
+        <v>5.088</v>
+      </c>
+      <c r="O27" t="n">
         <v>5.066</v>
       </c>
-      <c r="O27" t="n">
+      <c r="P27" t="n">
         <v>5.146</v>
       </c>
-      <c r="P27" t="n">
-        <v>5.054</v>
-      </c>
       <c r="Q27" t="n">
+        <v>5.027</v>
+      </c>
+      <c r="R27" t="n">
         <v>0.971</v>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>0.966</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>0.963</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>0.98</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>0.969</v>
       </c>
     </row>
@@ -2482,10 +2567,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -2506,40 +2591,43 @@
         <v>1</v>
       </c>
       <c r="J28" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" t="s">
-        <v>44</v>
-      </c>
-      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>45</v>
+      </c>
+      <c r="M28" t="n">
         <v>4.688</v>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>4.936</v>
       </c>
-      <c r="N28" t="n">
+      <c r="O28" t="n">
         <v>5.128</v>
       </c>
-      <c r="O28" t="n">
+      <c r="P28" t="n">
         <v>4.748</v>
       </c>
-      <c r="P28" t="n">
-        <v>4.505</v>
-      </c>
       <c r="Q28" t="n">
+        <v>4.457</v>
+      </c>
+      <c r="R28" t="n">
         <v>0.984</v>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>0.98</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>0.975</v>
       </c>
-      <c r="T28" t="n">
+      <c r="U28" t="n">
         <v>0.982</v>
       </c>
-      <c r="U28" t="n">
-        <v>0.984</v>
+      <c r="V28" t="n">
+        <v>0.983</v>
       </c>
     </row>
     <row r="29">
@@ -2547,10 +2635,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -2571,40 +2659,43 @@
         <v>1</v>
       </c>
       <c r="J29" t="b">
-        <v>0</v>
-      </c>
-      <c r="K29" t="s">
-        <v>44</v>
-      </c>
-      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>45</v>
+      </c>
+      <c r="M29" t="n">
         <v>5.468</v>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>5.569</v>
       </c>
-      <c r="N29" t="n">
+      <c r="O29" t="n">
         <v>5.596</v>
       </c>
-      <c r="O29" t="n">
+      <c r="P29" t="n">
         <v>4.983</v>
       </c>
-      <c r="P29" t="n">
-        <v>5.122</v>
-      </c>
       <c r="Q29" t="n">
+        <v>5.114</v>
+      </c>
+      <c r="R29" t="n">
         <v>0.958</v>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>0.965</v>
       </c>
-      <c r="S29" t="n">
+      <c r="T29" t="n">
         <v>0.962</v>
       </c>
-      <c r="T29" t="n">
+      <c r="U29" t="n">
         <v>0.965</v>
       </c>
-      <c r="U29" t="n">
-        <v>0.958</v>
+      <c r="V29" t="n">
+        <v>0.959</v>
       </c>
     </row>
     <row r="30">
@@ -2612,10 +2703,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -2636,39 +2727,42 @@
         <v>1</v>
       </c>
       <c r="J30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K30" t="s">
-        <v>44</v>
-      </c>
-      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
+      </c>
+      <c r="M30" t="n">
         <v>4.079</v>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>4.334</v>
       </c>
-      <c r="N30" t="n">
+      <c r="O30" t="n">
         <v>4.307</v>
       </c>
-      <c r="O30" t="n">
+      <c r="P30" t="n">
         <v>4.266</v>
       </c>
-      <c r="P30" t="n">
-        <v>4.058</v>
-      </c>
       <c r="Q30" t="n">
+        <v>4.013</v>
+      </c>
+      <c r="R30" t="n">
         <v>0.971</v>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>0.974</v>
       </c>
-      <c r="S30" t="n">
+      <c r="T30" t="n">
         <v>0.965</v>
       </c>
-      <c r="T30" t="n">
+      <c r="U30" t="n">
         <v>0.979</v>
       </c>
-      <c r="U30" t="n">
+      <c r="V30" t="n">
         <v>0.97</v>
       </c>
     </row>
@@ -2677,10 +2771,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -2701,28 +2795,28 @@
         <v>1</v>
       </c>
       <c r="J31" t="b">
-        <v>0</v>
-      </c>
-      <c r="K31" t="s">
-        <v>44</v>
-      </c>
-      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>45</v>
+      </c>
+      <c r="M31" t="n">
         <v>5.65</v>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>5.579</v>
       </c>
-      <c r="N31" t="n">
+      <c r="O31" t="n">
         <v>5.5</v>
       </c>
-      <c r="O31" t="n">
+      <c r="P31" t="n">
         <v>5.439</v>
       </c>
-      <c r="P31" t="n">
-        <v>5.106</v>
-      </c>
       <c r="Q31" t="n">
-        <v>0.993</v>
+        <v>5.126</v>
       </c>
       <c r="R31" t="n">
         <v>0.993</v>
@@ -2731,9 +2825,12 @@
         <v>0.993</v>
       </c>
       <c r="T31" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="U31" t="n">
         <v>0.992</v>
       </c>
-      <c r="U31" t="n">
+      <c r="V31" t="n">
         <v>0.992</v>
       </c>
     </row>
@@ -2742,10 +2839,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
@@ -2766,40 +2863,43 @@
         <v>1</v>
       </c>
       <c r="J32" t="b">
-        <v>0</v>
-      </c>
-      <c r="K32" t="s">
-        <v>44</v>
-      </c>
-      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>45</v>
+      </c>
+      <c r="M32" t="n">
         <v>7.07</v>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>7.125</v>
       </c>
-      <c r="N32" t="n">
+      <c r="O32" t="n">
         <v>7.074</v>
       </c>
-      <c r="O32" t="n">
+      <c r="P32" t="n">
         <v>6.922</v>
       </c>
-      <c r="P32" t="n">
-        <v>7.167</v>
-      </c>
       <c r="Q32" t="n">
+        <v>7.145</v>
+      </c>
+      <c r="R32" t="n">
         <v>0.997</v>
       </c>
-      <c r="R32" t="n">
+      <c r="S32" t="n">
         <v>0.996</v>
       </c>
-      <c r="S32" t="n">
+      <c r="T32" t="n">
         <v>0.995</v>
       </c>
-      <c r="T32" t="n">
+      <c r="U32" t="n">
         <v>0.991</v>
       </c>
-      <c r="U32" t="n">
-        <v>0.993</v>
+      <c r="V32" t="n">
+        <v>0.992</v>
       </c>
     </row>
     <row r="33">
@@ -2807,10 +2907,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
@@ -2831,40 +2931,43 @@
         <v>1</v>
       </c>
       <c r="J33" t="b">
-        <v>0</v>
-      </c>
-      <c r="K33" t="s">
-        <v>44</v>
-      </c>
-      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>45</v>
+      </c>
+      <c r="M33" t="n">
         <v>3.843</v>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>3.937</v>
       </c>
-      <c r="N33" t="n">
+      <c r="O33" t="n">
         <v>4.154</v>
       </c>
-      <c r="O33" t="n">
+      <c r="P33" t="n">
         <v>4.285</v>
       </c>
-      <c r="P33" t="n">
-        <v>4.323</v>
-      </c>
       <c r="Q33" t="n">
+        <v>4.268</v>
+      </c>
+      <c r="R33" t="n">
         <v>0.918</v>
       </c>
-      <c r="R33" t="n">
+      <c r="S33" t="n">
         <v>0.922</v>
       </c>
-      <c r="S33" t="n">
+      <c r="T33" t="n">
         <v>0.926</v>
       </c>
-      <c r="T33" t="n">
+      <c r="U33" t="n">
         <v>0.953</v>
       </c>
-      <c r="U33" t="n">
-        <v>0.94</v>
+      <c r="V33" t="n">
+        <v>0.942</v>
       </c>
     </row>
     <row r="34">
@@ -2872,10 +2975,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
@@ -2896,39 +2999,42 @@
         <v>1</v>
       </c>
       <c r="J34" t="b">
-        <v>0</v>
-      </c>
-      <c r="K34" t="s">
-        <v>44</v>
-      </c>
-      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" t="s">
+        <v>45</v>
+      </c>
+      <c r="M34" t="n">
         <v>5.244</v>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>5.314</v>
       </c>
-      <c r="N34" t="n">
+      <c r="O34" t="n">
         <v>5.226</v>
       </c>
-      <c r="O34" t="n">
+      <c r="P34" t="n">
         <v>5.15</v>
       </c>
-      <c r="P34" t="n">
-        <v>5.463</v>
-      </c>
       <c r="Q34" t="n">
-        <v>0.981</v>
+        <v>5.439</v>
       </c>
       <c r="R34" t="n">
         <v>0.981</v>
       </c>
       <c r="S34" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="T34" t="n">
         <v>0.98</v>
       </c>
-      <c r="T34" t="n">
+      <c r="U34" t="n">
         <v>0.985</v>
       </c>
-      <c r="U34" t="n">
+      <c r="V34" t="n">
         <v>0.982</v>
       </c>
     </row>
@@ -2937,10 +3043,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
@@ -2961,28 +3067,28 @@
         <v>1</v>
       </c>
       <c r="J35" t="b">
-        <v>0</v>
-      </c>
-      <c r="K35" t="s">
-        <v>44</v>
-      </c>
-      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>45</v>
+      </c>
+      <c r="M35" t="n">
         <v>6.204</v>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>6.353</v>
       </c>
-      <c r="N35" t="n">
+      <c r="O35" t="n">
         <v>6.371</v>
       </c>
-      <c r="O35" t="n">
+      <c r="P35" t="n">
         <v>6.183</v>
       </c>
-      <c r="P35" t="n">
-        <v>6.505</v>
-      </c>
       <c r="Q35" t="n">
-        <v>0.993</v>
+        <v>6.492</v>
       </c>
       <c r="R35" t="n">
         <v>0.993</v>
@@ -2991,10 +3097,13 @@
         <v>0.993</v>
       </c>
       <c r="T35" t="n">
-        <v>0.992</v>
+        <v>0.993</v>
       </c>
       <c r="U35" t="n">
         <v>0.992</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.991</v>
       </c>
     </row>
     <row r="36">
@@ -3002,10 +3111,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
@@ -3026,39 +3135,42 @@
         <v>1</v>
       </c>
       <c r="J36" t="b">
-        <v>0</v>
-      </c>
-      <c r="K36" t="s">
-        <v>44</v>
-      </c>
-      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" t="s">
+        <v>45</v>
+      </c>
+      <c r="M36" t="n">
         <v>3.522</v>
       </c>
-      <c r="M36" t="n">
+      <c r="N36" t="n">
         <v>3.597</v>
       </c>
-      <c r="N36" t="n">
+      <c r="O36" t="n">
         <v>3.59</v>
       </c>
-      <c r="O36" t="n">
+      <c r="P36" t="n">
         <v>3.414</v>
       </c>
-      <c r="P36" t="n">
-        <v>3.671</v>
-      </c>
       <c r="Q36" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="R36" t="n">
         <v>0.987</v>
       </c>
-      <c r="R36" t="n">
+      <c r="S36" t="n">
         <v>0.985</v>
       </c>
-      <c r="S36" t="n">
+      <c r="T36" t="n">
         <v>0.982</v>
       </c>
-      <c r="T36" t="n">
+      <c r="U36" t="n">
         <v>0.987</v>
       </c>
-      <c r="U36" t="n">
+      <c r="V36" t="n">
         <v>0.985</v>
       </c>
     </row>
@@ -3067,10 +3179,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
@@ -3091,39 +3203,42 @@
         <v>1</v>
       </c>
       <c r="J37" t="b">
-        <v>0</v>
-      </c>
-      <c r="K37" t="s">
-        <v>44</v>
-      </c>
-      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>45</v>
+      </c>
+      <c r="M37" t="n">
         <v>4.392</v>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>4.496</v>
       </c>
-      <c r="N37" t="n">
+      <c r="O37" t="n">
         <v>4.419</v>
       </c>
-      <c r="O37" t="n">
+      <c r="P37" t="n">
         <v>4.42</v>
       </c>
-      <c r="P37" t="n">
-        <v>4.524</v>
-      </c>
       <c r="Q37" t="n">
-        <v>0.98</v>
+        <v>4.483</v>
       </c>
       <c r="R37" t="n">
         <v>0.98</v>
       </c>
       <c r="S37" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="T37" t="n">
         <v>0.977</v>
       </c>
-      <c r="T37" t="n">
+      <c r="U37" t="n">
         <v>0.983</v>
       </c>
-      <c r="U37" t="n">
+      <c r="V37" t="n">
         <v>0.981</v>
       </c>
     </row>
@@ -3132,10 +3247,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
@@ -3156,39 +3271,42 @@
         <v>1</v>
       </c>
       <c r="J38" t="b">
-        <v>0</v>
-      </c>
-      <c r="K38" t="s">
-        <v>44</v>
-      </c>
-      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" t="s">
+        <v>45</v>
+      </c>
+      <c r="M38" t="n">
         <v>3.509</v>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>3.56</v>
       </c>
-      <c r="N38" t="n">
+      <c r="O38" t="n">
         <v>3.534</v>
       </c>
-      <c r="O38" t="n">
+      <c r="P38" t="n">
         <v>3.386</v>
       </c>
-      <c r="P38" t="n">
-        <v>3.631</v>
-      </c>
       <c r="Q38" t="n">
+        <v>3.593</v>
+      </c>
+      <c r="R38" t="n">
         <v>0.982</v>
       </c>
-      <c r="R38" t="n">
+      <c r="S38" t="n">
         <v>0.981</v>
       </c>
-      <c r="S38" t="n">
+      <c r="T38" t="n">
         <v>0.979</v>
       </c>
-      <c r="T38" t="n">
+      <c r="U38" t="n">
         <v>0.984</v>
       </c>
-      <c r="U38" t="n">
+      <c r="V38" t="n">
         <v>0.982</v>
       </c>
     </row>
@@ -3197,10 +3315,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
@@ -3221,40 +3339,43 @@
         <v>1</v>
       </c>
       <c r="J39" t="b">
-        <v>0</v>
-      </c>
-      <c r="K39" t="s">
-        <v>44</v>
-      </c>
-      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
+        <v>45</v>
+      </c>
+      <c r="M39" t="n">
         <v>4.676</v>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>4.624</v>
       </c>
-      <c r="N39" t="n">
+      <c r="O39" t="n">
         <v>4.708</v>
       </c>
-      <c r="O39" t="n">
+      <c r="P39" t="n">
         <v>4.666</v>
       </c>
-      <c r="P39" t="n">
-        <v>4.777</v>
-      </c>
       <c r="Q39" t="n">
+        <v>4.737</v>
+      </c>
+      <c r="R39" t="n">
         <v>0.92</v>
       </c>
-      <c r="R39" t="n">
+      <c r="S39" t="n">
         <v>0.922</v>
       </c>
-      <c r="S39" t="n">
+      <c r="T39" t="n">
         <v>0.911</v>
       </c>
-      <c r="T39" t="n">
+      <c r="U39" t="n">
         <v>0.943</v>
       </c>
-      <c r="U39" t="n">
-        <v>0.933</v>
+      <c r="V39" t="n">
+        <v>0.935</v>
       </c>
     </row>
     <row r="40">
@@ -3262,10 +3383,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
@@ -3286,40 +3407,43 @@
         <v>1</v>
       </c>
       <c r="J40" t="b">
-        <v>0</v>
-      </c>
-      <c r="K40" t="s">
-        <v>44</v>
-      </c>
-      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" t="s">
+        <v>45</v>
+      </c>
+      <c r="M40" t="n">
         <v>5.678</v>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>5.658</v>
       </c>
-      <c r="N40" t="n">
+      <c r="O40" t="n">
         <v>5.429</v>
       </c>
-      <c r="O40" t="n">
+      <c r="P40" t="n">
         <v>5.418</v>
       </c>
-      <c r="P40" t="n">
-        <v>5.669</v>
-      </c>
       <c r="Q40" t="n">
+        <v>5.663</v>
+      </c>
+      <c r="R40" t="n">
         <v>0.911</v>
       </c>
-      <c r="R40" t="n">
+      <c r="S40" t="n">
         <v>0.912</v>
       </c>
-      <c r="S40" t="n">
+      <c r="T40" t="n">
         <v>0.904</v>
       </c>
-      <c r="T40" t="n">
+      <c r="U40" t="n">
         <v>0.872</v>
       </c>
-      <c r="U40" t="n">
-        <v>0.898</v>
+      <c r="V40" t="n">
+        <v>0.899</v>
       </c>
     </row>
     <row r="41">
@@ -3327,10 +3451,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
@@ -3351,40 +3475,43 @@
         <v>1</v>
       </c>
       <c r="J41" t="b">
-        <v>0</v>
-      </c>
-      <c r="K41" t="s">
-        <v>76</v>
-      </c>
-      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" t="s">
+        <v>77</v>
+      </c>
+      <c r="M41" t="n">
         <v>0.309</v>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>0.289</v>
       </c>
-      <c r="N41" t="n">
+      <c r="O41" t="n">
         <v>0.277</v>
       </c>
-      <c r="O41" t="n">
+      <c r="P41" t="n">
         <v>0.272</v>
       </c>
-      <c r="P41" t="n">
-        <v>0.268</v>
-      </c>
       <c r="Q41" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="R41" t="n">
         <v>0.994</v>
       </c>
-      <c r="R41" t="n">
+      <c r="S41" t="n">
         <v>0.995</v>
       </c>
-      <c r="S41" t="n">
+      <c r="T41" t="n">
         <v>0.996</v>
       </c>
-      <c r="T41" t="n">
+      <c r="U41" t="n">
         <v>0.971</v>
       </c>
-      <c r="U41" t="n">
-        <v>0.996</v>
+      <c r="V41" t="n">
+        <v>0.994</v>
       </c>
     </row>
     <row r="42">
@@ -3392,64 +3519,67 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" t="b">
+        <v>1</v>
+      </c>
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" t="s">
         <v>77</v>
       </c>
-      <c r="C42" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" t="b">
-        <v>1</v>
-      </c>
-      <c r="E42" t="b">
-        <v>1</v>
-      </c>
-      <c r="F42" t="b">
-        <v>1</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" t="b">
-        <v>0</v>
-      </c>
-      <c r="K42" t="s">
-        <v>76</v>
-      </c>
-      <c r="L42" t="n">
+      <c r="M42" t="n">
         <v>0.887</v>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>0.894</v>
       </c>
-      <c r="N42" t="n">
+      <c r="O42" t="n">
         <v>0.902</v>
       </c>
-      <c r="O42" t="n">
+      <c r="P42" t="n">
         <v>0.907</v>
       </c>
-      <c r="P42" t="n">
-        <v>0.899</v>
-      </c>
       <c r="Q42" t="n">
-        <v>1</v>
+        <v>0.901</v>
       </c>
       <c r="R42" t="n">
         <v>1</v>
       </c>
       <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="n">
         <v>0.999</v>
       </c>
-      <c r="T42" t="n">
+      <c r="U42" t="n">
         <v>0.995</v>
       </c>
-      <c r="U42" t="n">
-        <v>0.999</v>
+      <c r="V42" t="n">
+        <v>0.998</v>
       </c>
     </row>
     <row r="43">
@@ -3457,10 +3587,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
@@ -3481,40 +3611,43 @@
         <v>1</v>
       </c>
       <c r="J43" t="b">
-        <v>0</v>
-      </c>
-      <c r="K43" t="s">
-        <v>76</v>
-      </c>
-      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" t="s">
+        <v>77</v>
+      </c>
+      <c r="M43" t="n">
         <v>0.332</v>
       </c>
-      <c r="M43" t="n">
+      <c r="N43" t="n">
         <v>0.336</v>
       </c>
-      <c r="N43" t="n">
+      <c r="O43" t="n">
         <v>0.345</v>
       </c>
-      <c r="O43" t="n">
+      <c r="P43" t="n">
         <v>0.31</v>
       </c>
-      <c r="P43" t="n">
-        <v>0.347</v>
-      </c>
       <c r="Q43" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="R43" t="n">
         <v>0.638</v>
       </c>
-      <c r="R43" t="n">
+      <c r="S43" t="n">
         <v>0.649</v>
       </c>
-      <c r="S43" t="n">
+      <c r="T43" t="n">
         <v>0.648</v>
       </c>
-      <c r="T43" t="n">
+      <c r="U43" t="n">
         <v>0.645</v>
       </c>
-      <c r="U43" t="n">
-        <v>0.675</v>
+      <c r="V43" t="n">
+        <v>0.674</v>
       </c>
     </row>
     <row r="44">
@@ -3522,10 +3655,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
@@ -3546,39 +3679,42 @@
         <v>1</v>
       </c>
       <c r="J44" t="b">
-        <v>0</v>
-      </c>
-      <c r="K44" t="s">
-        <v>76</v>
-      </c>
-      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" t="s">
+        <v>77</v>
+      </c>
+      <c r="M44" t="n">
         <v>0.499</v>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>0.455</v>
       </c>
-      <c r="N44" t="n">
+      <c r="O44" t="n">
         <v>0.465</v>
       </c>
-      <c r="O44" t="n">
+      <c r="P44" t="n">
         <v>0.448</v>
       </c>
-      <c r="P44" t="n">
-        <v>0.44</v>
-      </c>
       <c r="Q44" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="R44" t="n">
         <v>0.979</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0.973</v>
       </c>
       <c r="S44" t="n">
         <v>0.973</v>
       </c>
       <c r="T44" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="U44" t="n">
         <v>0.975</v>
       </c>
-      <c r="U44" t="n">
+      <c r="V44" t="n">
         <v>0.977</v>
       </c>
     </row>
@@ -3587,10 +3723,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
@@ -3611,40 +3747,43 @@
         <v>1</v>
       </c>
       <c r="J45" t="b">
-        <v>0</v>
-      </c>
-      <c r="K45" t="s">
-        <v>76</v>
-      </c>
-      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" t="s">
+        <v>77</v>
+      </c>
+      <c r="M45" t="n">
         <v>0.169</v>
       </c>
-      <c r="M45" t="n">
+      <c r="N45" t="n">
         <v>0.148</v>
       </c>
-      <c r="N45" t="n">
+      <c r="O45" t="n">
         <v>0.133</v>
       </c>
-      <c r="O45" t="n">
+      <c r="P45" t="n">
         <v>0.107</v>
       </c>
-      <c r="P45" t="n">
-        <v>0.109</v>
-      </c>
       <c r="Q45" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="R45" t="n">
         <v>0.997</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0.996</v>
       </c>
       <c r="S45" t="n">
         <v>0.996</v>
       </c>
       <c r="T45" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="U45" t="n">
         <v>0.992</v>
       </c>
-      <c r="U45" t="n">
-        <v>0.998</v>
+      <c r="V45" t="n">
+        <v>0.997</v>
       </c>
     </row>
     <row r="46">
@@ -3652,10 +3791,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
@@ -3676,39 +3815,42 @@
         <v>1</v>
       </c>
       <c r="J46" t="b">
-        <v>0</v>
-      </c>
-      <c r="K46" t="s">
-        <v>76</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.019</v>
+        <v>1</v>
+      </c>
+      <c r="K46" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" t="s">
+        <v>77</v>
       </c>
       <c r="M46" t="n">
         <v>0.019</v>
       </c>
       <c r="N46" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="O46" t="n">
         <v>0.027</v>
       </c>
-      <c r="O46" t="n">
+      <c r="P46" t="n">
         <v>0.029</v>
       </c>
-      <c r="P46" t="n">
-        <v>0.024</v>
-      </c>
       <c r="Q46" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="R46" t="n">
         <v>0.475</v>
       </c>
-      <c r="R46" t="n">
+      <c r="S46" t="n">
         <v>0.453</v>
       </c>
-      <c r="S46" t="n">
+      <c r="T46" t="n">
         <v>0.46</v>
       </c>
-      <c r="T46" t="n">
+      <c r="U46" t="n">
         <v>0.437</v>
       </c>
-      <c r="U46" t="n">
+      <c r="V46" t="n">
         <v>0.456</v>
       </c>
     </row>
@@ -3717,10 +3859,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C47" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
@@ -3741,40 +3883,43 @@
         <v>1</v>
       </c>
       <c r="J47" t="b">
-        <v>0</v>
-      </c>
-      <c r="K47" t="s">
-        <v>76</v>
-      </c>
-      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" t="s">
+        <v>77</v>
+      </c>
+      <c r="M47" t="n">
         <v>0.947</v>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>0.954</v>
       </c>
-      <c r="N47" t="n">
+      <c r="O47" t="n">
         <v>0.952</v>
       </c>
-      <c r="O47" t="n">
+      <c r="P47" t="n">
         <v>0.946</v>
       </c>
-      <c r="P47" t="n">
-        <v>0.945</v>
-      </c>
       <c r="Q47" t="n">
+        <v>0.946</v>
+      </c>
+      <c r="R47" t="n">
         <v>0.999</v>
       </c>
-      <c r="R47" t="n">
-        <v>1</v>
-      </c>
       <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="n">
         <v>0.999</v>
       </c>
-      <c r="T47" t="n">
+      <c r="U47" t="n">
         <v>0.994</v>
       </c>
-      <c r="U47" t="n">
-        <v>0.999</v>
+      <c r="V47" t="n">
+        <v>0.998</v>
       </c>
     </row>
     <row r="48">
@@ -3782,10 +3927,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
@@ -3806,28 +3951,28 @@
         <v>1</v>
       </c>
       <c r="J48" t="b">
-        <v>0</v>
-      </c>
-      <c r="K48" t="s">
-        <v>84</v>
-      </c>
-      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" t="s">
+        <v>85</v>
+      </c>
+      <c r="M48" t="n">
         <v>0.013</v>
       </c>
-      <c r="M48" t="n">
+      <c r="N48" t="n">
         <v>0.011</v>
       </c>
-      <c r="N48" t="n">
+      <c r="O48" t="n">
         <v>0.01</v>
       </c>
-      <c r="O48" t="n">
+      <c r="P48" t="n">
         <v>0.014</v>
       </c>
-      <c r="P48" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Q48" t="n">
-        <v>1</v>
+        <v>0.011</v>
       </c>
       <c r="R48" t="n">
         <v>1</v>
@@ -3839,6 +3984,9 @@
         <v>1</v>
       </c>
       <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3847,37 +3995,37 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="s">
         <v>85</v>
-      </c>
-      <c r="C49" t="s">
-        <v>75</v>
-      </c>
-      <c r="D49" t="b">
-        <v>1</v>
-      </c>
-      <c r="E49" t="b">
-        <v>1</v>
-      </c>
-      <c r="F49" t="b">
-        <v>1</v>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="b">
-        <v>1</v>
-      </c>
-      <c r="K49" t="s">
-        <v>84</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.001</v>
       </c>
       <c r="M49" t="n">
         <v>0.001</v>
@@ -3892,7 +4040,7 @@
         <v>0.001</v>
       </c>
       <c r="Q49" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="R49" t="n">
         <v>1</v>
@@ -3904,6 +4052,9 @@
         <v>1</v>
       </c>
       <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3912,10 +4063,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C50" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
@@ -3936,29 +4087,29 @@
         <v>1</v>
       </c>
       <c r="J50" t="b">
-        <v>0</v>
-      </c>
-      <c r="K50" t="s">
-        <v>84</v>
-      </c>
-      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" t="s">
+        <v>85</v>
+      </c>
+      <c r="M50" t="n">
         <v>0.007</v>
       </c>
-      <c r="M50" t="n">
+      <c r="N50" t="n">
         <v>0.008</v>
       </c>
-      <c r="N50" t="n">
+      <c r="O50" t="n">
         <v>0.007</v>
       </c>
-      <c r="O50" t="n">
+      <c r="P50" t="n">
         <v>0.009</v>
       </c>
-      <c r="P50" t="n">
+      <c r="Q50" t="n">
         <v>0.006</v>
       </c>
-      <c r="Q50" t="n">
-        <v>1</v>
-      </c>
       <c r="R50" t="n">
         <v>1</v>
       </c>
@@ -3969,6 +4120,9 @@
         <v>1</v>
       </c>
       <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3977,10 +4131,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C51" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
@@ -4001,28 +4155,28 @@
         <v>1</v>
       </c>
       <c r="J51" t="b">
-        <v>0</v>
-      </c>
-      <c r="K51" t="s">
-        <v>84</v>
-      </c>
-      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" t="s">
+        <v>85</v>
+      </c>
+      <c r="M51" t="n">
         <v>0.01</v>
       </c>
-      <c r="M51" t="n">
+      <c r="N51" t="n">
         <v>0.011</v>
       </c>
-      <c r="N51" t="n">
+      <c r="O51" t="n">
         <v>0.009</v>
       </c>
-      <c r="O51" t="n">
+      <c r="P51" t="n">
         <v>0.012</v>
       </c>
-      <c r="P51" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Q51" t="n">
-        <v>1</v>
+        <v>0.009</v>
       </c>
       <c r="R51" t="n">
         <v>1</v>
@@ -4034,6 +4188,9 @@
         <v>1</v>
       </c>
       <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4042,10 +4199,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C52" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
@@ -4066,29 +4223,29 @@
         <v>1</v>
       </c>
       <c r="J52" t="b">
-        <v>0</v>
-      </c>
-      <c r="K52" t="s">
-        <v>84</v>
-      </c>
-      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" t="s">
+        <v>85</v>
+      </c>
+      <c r="M52" t="n">
         <v>0.01</v>
       </c>
-      <c r="M52" t="n">
+      <c r="N52" t="n">
         <v>0.012</v>
       </c>
-      <c r="N52" t="n">
+      <c r="O52" t="n">
         <v>0.01</v>
       </c>
-      <c r="O52" t="n">
+      <c r="P52" t="n">
         <v>0.019</v>
       </c>
-      <c r="P52" t="n">
+      <c r="Q52" t="n">
         <v>0.015</v>
       </c>
-      <c r="Q52" t="n">
-        <v>1</v>
-      </c>
       <c r="R52" t="n">
         <v>1</v>
       </c>
@@ -4099,6 +4256,9 @@
         <v>1</v>
       </c>
       <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4107,10 +4267,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C53" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D53" t="b">
         <v>1</v>
@@ -4131,40 +4291,43 @@
         <v>1</v>
       </c>
       <c r="J53" t="b">
-        <v>0</v>
-      </c>
-      <c r="K53" t="s">
-        <v>76</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0.081</v>
+        <v>1</v>
+      </c>
+      <c r="K53" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" t="s">
+        <v>77</v>
       </c>
       <c r="M53" t="n">
         <v>0.081</v>
       </c>
       <c r="N53" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="O53" t="n">
         <v>0.075</v>
       </c>
-      <c r="O53" t="n">
+      <c r="P53" t="n">
         <v>0.096</v>
       </c>
-      <c r="P53" t="n">
-        <v>0.077</v>
-      </c>
       <c r="Q53" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="R53" t="n">
         <v>0.991</v>
       </c>
-      <c r="R53" t="n">
+      <c r="S53" t="n">
         <v>0.992</v>
       </c>
-      <c r="S53" t="n">
+      <c r="T53" t="n">
         <v>0.991</v>
       </c>
-      <c r="T53" t="n">
+      <c r="U53" t="n">
         <v>0.983</v>
       </c>
-      <c r="U53" t="n">
-        <v>0.993</v>
+      <c r="V53" t="n">
+        <v>0.992</v>
       </c>
     </row>
     <row r="54">
@@ -4172,10 +4335,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D54" t="b">
         <v>1</v>
@@ -4196,29 +4359,29 @@
         <v>1</v>
       </c>
       <c r="J54" t="b">
-        <v>0</v>
-      </c>
-      <c r="K54" t="s">
-        <v>84</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0.012</v>
+        <v>1</v>
+      </c>
+      <c r="K54" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" t="s">
+        <v>85</v>
       </c>
       <c r="M54" t="n">
         <v>0.012</v>
       </c>
       <c r="N54" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="O54" t="n">
         <v>0.007</v>
       </c>
-      <c r="O54" t="n">
+      <c r="P54" t="n">
         <v>0.014</v>
       </c>
-      <c r="P54" t="n">
+      <c r="Q54" t="n">
         <v>0.005</v>
       </c>
-      <c r="Q54" t="n">
-        <v>1</v>
-      </c>
       <c r="R54" t="n">
         <v>1</v>
       </c>
@@ -4229,6 +4392,9 @@
         <v>1</v>
       </c>
       <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4237,10 +4403,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C55" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D55" t="b">
         <v>1</v>
@@ -4261,13 +4427,13 @@
         <v>1</v>
       </c>
       <c r="J55" t="b">
-        <v>0</v>
-      </c>
-      <c r="K55" t="s">
-        <v>84</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K55" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" t="s">
+        <v>85</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
@@ -4276,13 +4442,13 @@
         <v>0</v>
       </c>
       <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
         <v>0.003</v>
       </c>
-      <c r="P55" t="n">
-        <v>0</v>
-      </c>
       <c r="Q55" t="n">
-        <v>1</v>
+        <v>0.002</v>
       </c>
       <c r="R55" t="n">
         <v>1</v>
@@ -4294,6 +4460,9 @@
         <v>1</v>
       </c>
       <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4302,10 +4471,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C56" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D56" t="b">
         <v>1</v>
@@ -4326,28 +4495,28 @@
         <v>1</v>
       </c>
       <c r="J56" t="b">
-        <v>0</v>
-      </c>
-      <c r="K56" t="s">
-        <v>84</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0.919</v>
+        <v>1</v>
+      </c>
+      <c r="K56" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" t="s">
+        <v>85</v>
       </c>
       <c r="M56" t="n">
         <v>0.919</v>
       </c>
       <c r="N56" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="O56" t="n">
         <v>0.925</v>
       </c>
-      <c r="O56" t="n">
+      <c r="P56" t="n">
         <v>0.902</v>
       </c>
-      <c r="P56" t="n">
-        <v>0.922</v>
-      </c>
       <c r="Q56" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="R56" t="n">
         <v>1</v>
@@ -4359,6 +4528,9 @@
         <v>1</v>
       </c>
       <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4367,10 +4539,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C57" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D57" t="b">
         <v>1</v>
@@ -4391,29 +4563,29 @@
         <v>1</v>
       </c>
       <c r="J57" t="b">
-        <v>0</v>
-      </c>
-      <c r="K57" t="s">
-        <v>84</v>
-      </c>
-      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" t="s">
+        <v>85</v>
+      </c>
+      <c r="M57" t="n">
         <v>0.02</v>
       </c>
-      <c r="M57" t="n">
+      <c r="N57" t="n">
         <v>0.018</v>
       </c>
-      <c r="N57" t="n">
+      <c r="O57" t="n">
         <v>0.015</v>
       </c>
-      <c r="O57" t="n">
+      <c r="P57" t="n">
         <v>0.023</v>
       </c>
-      <c r="P57" t="n">
+      <c r="Q57" t="n">
         <v>0.014</v>
       </c>
-      <c r="Q57" t="n">
-        <v>1</v>
-      </c>
       <c r="R57" t="n">
         <v>1</v>
       </c>
@@ -4424,6 +4596,9 @@
         <v>1</v>
       </c>
       <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4432,10 +4607,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C58" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D58" t="b">
         <v>1</v>
@@ -4456,29 +4631,29 @@
         <v>1</v>
       </c>
       <c r="J58" t="b">
-        <v>0</v>
-      </c>
-      <c r="K58" t="s">
-        <v>84</v>
-      </c>
-      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" t="s">
+        <v>85</v>
+      </c>
+      <c r="M58" t="n">
         <v>0.018</v>
       </c>
-      <c r="M58" t="n">
+      <c r="N58" t="n">
         <v>0.017</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0.019</v>
       </c>
       <c r="O58" t="n">
         <v>0.019</v>
       </c>
       <c r="P58" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="Q58" t="n">
         <v>0.016</v>
       </c>
-      <c r="Q58" t="n">
-        <v>1</v>
-      </c>
       <c r="R58" t="n">
         <v>1</v>
       </c>
@@ -4489,6 +4664,9 @@
         <v>1</v>
       </c>
       <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4497,10 +4675,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C59" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D59" t="b">
         <v>1</v>
@@ -4521,29 +4699,29 @@
         <v>1</v>
       </c>
       <c r="J59" t="b">
-        <v>0</v>
-      </c>
-      <c r="K59" t="s">
-        <v>84</v>
-      </c>
-      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" t="s">
+        <v>85</v>
+      </c>
+      <c r="M59" t="n">
         <v>0.014</v>
       </c>
-      <c r="M59" t="n">
+      <c r="N59" t="n">
         <v>0.011</v>
       </c>
-      <c r="N59" t="n">
+      <c r="O59" t="n">
         <v>0.009</v>
       </c>
-      <c r="O59" t="n">
+      <c r="P59" t="n">
         <v>0.014</v>
       </c>
-      <c r="P59" t="n">
+      <c r="Q59" t="n">
         <v>0.012</v>
       </c>
-      <c r="Q59" t="n">
-        <v>1</v>
-      </c>
       <c r="R59" t="n">
         <v>1</v>
       </c>
@@ -4554,6 +4732,9 @@
         <v>1</v>
       </c>
       <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4562,10 +4743,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C60" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
@@ -4586,16 +4767,16 @@
         <v>1</v>
       </c>
       <c r="J60" t="b">
-        <v>1</v>
-      </c>
-      <c r="K60" t="s">
-        <v>84</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" t="s">
+        <v>85</v>
       </c>
       <c r="M60" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
         <v>0.001</v>
@@ -4604,10 +4785,10 @@
         <v>0.001</v>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="Q60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R60" t="n">
         <v>1</v>
@@ -4619,6 +4800,9 @@
         <v>1</v>
       </c>
       <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4627,10 +4811,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C61" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D61" t="b">
         <v>1</v>
@@ -4651,29 +4835,29 @@
         <v>1</v>
       </c>
       <c r="J61" t="b">
-        <v>0</v>
-      </c>
-      <c r="K61" t="s">
-        <v>84</v>
-      </c>
-      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" t="s">
+        <v>85</v>
+      </c>
+      <c r="M61" t="n">
         <v>0.017</v>
       </c>
-      <c r="M61" t="n">
+      <c r="N61" t="n">
         <v>0.019</v>
       </c>
-      <c r="N61" t="n">
+      <c r="O61" t="n">
         <v>0.013</v>
       </c>
-      <c r="O61" t="n">
+      <c r="P61" t="n">
         <v>0.019</v>
       </c>
-      <c r="P61" t="n">
+      <c r="Q61" t="n">
         <v>0.012</v>
       </c>
-      <c r="Q61" t="n">
-        <v>1</v>
-      </c>
       <c r="R61" t="n">
         <v>1</v>
       </c>
@@ -4684,6 +4868,9 @@
         <v>1</v>
       </c>
       <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4692,10 +4879,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D62" t="b">
         <v>1</v>
@@ -4716,29 +4903,29 @@
         <v>1</v>
       </c>
       <c r="J62" t="b">
-        <v>0</v>
-      </c>
-      <c r="K62" t="s">
-        <v>84</v>
-      </c>
-      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="b">
+        <v>0</v>
+      </c>
+      <c r="L62" t="s">
+        <v>85</v>
+      </c>
+      <c r="M62" t="n">
         <v>0.006</v>
       </c>
-      <c r="M62" t="n">
+      <c r="N62" t="n">
         <v>0.004</v>
       </c>
-      <c r="N62" t="n">
+      <c r="O62" t="n">
         <v>0.005</v>
       </c>
-      <c r="O62" t="n">
+      <c r="P62" t="n">
         <v>0.011</v>
       </c>
-      <c r="P62" t="n">
+      <c r="Q62" t="n">
         <v>0.01</v>
       </c>
-      <c r="Q62" t="n">
-        <v>1</v>
-      </c>
       <c r="R62" t="n">
         <v>1</v>
       </c>
@@ -4749,6 +4936,9 @@
         <v>1</v>
       </c>
       <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4757,10 +4947,10 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C63" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D63" t="b">
         <v>1</v>
@@ -4781,40 +4971,43 @@
         <v>1</v>
       </c>
       <c r="J63" t="b">
-        <v>0</v>
-      </c>
-      <c r="K63" t="s">
-        <v>76</v>
-      </c>
-      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" t="s">
+        <v>77</v>
+      </c>
+      <c r="M63" t="n">
         <v>0.163</v>
       </c>
-      <c r="M63" t="n">
+      <c r="N63" t="n">
         <v>0.16</v>
       </c>
-      <c r="N63" t="n">
+      <c r="O63" t="n">
         <v>0.156</v>
       </c>
-      <c r="O63" t="n">
+      <c r="P63" t="n">
         <v>0.149</v>
       </c>
-      <c r="P63" t="n">
-        <v>0.155</v>
-      </c>
       <c r="Q63" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="R63" t="n">
         <v>0.993</v>
       </c>
-      <c r="R63" t="n">
+      <c r="S63" t="n">
         <v>0.994</v>
       </c>
-      <c r="S63" t="n">
+      <c r="T63" t="n">
         <v>0.996</v>
       </c>
-      <c r="T63" t="n">
+      <c r="U63" t="n">
         <v>0.977</v>
       </c>
-      <c r="U63" t="n">
-        <v>0.995</v>
+      <c r="V63" t="n">
+        <v>0.993</v>
       </c>
     </row>
     <row r="64">
@@ -4822,10 +5015,10 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C64" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D64" t="b">
         <v>1</v>
@@ -4846,39 +5039,42 @@
         <v>1</v>
       </c>
       <c r="J64" t="b">
-        <v>0</v>
-      </c>
-      <c r="K64" t="s">
-        <v>101</v>
-      </c>
-      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" t="s">
+        <v>102</v>
+      </c>
+      <c r="M64" t="n">
         <v>0.795</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.79</v>
       </c>
       <c r="N64" t="n">
         <v>0.79</v>
       </c>
       <c r="O64" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="P64" t="n">
         <v>0.757</v>
       </c>
-      <c r="P64" t="n">
+      <c r="Q64" t="n">
         <v>0.771</v>
       </c>
-      <c r="Q64" t="n">
+      <c r="R64" t="n">
         <v>0.917</v>
       </c>
-      <c r="R64" t="n">
+      <c r="S64" t="n">
         <v>0.916</v>
       </c>
-      <c r="S64" t="n">
+      <c r="T64" t="n">
         <v>0.908</v>
       </c>
-      <c r="T64" t="n">
+      <c r="U64" t="n">
         <v>0.878</v>
       </c>
-      <c r="U64" t="n">
+      <c r="V64" t="n">
         <v>0.902</v>
       </c>
     </row>
@@ -4887,10 +5083,10 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C65" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
@@ -4911,39 +5107,42 @@
         <v>1</v>
       </c>
       <c r="J65" t="b">
-        <v>0</v>
-      </c>
-      <c r="K65" t="s">
-        <v>76</v>
-      </c>
-      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="b">
+        <v>0</v>
+      </c>
+      <c r="L65" t="s">
+        <v>77</v>
+      </c>
+      <c r="M65" t="n">
         <v>0.821</v>
       </c>
-      <c r="M65" t="n">
+      <c r="N65" t="n">
         <v>0.837</v>
       </c>
-      <c r="N65" t="n">
+      <c r="O65" t="n">
         <v>0.86</v>
       </c>
-      <c r="O65" t="n">
+      <c r="P65" t="n">
         <v>0.861</v>
       </c>
-      <c r="P65" t="n">
-        <v>0.864</v>
-      </c>
       <c r="Q65" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="R65" t="n">
         <v>0.994</v>
-      </c>
-      <c r="R65" t="n">
-        <v>0.995</v>
       </c>
       <c r="S65" t="n">
         <v>0.995</v>
       </c>
       <c r="T65" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="U65" t="n">
         <v>0.99</v>
       </c>
-      <c r="U65" t="n">
+      <c r="V65" t="n">
         <v>0.996</v>
       </c>
     </row>
@@ -4952,10 +5151,10 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C66" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D66" t="b">
         <v>1</v>
@@ -4976,40 +5175,43 @@
         <v>1</v>
       </c>
       <c r="J66" t="b">
-        <v>0</v>
-      </c>
-      <c r="K66" t="s">
-        <v>76</v>
-      </c>
-      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="b">
+        <v>0</v>
+      </c>
+      <c r="L66" t="s">
+        <v>77</v>
+      </c>
+      <c r="M66" t="n">
         <v>0.47</v>
       </c>
-      <c r="M66" t="n">
+      <c r="N66" t="n">
         <v>0.474</v>
-      </c>
-      <c r="N66" t="n">
-        <v>0.465</v>
       </c>
       <c r="O66" t="n">
         <v>0.465</v>
       </c>
       <c r="P66" t="n">
-        <v>0.467</v>
+        <v>0.465</v>
       </c>
       <c r="Q66" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="R66" t="n">
         <v>0.999</v>
       </c>
-      <c r="R66" t="n">
-        <v>1</v>
-      </c>
       <c r="S66" t="n">
         <v>1</v>
       </c>
       <c r="T66" t="n">
+        <v>1</v>
+      </c>
+      <c r="U66" t="n">
         <v>0.989</v>
       </c>
-      <c r="U66" t="n">
-        <v>1</v>
+      <c r="V66" t="n">
+        <v>0.998</v>
       </c>
     </row>
     <row r="67">
@@ -5017,10 +5219,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C67" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D67" t="b">
         <v>1</v>
@@ -5041,40 +5243,43 @@
         <v>1</v>
       </c>
       <c r="J67" t="b">
-        <v>0</v>
-      </c>
-      <c r="K67" t="s">
-        <v>76</v>
-      </c>
-      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="b">
+        <v>0</v>
+      </c>
+      <c r="L67" t="s">
+        <v>77</v>
+      </c>
+      <c r="M67" t="n">
         <v>0.272</v>
       </c>
-      <c r="M67" t="n">
+      <c r="N67" t="n">
         <v>0.278</v>
       </c>
-      <c r="N67" t="n">
+      <c r="O67" t="n">
         <v>0.358</v>
       </c>
-      <c r="O67" t="n">
+      <c r="P67" t="n">
         <v>0.294</v>
       </c>
-      <c r="P67" t="n">
-        <v>0.313</v>
-      </c>
       <c r="Q67" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="R67" t="n">
         <v>0.868</v>
       </c>
-      <c r="R67" t="n">
+      <c r="S67" t="n">
         <v>0.887</v>
       </c>
-      <c r="S67" t="n">
+      <c r="T67" t="n">
         <v>0.89</v>
       </c>
-      <c r="T67" t="n">
+      <c r="U67" t="n">
         <v>0.854</v>
       </c>
-      <c r="U67" t="n">
-        <v>0.883</v>
+      <c r="V67" t="n">
+        <v>0.881</v>
       </c>
     </row>
     <row r="68">
@@ -5082,10 +5287,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C68" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D68" t="b">
         <v>1</v>
@@ -5106,28 +5311,28 @@
         <v>1</v>
       </c>
       <c r="J68" t="b">
-        <v>0</v>
-      </c>
-      <c r="K68" t="s">
-        <v>76</v>
-      </c>
-      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="b">
+        <v>0</v>
+      </c>
+      <c r="L68" t="s">
+        <v>77</v>
+      </c>
+      <c r="M68" t="n">
         <v>0.832</v>
       </c>
-      <c r="M68" t="n">
+      <c r="N68" t="n">
         <v>0.847</v>
       </c>
-      <c r="N68" t="n">
+      <c r="O68" t="n">
         <v>0.867</v>
       </c>
-      <c r="O68" t="n">
+      <c r="P68" t="n">
         <v>0.865</v>
       </c>
-      <c r="P68" t="n">
-        <v>0.869</v>
-      </c>
       <c r="Q68" t="n">
-        <v>0.998</v>
+        <v>0.87</v>
       </c>
       <c r="R68" t="n">
         <v>0.998</v>
@@ -5136,10 +5341,13 @@
         <v>0.998</v>
       </c>
       <c r="T68" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="U68" t="n">
         <v>0.991</v>
       </c>
-      <c r="U68" t="n">
-        <v>0.998</v>
+      <c r="V68" t="n">
+        <v>0.997</v>
       </c>
     </row>
     <row r="69">
@@ -5147,10 +5355,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C69" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D69" t="b">
         <v>1</v>
@@ -5171,40 +5379,43 @@
         <v>1</v>
       </c>
       <c r="J69" t="b">
-        <v>0</v>
-      </c>
-      <c r="K69" t="s">
-        <v>76</v>
-      </c>
-      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" t="b">
+        <v>0</v>
+      </c>
+      <c r="L69" t="s">
+        <v>77</v>
+      </c>
+      <c r="M69" t="n">
         <v>0.377</v>
       </c>
-      <c r="M69" t="n">
+      <c r="N69" t="n">
         <v>0.355</v>
       </c>
-      <c r="N69" t="n">
+      <c r="O69" t="n">
         <v>0.354</v>
       </c>
-      <c r="O69" t="n">
+      <c r="P69" t="n">
         <v>0.314</v>
       </c>
-      <c r="P69" t="n">
-        <v>0.341</v>
-      </c>
       <c r="Q69" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="R69" t="n">
         <v>0.455</v>
       </c>
-      <c r="R69" t="n">
+      <c r="S69" t="n">
         <v>0.433</v>
       </c>
-      <c r="S69" t="n">
+      <c r="T69" t="n">
         <v>0.435</v>
       </c>
-      <c r="T69" t="n">
+      <c r="U69" t="n">
         <v>0.399</v>
       </c>
-      <c r="U69" t="n">
-        <v>0.432</v>
+      <c r="V69" t="n">
+        <v>0.428</v>
       </c>
     </row>
     <row r="70">
@@ -5212,10 +5423,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C70" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D70" t="b">
         <v>1</v>
@@ -5236,39 +5447,42 @@
         <v>1</v>
       </c>
       <c r="J70" t="b">
-        <v>1</v>
-      </c>
-      <c r="K70" t="s">
-        <v>76</v>
-      </c>
-      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="b">
+        <v>1</v>
+      </c>
+      <c r="L70" t="s">
+        <v>77</v>
+      </c>
+      <c r="M70" t="n">
         <v>0.574</v>
       </c>
-      <c r="M70" t="n">
+      <c r="N70" t="n">
         <v>0.593</v>
       </c>
-      <c r="N70" t="n">
+      <c r="O70" t="n">
         <v>0.595</v>
       </c>
-      <c r="O70" t="n">
+      <c r="P70" t="n">
         <v>0.611</v>
       </c>
-      <c r="P70" t="n">
+      <c r="Q70" t="n">
         <v>0.63</v>
       </c>
-      <c r="Q70" t="n">
+      <c r="R70" t="n">
         <v>0.996</v>
-      </c>
-      <c r="R70" t="n">
-        <v>0.993</v>
       </c>
       <c r="S70" t="n">
         <v>0.993</v>
       </c>
       <c r="T70" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="U70" t="n">
         <v>0.992</v>
       </c>
-      <c r="U70" t="n">
+      <c r="V70" t="n">
         <v>0.993</v>
       </c>
     </row>
@@ -5277,10 +5491,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C71" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D71" t="b">
         <v>1</v>
@@ -5301,39 +5515,42 @@
         <v>1</v>
       </c>
       <c r="J71" t="b">
-        <v>1</v>
-      </c>
-      <c r="K71" t="s">
-        <v>76</v>
-      </c>
-      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="b">
+        <v>1</v>
+      </c>
+      <c r="L71" t="s">
+        <v>77</v>
+      </c>
+      <c r="M71" t="n">
         <v>0.107</v>
       </c>
-      <c r="M71" t="n">
+      <c r="N71" t="n">
         <v>0.102</v>
       </c>
-      <c r="N71" t="n">
+      <c r="O71" t="n">
         <v>0.105</v>
       </c>
-      <c r="O71" t="n">
+      <c r="P71" t="n">
         <v>0.086</v>
       </c>
-      <c r="P71" t="n">
+      <c r="Q71" t="n">
         <v>0.12</v>
       </c>
-      <c r="Q71" t="n">
+      <c r="R71" t="n">
         <v>0.422</v>
       </c>
-      <c r="R71" t="n">
+      <c r="S71" t="n">
         <v>0.402</v>
       </c>
-      <c r="S71" t="n">
+      <c r="T71" t="n">
         <v>0.399</v>
       </c>
-      <c r="T71" t="n">
+      <c r="U71" t="n">
         <v>0.383</v>
       </c>
-      <c r="U71" t="n">
+      <c r="V71" t="n">
         <v>0.365</v>
       </c>
     </row>
@@ -5342,10 +5559,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C72" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D72" t="b">
         <v>0</v>
@@ -5368,11 +5585,11 @@
       <c r="J72" t="b">
         <v>1</v>
       </c>
-      <c r="K72" t="s">
-        <v>101</v>
-      </c>
-      <c r="L72" t="e">
-        <v>#NUM!</v>
+      <c r="K72" t="b">
+        <v>1</v>
+      </c>
+      <c r="L72" t="s">
+        <v>102</v>
       </c>
       <c r="M72" t="e">
         <v>#NUM!</v>
@@ -5380,14 +5597,14 @@
       <c r="N72" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="O72" t="n">
+      <c r="O72" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P72" t="n">
         <v>0.547</v>
       </c>
-      <c r="P72" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="Q72" t="e">
-        <v>#NUM!</v>
+      <c r="Q72" t="n">
+        <v>0.227</v>
       </c>
       <c r="R72" t="e">
         <v>#NUM!</v>
@@ -5395,11 +5612,14 @@
       <c r="S72" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="T72" t="n">
+      <c r="T72" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="U72" t="n">
         <v>0.981</v>
       </c>
-      <c r="U72" t="e">
-        <v>#NUM!</v>
+      <c r="V72" t="n">
+        <v>0.967</v>
       </c>
     </row>
     <row r="73">
@@ -5407,10 +5627,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C73" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D73" t="b">
         <v>1</v>
@@ -5431,39 +5651,42 @@
         <v>1</v>
       </c>
       <c r="J73" t="b">
-        <v>0</v>
-      </c>
-      <c r="K73" t="s">
-        <v>76</v>
-      </c>
-      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="b">
+        <v>0</v>
+      </c>
+      <c r="L73" t="s">
+        <v>77</v>
+      </c>
+      <c r="M73" t="n">
         <v>0.127</v>
       </c>
-      <c r="M73" t="n">
+      <c r="N73" t="n">
         <v>0.12</v>
       </c>
-      <c r="N73" t="n">
+      <c r="O73" t="n">
         <v>0.134</v>
       </c>
-      <c r="O73" t="n">
+      <c r="P73" t="n">
         <v>0.128</v>
       </c>
-      <c r="P73" t="n">
-        <v>0.107</v>
-      </c>
       <c r="Q73" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="R73" t="n">
         <v>0.281</v>
       </c>
-      <c r="R73" t="n">
+      <c r="S73" t="n">
         <v>0.28</v>
       </c>
-      <c r="S73" t="n">
+      <c r="T73" t="n">
         <v>0.285</v>
       </c>
-      <c r="T73" t="n">
+      <c r="U73" t="n">
         <v>0.272</v>
       </c>
-      <c r="U73" t="n">
+      <c r="V73" t="n">
         <v>0.256</v>
       </c>
     </row>
@@ -5472,10 +5695,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C74" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D74" t="b">
         <v>1</v>
@@ -5496,40 +5719,43 @@
         <v>1</v>
       </c>
       <c r="J74" t="b">
-        <v>0</v>
-      </c>
-      <c r="K74" t="s">
-        <v>76</v>
-      </c>
-      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="b">
+        <v>0</v>
+      </c>
+      <c r="L74" t="s">
+        <v>77</v>
+      </c>
+      <c r="M74" t="n">
         <v>0.282</v>
       </c>
-      <c r="M74" t="n">
+      <c r="N74" t="n">
         <v>0.281</v>
       </c>
-      <c r="N74" t="n">
+      <c r="O74" t="n">
         <v>0.287</v>
       </c>
-      <c r="O74" t="n">
+      <c r="P74" t="n">
         <v>0.274</v>
       </c>
-      <c r="P74" t="n">
-        <v>0.258</v>
-      </c>
       <c r="Q74" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="R74" t="n">
         <v>0.996</v>
       </c>
-      <c r="R74" t="n">
+      <c r="S74" t="n">
         <v>0.995</v>
       </c>
-      <c r="S74" t="n">
+      <c r="T74" t="n">
         <v>0.994</v>
       </c>
-      <c r="T74" t="n">
+      <c r="U74" t="n">
         <v>0.971</v>
       </c>
-      <c r="U74" t="n">
-        <v>0.994</v>
+      <c r="V74" t="n">
+        <v>0.992</v>
       </c>
     </row>
     <row r="75">
@@ -5537,10 +5763,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C75" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D75" t="b">
         <v>1</v>
@@ -5561,39 +5787,42 @@
         <v>1</v>
       </c>
       <c r="J75" t="b">
-        <v>0</v>
-      </c>
-      <c r="K75" t="s">
-        <v>76</v>
-      </c>
-      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="b">
+        <v>0</v>
+      </c>
+      <c r="L75" t="s">
+        <v>77</v>
+      </c>
+      <c r="M75" t="n">
         <v>0.133</v>
       </c>
-      <c r="M75" t="n">
+      <c r="N75" t="n">
         <v>0.131</v>
       </c>
-      <c r="N75" t="n">
+      <c r="O75" t="n">
         <v>0.12</v>
       </c>
-      <c r="O75" t="n">
+      <c r="P75" t="n">
         <v>0.112</v>
       </c>
-      <c r="P75" t="n">
-        <v>0.097</v>
-      </c>
       <c r="Q75" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="R75" t="n">
         <v>0.281</v>
       </c>
-      <c r="R75" t="n">
+      <c r="S75" t="n">
         <v>0.279</v>
       </c>
-      <c r="S75" t="n">
+      <c r="T75" t="n">
         <v>0.285</v>
       </c>
-      <c r="T75" t="n">
+      <c r="U75" t="n">
         <v>0.271</v>
       </c>
-      <c r="U75" t="n">
+      <c r="V75" t="n">
         <v>0.257</v>
       </c>
     </row>
@@ -5602,10 +5831,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C76" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D76" t="b">
         <v>1</v>
@@ -5626,39 +5855,42 @@
         <v>1</v>
       </c>
       <c r="J76" t="b">
-        <v>0</v>
-      </c>
-      <c r="K76" t="s">
-        <v>101</v>
-      </c>
-      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="b">
+        <v>0</v>
+      </c>
+      <c r="L76" t="s">
+        <v>102</v>
+      </c>
+      <c r="M76" t="n">
         <v>0.693</v>
       </c>
-      <c r="M76" t="n">
+      <c r="N76" t="n">
         <v>0.694</v>
       </c>
-      <c r="N76" t="n">
+      <c r="O76" t="n">
         <v>0.717</v>
       </c>
-      <c r="O76" t="n">
+      <c r="P76" t="n">
         <v>0.748</v>
       </c>
-      <c r="P76" t="n">
-        <v>0.736</v>
-      </c>
       <c r="Q76" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="R76" t="n">
         <v>0.992</v>
       </c>
-      <c r="R76" t="n">
+      <c r="S76" t="n">
         <v>0.989</v>
-      </c>
-      <c r="S76" t="n">
-        <v>0.988</v>
       </c>
       <c r="T76" t="n">
         <v>0.988</v>
       </c>
       <c r="U76" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="V76" t="n">
         <v>0.991</v>
       </c>
     </row>
@@ -5667,10 +5899,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C77" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D77" t="b">
         <v>1</v>
@@ -5691,40 +5923,43 @@
         <v>1</v>
       </c>
       <c r="J77" t="b">
-        <v>0</v>
-      </c>
-      <c r="K77" t="s">
-        <v>76</v>
-      </c>
-      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="b">
+        <v>0</v>
+      </c>
+      <c r="L77" t="s">
+        <v>77</v>
+      </c>
+      <c r="M77" t="n">
         <v>0.057</v>
       </c>
-      <c r="M77" t="n">
+      <c r="N77" t="n">
         <v>0.054</v>
       </c>
-      <c r="N77" t="n">
+      <c r="O77" t="n">
         <v>0.065</v>
       </c>
-      <c r="O77" t="n">
+      <c r="P77" t="n">
         <v>0.057</v>
       </c>
-      <c r="P77" t="n">
-        <v>0.062</v>
-      </c>
       <c r="Q77" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="R77" t="n">
         <v>0.918</v>
       </c>
-      <c r="R77" t="n">
+      <c r="S77" t="n">
         <v>0.917</v>
       </c>
-      <c r="S77" t="n">
+      <c r="T77" t="n">
         <v>0.914</v>
       </c>
-      <c r="T77" t="n">
+      <c r="U77" t="n">
         <v>0.878</v>
       </c>
-      <c r="U77" t="n">
-        <v>0.903</v>
+      <c r="V77" t="n">
+        <v>0.904</v>
       </c>
     </row>
   </sheetData>

--- a/tables/variables-2.xlsx
+++ b/tables/variables-2.xlsx
@@ -1388,7 +1388,7 @@
         <v>1926.66</v>
       </c>
       <c r="Q10" t="n">
-        <v>1953.157</v>
+        <v>1953.205</v>
       </c>
       <c r="R10" t="n">
         <v>0.998</v>
@@ -5604,7 +5604,7 @@
         <v>0.547</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.227</v>
+        <v>0.228</v>
       </c>
       <c r="R72" t="e">
         <v>#NUM!</v>

--- a/tables/variables-2.xlsx
+++ b/tables/variables-2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t xml:space="preserve">ESS10SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESS10UA</t>
   </si>
   <si>
     <t xml:space="preserve">ESS11</t>
@@ -710,20 +713,21 @@
     <col min="6" max="6" width="5.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="5.71" hidden="0" customWidth="1"/>
     <col min="8" max="8" width="7.71" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="5.71" hidden="0" customWidth="1"/>
-    <col min="10" max="10" width="7.71" hidden="0" customWidth="1"/>
-    <col min="11" max="11" width="4.71" hidden="0" customWidth="1"/>
-    <col min="12" max="12" width="99.71" hidden="0" customWidth="1"/>
-    <col min="13" max="13" width="8.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="7.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="5.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="7.71" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="4.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="99.71" hidden="0" customWidth="1"/>
     <col min="14" max="14" width="8.71" hidden="0" customWidth="1"/>
     <col min="15" max="15" width="8.71" hidden="0" customWidth="1"/>
-    <col min="16" max="16" width="7.71" hidden="0" customWidth="1"/>
+    <col min="16" max="16" width="8.71" hidden="0" customWidth="1"/>
     <col min="17" max="17" width="8.71" hidden="0" customWidth="1"/>
-    <col min="18" max="18" width="5.71" hidden="0" customWidth="1"/>
+    <col min="18" max="18" width="8.71" hidden="0" customWidth="1"/>
     <col min="19" max="19" width="5.71" hidden="0" customWidth="1"/>
     <col min="20" max="20" width="5.71" hidden="0" customWidth="1"/>
     <col min="21" max="21" width="5.71" hidden="0" customWidth="1"/>
     <col min="22" max="22" width="5.71" hidden="0" customWidth="1"/>
+    <col min="23" max="23" width="5.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -793,16 +797,19 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -826,39 +833,42 @@
         <v>1</v>
       </c>
       <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="n">
         <v>12.79</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>12.911</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>12.778</v>
       </c>
-      <c r="P2" t="n">
-        <v>12.698</v>
-      </c>
       <c r="Q2" t="n">
+        <v>12.702</v>
+      </c>
+      <c r="R2" t="n">
         <v>13.034</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>0.991</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>0.99</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>0.986</v>
       </c>
-      <c r="U2" t="n">
-        <v>0.955</v>
-      </c>
       <c r="V2" t="n">
+        <v>0.956</v>
+      </c>
+      <c r="W2" t="n">
         <v>0.983</v>
       </c>
     </row>
@@ -867,10 +877,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -894,39 +904,42 @@
         <v>1</v>
       </c>
       <c r="K3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="n">
         <v>0.582</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>0.708</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>0.326</v>
       </c>
-      <c r="P3" t="n">
-        <v>0.434</v>
-      </c>
       <c r="Q3" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="R3" t="n">
         <v>0.307</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>0.103</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>0.105</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>0.097</v>
       </c>
-      <c r="U3" t="n">
-        <v>0.098</v>
-      </c>
       <c r="V3" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="W3" t="n">
         <v>0.115</v>
       </c>
     </row>
@@ -935,10 +948,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -962,28 +975,28 @@
         <v>1</v>
       </c>
       <c r="K4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" t="n">
         <v>2.635</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>2.614</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>2.553</v>
       </c>
-      <c r="P4" t="n">
-        <v>2.595</v>
-      </c>
       <c r="Q4" t="n">
+        <v>2.593</v>
+      </c>
+      <c r="R4" t="n">
         <v>2.513</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.997</v>
       </c>
       <c r="S4" t="n">
         <v>0.997</v>
@@ -992,9 +1005,12 @@
         <v>0.997</v>
       </c>
       <c r="U4" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="V4" t="n">
         <v>0.988</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>0.993</v>
       </c>
     </row>
@@ -1003,10 +1019,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -1030,39 +1046,42 @@
         <v>1</v>
       </c>
       <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" t="n">
         <v>7.535</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>6.569</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>4.661</v>
       </c>
-      <c r="P5" t="n">
-        <v>4.996</v>
-      </c>
       <c r="Q5" t="n">
+        <v>5.141</v>
+      </c>
+      <c r="R5" t="n">
         <v>4.607</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>0.268</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>0.257</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>0.261</v>
       </c>
-      <c r="U5" t="n">
-        <v>0.248</v>
-      </c>
       <c r="V5" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="W5" t="n">
         <v>0.264</v>
       </c>
     </row>
@@ -1071,10 +1090,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -1098,39 +1117,42 @@
         <v>1</v>
       </c>
       <c r="K6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" t="n">
         <v>711.195</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>678.719</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>700.749</v>
       </c>
-      <c r="P6" t="n">
-        <v>598.437</v>
-      </c>
       <c r="Q6" t="n">
+        <v>604.106</v>
+      </c>
+      <c r="R6" t="n">
         <v>653.63</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>0.355</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>0.338</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>0.349</v>
       </c>
-      <c r="U6" t="n">
-        <v>0.298</v>
-      </c>
       <c r="V6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W6" t="n">
         <v>0.325</v>
       </c>
     </row>
@@ -1139,10 +1161,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -1166,39 +1188,42 @@
         <v>1</v>
       </c>
       <c r="K7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" t="n">
         <v>31.091</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>30.315</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>30.168</v>
       </c>
-      <c r="P7" t="n">
-        <v>85.791</v>
-      </c>
       <c r="Q7" t="n">
+        <v>84.575</v>
+      </c>
+      <c r="R7" t="n">
         <v>29.797</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>0.848</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>0.812</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>0.801</v>
       </c>
-      <c r="U7" t="n">
-        <v>0.822</v>
-      </c>
       <c r="V7" t="n">
+        <v>0.823</v>
+      </c>
+      <c r="W7" t="n">
         <v>0.8</v>
       </c>
     </row>
@@ -1207,10 +1232,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -1234,39 +1259,42 @@
         <v>1</v>
       </c>
       <c r="K8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" t="n">
         <v>34.301</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>34.548</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>33.574</v>
       </c>
-      <c r="P8" t="n">
-        <v>31.777</v>
-      </c>
       <c r="Q8" t="n">
+        <v>31.83</v>
+      </c>
+      <c r="R8" t="n">
         <v>34.086</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>0.872</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>0.856</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>0.841</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>0.812</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>0.862</v>
       </c>
     </row>
@@ -1275,10 +1303,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -1302,39 +1330,42 @@
         <v>1</v>
       </c>
       <c r="K9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" t="n">
         <v>13.701</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>13.045</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>13.12</v>
       </c>
-      <c r="P9" t="n">
-        <v>13.103</v>
-      </c>
       <c r="Q9" t="n">
+        <v>13.073</v>
+      </c>
+      <c r="R9" t="n">
         <v>12.606</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>0.347</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>0.327</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>0.33</v>
       </c>
-      <c r="U9" t="n">
-        <v>0.332</v>
-      </c>
       <c r="V9" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="W9" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -1343,10 +1374,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -1370,39 +1401,42 @@
         <v>1</v>
       </c>
       <c r="K10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" t="n">
         <v>1960.296</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>1960.396</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>1958.581</v>
       </c>
-      <c r="P10" t="n">
-        <v>1926.66</v>
-      </c>
       <c r="Q10" t="n">
+        <v>1927.802</v>
+      </c>
+      <c r="R10" t="n">
         <v>1953.205</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>0.998</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>0.997</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>0.996</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>0.978</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>0.991</v>
       </c>
     </row>
@@ -1411,10 +1445,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -1438,39 +1472,42 @@
         <v>1</v>
       </c>
       <c r="K11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" t="n">
         <v>1.913</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>1.918</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>1.907</v>
       </c>
-      <c r="P11" t="n">
-        <v>1.98</v>
-      </c>
       <c r="Q11" t="n">
+        <v>1.981</v>
+      </c>
+      <c r="R11" t="n">
         <v>1.877</v>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>0.99</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>0.991</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>0.992</v>
       </c>
-      <c r="U11" t="n">
-        <v>0.991</v>
-      </c>
       <c r="V11" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="W11" t="n">
         <v>0.992</v>
       </c>
     </row>
@@ -1479,10 +1516,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -1506,39 +1543,42 @@
         <v>1</v>
       </c>
       <c r="K12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" t="s">
-        <v>45</v>
-      </c>
-      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" t="n">
         <v>4.433</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>4.501</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>4.85</v>
       </c>
-      <c r="P12" t="n">
-        <v>5.207</v>
-      </c>
       <c r="Q12" t="n">
+        <v>5.201</v>
+      </c>
+      <c r="R12" t="n">
         <v>4.942</v>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>0.912</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>0.919</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>0.922</v>
       </c>
-      <c r="U12" t="n">
-        <v>0.942</v>
-      </c>
       <c r="V12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="W12" t="n">
         <v>0.934</v>
       </c>
     </row>
@@ -1547,10 +1587,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -1574,39 +1614,42 @@
         <v>1</v>
       </c>
       <c r="K13" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" t="s">
-        <v>47</v>
-      </c>
-      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" t="n">
         <v>2.007</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>2.084</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>2.089</v>
       </c>
-      <c r="P13" t="n">
-        <v>2.02</v>
-      </c>
       <c r="Q13" t="n">
+        <v>2.037</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.94</v>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>0.971</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>0.973</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>0.968</v>
       </c>
-      <c r="U13" t="n">
-        <v>0.981</v>
-      </c>
       <c r="V13" t="n">
+        <v>0.979</v>
+      </c>
+      <c r="W13" t="n">
         <v>0.981</v>
       </c>
     </row>
@@ -1615,66 +1658,69 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
         <v>48</v>
       </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" t="s">
-        <v>47</v>
-      </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>2.072</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>2.103</v>
       </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
         <v>2.063</v>
       </c>
-      <c r="P14" t="n">
-        <v>2.093</v>
-      </c>
       <c r="Q14" t="n">
+        <v>2.088</v>
+      </c>
+      <c r="R14" t="n">
         <v>2.068</v>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>0.982</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>0.985</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>0.981</v>
       </c>
-      <c r="U14" t="n">
-        <v>0.985</v>
-      </c>
       <c r="V14" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="W14" t="n">
         <v>0.983</v>
       </c>
     </row>
@@ -1683,10 +1729,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -1710,39 +1756,42 @@
         <v>1</v>
       </c>
       <c r="K15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" t="s">
-        <v>45</v>
-      </c>
-      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" t="n">
         <v>7.354</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>7.407</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>7.391</v>
       </c>
-      <c r="P15" t="n">
-        <v>7.083</v>
-      </c>
       <c r="Q15" t="n">
+        <v>7.069</v>
+      </c>
+      <c r="R15" t="n">
         <v>7.438</v>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>0.996</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>0.995</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>0.996</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>0.994</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>0.996</v>
       </c>
     </row>
@@ -1751,10 +1800,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -1778,28 +1827,28 @@
         <v>1</v>
       </c>
       <c r="K16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" t="s">
-        <v>47</v>
-      </c>
-      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16" t="n">
         <v>2.179</v>
       </c>
-      <c r="N16" t="n">
+      <c r="O16" t="n">
         <v>2.196</v>
       </c>
-      <c r="O16" t="n">
+      <c r="P16" t="n">
         <v>2.205</v>
       </c>
-      <c r="P16" t="n">
-        <v>2.181</v>
-      </c>
       <c r="Q16" t="n">
+        <v>2.195</v>
+      </c>
+      <c r="R16" t="n">
         <v>2.146</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.999</v>
       </c>
       <c r="S16" t="n">
         <v>0.999</v>
@@ -1808,9 +1857,12 @@
         <v>0.999</v>
       </c>
       <c r="U16" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="V16" t="n">
         <v>0.996</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>0.998</v>
       </c>
     </row>
@@ -1819,10 +1871,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -1846,39 +1898,42 @@
         <v>1</v>
       </c>
       <c r="K17" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" t="s">
-        <v>45</v>
-      </c>
-      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" t="n">
         <v>4.768</v>
       </c>
-      <c r="N17" t="n">
+      <c r="O17" t="n">
         <v>4.829</v>
       </c>
-      <c r="O17" t="n">
+      <c r="P17" t="n">
         <v>4.965</v>
       </c>
-      <c r="P17" t="n">
-        <v>5.251</v>
-      </c>
       <c r="Q17" t="n">
+        <v>5.243</v>
+      </c>
+      <c r="R17" t="n">
         <v>5.249</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.965</v>
       </c>
       <c r="S17" t="n">
         <v>0.965</v>
       </c>
       <c r="T17" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="U17" t="n">
         <v>0.958</v>
       </c>
-      <c r="U17" t="n">
-        <v>0.973</v>
-      </c>
       <c r="V17" t="n">
+        <v>0.971</v>
+      </c>
+      <c r="W17" t="n">
         <v>0.972</v>
       </c>
     </row>
@@ -1887,10 +1942,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -1914,39 +1969,42 @@
         <v>1</v>
       </c>
       <c r="K18" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" t="s">
-        <v>45</v>
-      </c>
-      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>46</v>
+      </c>
+      <c r="N18" t="n">
         <v>5.424</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>5.198</v>
       </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
         <v>5.208</v>
       </c>
-      <c r="P18" t="n">
-        <v>5.419</v>
-      </c>
       <c r="Q18" t="n">
+        <v>5.406</v>
+      </c>
+      <c r="R18" t="n">
         <v>5.277</v>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>0.966</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>0.968</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>0.961</v>
       </c>
-      <c r="U18" t="n">
-        <v>0.974</v>
-      </c>
       <c r="V18" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="W18" t="n">
         <v>0.975</v>
       </c>
     </row>
@@ -1955,10 +2013,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -1982,39 +2040,42 @@
         <v>1</v>
       </c>
       <c r="K19" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" t="s">
-        <v>45</v>
-      </c>
-      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>46</v>
+      </c>
+      <c r="N19" t="n">
         <v>4.848</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>4.731</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
         <v>4.834</v>
       </c>
-      <c r="P19" t="n">
-        <v>5.011</v>
-      </c>
       <c r="Q19" t="n">
+        <v>4.996</v>
+      </c>
+      <c r="R19" t="n">
         <v>4.934</v>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>0.962</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>0.965</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>0.957</v>
       </c>
-      <c r="U19" t="n">
-        <v>0.97</v>
-      </c>
       <c r="V19" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="W19" t="n">
         <v>0.972</v>
       </c>
     </row>
@@ -2023,10 +2084,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -2050,39 +2111,42 @@
         <v>1</v>
       </c>
       <c r="K20" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>46</v>
+      </c>
+      <c r="N20" t="n">
         <v>3.94</v>
       </c>
-      <c r="N20" t="n">
+      <c r="O20" t="n">
         <v>3.974</v>
       </c>
-      <c r="O20" t="n">
+      <c r="P20" t="n">
         <v>3.725</v>
       </c>
-      <c r="P20" t="n">
-        <v>3.896</v>
-      </c>
       <c r="Q20" t="n">
+        <v>3.877</v>
+      </c>
+      <c r="R20" t="n">
         <v>3.966</v>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>0.906</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>0.908</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>0.899</v>
       </c>
-      <c r="U20" t="n">
-        <v>0.868</v>
-      </c>
       <c r="V20" t="n">
+        <v>0.869</v>
+      </c>
+      <c r="W20" t="n">
         <v>0.895</v>
       </c>
     </row>
@@ -2091,10 +2155,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -2118,39 +2182,42 @@
         <v>1</v>
       </c>
       <c r="K21" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" t="s">
-        <v>45</v>
-      </c>
-      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>46</v>
+      </c>
+      <c r="N21" t="n">
         <v>4.528</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>4.482</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
         <v>4.292</v>
       </c>
-      <c r="P21" t="n">
-        <v>4.453</v>
-      </c>
       <c r="Q21" t="n">
+        <v>4.419</v>
+      </c>
+      <c r="R21" t="n">
         <v>4.443</v>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>0.892</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>0.869</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>0.854</v>
       </c>
-      <c r="U21" t="n">
-        <v>0.889</v>
-      </c>
       <c r="V21" t="n">
+        <v>0.881</v>
+      </c>
+      <c r="W21" t="n">
         <v>0.88</v>
       </c>
     </row>
@@ -2159,10 +2226,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -2186,39 +2253,42 @@
         <v>1</v>
       </c>
       <c r="K22" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" t="s">
-        <v>43</v>
-      </c>
-      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" t="n">
         <v>2.568</v>
       </c>
-      <c r="N22" t="n">
+      <c r="O22" t="n">
         <v>2.582</v>
       </c>
-      <c r="O22" t="n">
+      <c r="P22" t="n">
         <v>2.656</v>
       </c>
-      <c r="P22" t="n">
-        <v>2.597</v>
-      </c>
       <c r="Q22" t="n">
+        <v>2.599</v>
+      </c>
+      <c r="R22" t="n">
         <v>2.629</v>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>0.997</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0.998</v>
       </c>
       <c r="T22" t="n">
         <v>0.998</v>
       </c>
       <c r="U22" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="V22" t="n">
         <v>0.997</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>0.998</v>
       </c>
     </row>
@@ -2227,10 +2297,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -2254,28 +2324,28 @@
         <v>1</v>
       </c>
       <c r="K23" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" t="s">
-        <v>45</v>
-      </c>
-      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="s">
+        <v>46</v>
+      </c>
+      <c r="N23" t="n">
         <v>5.764</v>
       </c>
-      <c r="N23" t="n">
+      <c r="O23" t="n">
         <v>5.765</v>
       </c>
-      <c r="O23" t="n">
+      <c r="P23" t="n">
         <v>5.59</v>
       </c>
-      <c r="P23" t="n">
-        <v>5.464</v>
-      </c>
       <c r="Q23" t="n">
+        <v>5.446</v>
+      </c>
+      <c r="R23" t="n">
         <v>5.672</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0.993</v>
       </c>
       <c r="S23" t="n">
         <v>0.993</v>
@@ -2287,6 +2357,9 @@
         <v>0.993</v>
       </c>
       <c r="V23" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="W23" t="n">
         <v>0.994</v>
       </c>
     </row>
@@ -2295,10 +2368,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -2322,28 +2395,28 @@
         <v>1</v>
       </c>
       <c r="K24" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" t="s">
-        <v>45</v>
-      </c>
-      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>46</v>
+      </c>
+      <c r="N24" t="n">
         <v>5.115</v>
       </c>
-      <c r="N24" t="n">
+      <c r="O24" t="n">
         <v>5.19</v>
       </c>
-      <c r="O24" t="n">
+      <c r="P24" t="n">
         <v>4.962</v>
       </c>
-      <c r="P24" t="n">
-        <v>4.803</v>
-      </c>
       <c r="Q24" t="n">
+        <v>4.781</v>
+      </c>
+      <c r="R24" t="n">
         <v>5.075</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0.996</v>
       </c>
       <c r="S24" t="n">
         <v>0.996</v>
@@ -2352,9 +2425,12 @@
         <v>0.996</v>
       </c>
       <c r="U24" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="V24" t="n">
         <v>0.995</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>0.997</v>
       </c>
     </row>
@@ -2363,10 +2439,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -2390,39 +2466,42 @@
         <v>1</v>
       </c>
       <c r="K25" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" t="s">
-        <v>45</v>
-      </c>
-      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>46</v>
+      </c>
+      <c r="N25" t="n">
         <v>5.201</v>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
         <v>5.255</v>
       </c>
-      <c r="O25" t="n">
+      <c r="P25" t="n">
         <v>5.047</v>
       </c>
-      <c r="P25" t="n">
-        <v>4.75</v>
-      </c>
       <c r="Q25" t="n">
+        <v>4.724</v>
+      </c>
+      <c r="R25" t="n">
         <v>5.123</v>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>0.998</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0.997</v>
       </c>
       <c r="T25" t="n">
         <v>0.997</v>
       </c>
       <c r="U25" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="V25" t="n">
         <v>0.995</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>0.997</v>
       </c>
     </row>
@@ -2431,10 +2510,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -2458,39 +2537,42 @@
         <v>1</v>
       </c>
       <c r="K26" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" t="s">
-        <v>45</v>
-      </c>
-      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="s">
+        <v>46</v>
+      </c>
+      <c r="N26" t="n">
         <v>4.309</v>
       </c>
-      <c r="N26" t="n">
+      <c r="O26" t="n">
         <v>4.46</v>
       </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
         <v>4.496</v>
       </c>
-      <c r="P26" t="n">
-        <v>4.388</v>
-      </c>
       <c r="Q26" t="n">
+        <v>4.403</v>
+      </c>
+      <c r="R26" t="n">
         <v>4.676</v>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>0.993</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>0.991</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>0.99</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>0.985</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>0.992</v>
       </c>
     </row>
@@ -2499,10 +2581,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2526,39 +2608,42 @@
         <v>1</v>
       </c>
       <c r="K27" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" t="s">
-        <v>45</v>
-      </c>
-      <c r="M27" t="n">
-        <v>5.088</v>
+        <v>1</v>
+      </c>
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="s">
+        <v>46</v>
       </c>
       <c r="N27" t="n">
         <v>5.088</v>
       </c>
       <c r="O27" t="n">
+        <v>5.088</v>
+      </c>
+      <c r="P27" t="n">
         <v>5.066</v>
       </c>
-      <c r="P27" t="n">
-        <v>5.146</v>
-      </c>
       <c r="Q27" t="n">
+        <v>5.087</v>
+      </c>
+      <c r="R27" t="n">
         <v>5.027</v>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>0.971</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>0.966</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>0.963</v>
       </c>
-      <c r="U27" t="n">
-        <v>0.98</v>
-      </c>
       <c r="V27" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="W27" t="n">
         <v>0.969</v>
       </c>
     </row>
@@ -2567,10 +2652,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -2594,39 +2679,42 @@
         <v>1</v>
       </c>
       <c r="K28" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" t="s">
-        <v>45</v>
-      </c>
-      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
+        <v>46</v>
+      </c>
+      <c r="N28" t="n">
         <v>4.688</v>
       </c>
-      <c r="N28" t="n">
+      <c r="O28" t="n">
         <v>4.936</v>
       </c>
-      <c r="O28" t="n">
+      <c r="P28" t="n">
         <v>5.128</v>
       </c>
-      <c r="P28" t="n">
-        <v>4.748</v>
-      </c>
       <c r="Q28" t="n">
+        <v>4.683</v>
+      </c>
+      <c r="R28" t="n">
         <v>4.457</v>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>0.984</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>0.98</v>
       </c>
-      <c r="T28" t="n">
+      <c r="U28" t="n">
         <v>0.975</v>
       </c>
-      <c r="U28" t="n">
+      <c r="V28" t="n">
         <v>0.982</v>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>0.983</v>
       </c>
     </row>
@@ -2635,10 +2723,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -2662,39 +2750,42 @@
         <v>1</v>
       </c>
       <c r="K29" t="b">
-        <v>0</v>
-      </c>
-      <c r="L29" t="s">
-        <v>45</v>
-      </c>
-      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="s">
+        <v>46</v>
+      </c>
+      <c r="N29" t="n">
         <v>5.468</v>
       </c>
-      <c r="N29" t="n">
+      <c r="O29" t="n">
         <v>5.569</v>
       </c>
-      <c r="O29" t="n">
+      <c r="P29" t="n">
         <v>5.596</v>
       </c>
-      <c r="P29" t="n">
-        <v>4.983</v>
-      </c>
       <c r="Q29" t="n">
+        <v>4.945</v>
+      </c>
+      <c r="R29" t="n">
         <v>5.114</v>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>0.958</v>
       </c>
-      <c r="S29" t="n">
+      <c r="T29" t="n">
         <v>0.965</v>
       </c>
-      <c r="T29" t="n">
+      <c r="U29" t="n">
         <v>0.962</v>
       </c>
-      <c r="U29" t="n">
-        <v>0.965</v>
-      </c>
       <c r="V29" t="n">
+        <v>0.963</v>
+      </c>
+      <c r="W29" t="n">
         <v>0.959</v>
       </c>
     </row>
@@ -2703,10 +2794,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -2730,39 +2821,42 @@
         <v>1</v>
       </c>
       <c r="K30" t="b">
-        <v>0</v>
-      </c>
-      <c r="L30" t="s">
-        <v>45</v>
-      </c>
-      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
+        <v>46</v>
+      </c>
+      <c r="N30" t="n">
         <v>4.079</v>
       </c>
-      <c r="N30" t="n">
+      <c r="O30" t="n">
         <v>4.334</v>
       </c>
-      <c r="O30" t="n">
+      <c r="P30" t="n">
         <v>4.307</v>
       </c>
-      <c r="P30" t="n">
-        <v>4.266</v>
-      </c>
       <c r="Q30" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="R30" t="n">
         <v>4.013</v>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>0.971</v>
       </c>
-      <c r="S30" t="n">
+      <c r="T30" t="n">
         <v>0.974</v>
       </c>
-      <c r="T30" t="n">
+      <c r="U30" t="n">
         <v>0.965</v>
       </c>
-      <c r="U30" t="n">
+      <c r="V30" t="n">
         <v>0.979</v>
       </c>
-      <c r="V30" t="n">
+      <c r="W30" t="n">
         <v>0.97</v>
       </c>
     </row>
@@ -2771,10 +2865,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -2798,28 +2892,28 @@
         <v>1</v>
       </c>
       <c r="K31" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" t="s">
-        <v>45</v>
-      </c>
-      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="s">
+        <v>46</v>
+      </c>
+      <c r="N31" t="n">
         <v>5.65</v>
       </c>
-      <c r="N31" t="n">
+      <c r="O31" t="n">
         <v>5.579</v>
       </c>
-      <c r="O31" t="n">
+      <c r="P31" t="n">
         <v>5.5</v>
       </c>
-      <c r="P31" t="n">
-        <v>5.439</v>
-      </c>
       <c r="Q31" t="n">
+        <v>5.383</v>
+      </c>
+      <c r="R31" t="n">
         <v>5.126</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0.993</v>
       </c>
       <c r="S31" t="n">
         <v>0.993</v>
@@ -2828,9 +2922,12 @@
         <v>0.993</v>
       </c>
       <c r="U31" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="V31" t="n">
         <v>0.992</v>
       </c>
-      <c r="V31" t="n">
+      <c r="W31" t="n">
         <v>0.992</v>
       </c>
     </row>
@@ -2839,10 +2936,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
@@ -2866,39 +2963,42 @@
         <v>1</v>
       </c>
       <c r="K32" t="b">
-        <v>0</v>
-      </c>
-      <c r="L32" t="s">
-        <v>45</v>
-      </c>
-      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
+        <v>46</v>
+      </c>
+      <c r="N32" t="n">
         <v>7.07</v>
       </c>
-      <c r="N32" t="n">
+      <c r="O32" t="n">
         <v>7.125</v>
       </c>
-      <c r="O32" t="n">
+      <c r="P32" t="n">
         <v>7.074</v>
       </c>
-      <c r="P32" t="n">
-        <v>6.922</v>
-      </c>
       <c r="Q32" t="n">
+        <v>6.877</v>
+      </c>
+      <c r="R32" t="n">
         <v>7.145</v>
       </c>
-      <c r="R32" t="n">
+      <c r="S32" t="n">
         <v>0.997</v>
       </c>
-      <c r="S32" t="n">
+      <c r="T32" t="n">
         <v>0.996</v>
       </c>
-      <c r="T32" t="n">
+      <c r="U32" t="n">
         <v>0.995</v>
       </c>
-      <c r="U32" t="n">
+      <c r="V32" t="n">
         <v>0.991</v>
       </c>
-      <c r="V32" t="n">
+      <c r="W32" t="n">
         <v>0.992</v>
       </c>
     </row>
@@ -2907,10 +3007,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
@@ -2934,39 +3034,42 @@
         <v>1</v>
       </c>
       <c r="K33" t="b">
-        <v>0</v>
-      </c>
-      <c r="L33" t="s">
-        <v>45</v>
-      </c>
-      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="s">
+        <v>46</v>
+      </c>
+      <c r="N33" t="n">
         <v>3.843</v>
       </c>
-      <c r="N33" t="n">
+      <c r="O33" t="n">
         <v>3.937</v>
       </c>
-      <c r="O33" t="n">
+      <c r="P33" t="n">
         <v>4.154</v>
       </c>
-      <c r="P33" t="n">
-        <v>4.285</v>
-      </c>
       <c r="Q33" t="n">
+        <v>4.263</v>
+      </c>
+      <c r="R33" t="n">
         <v>4.268</v>
       </c>
-      <c r="R33" t="n">
+      <c r="S33" t="n">
         <v>0.918</v>
       </c>
-      <c r="S33" t="n">
+      <c r="T33" t="n">
         <v>0.922</v>
       </c>
-      <c r="T33" t="n">
+      <c r="U33" t="n">
         <v>0.926</v>
       </c>
-      <c r="U33" t="n">
-        <v>0.953</v>
-      </c>
       <c r="V33" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="W33" t="n">
         <v>0.942</v>
       </c>
     </row>
@@ -2975,10 +3078,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
@@ -3002,39 +3105,42 @@
         <v>1</v>
       </c>
       <c r="K34" t="b">
-        <v>0</v>
-      </c>
-      <c r="L34" t="s">
-        <v>45</v>
-      </c>
-      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
+        <v>46</v>
+      </c>
+      <c r="N34" t="n">
         <v>5.244</v>
       </c>
-      <c r="N34" t="n">
+      <c r="O34" t="n">
         <v>5.314</v>
       </c>
-      <c r="O34" t="n">
+      <c r="P34" t="n">
         <v>5.226</v>
       </c>
-      <c r="P34" t="n">
-        <v>5.15</v>
-      </c>
       <c r="Q34" t="n">
+        <v>5.073</v>
+      </c>
+      <c r="R34" t="n">
         <v>5.439</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0.981</v>
       </c>
       <c r="S34" t="n">
         <v>0.981</v>
       </c>
       <c r="T34" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="U34" t="n">
         <v>0.98</v>
       </c>
-      <c r="U34" t="n">
-        <v>0.985</v>
-      </c>
       <c r="V34" t="n">
+        <v>0.983</v>
+      </c>
+      <c r="W34" t="n">
         <v>0.982</v>
       </c>
     </row>
@@ -3043,10 +3149,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
@@ -3070,28 +3176,28 @@
         <v>1</v>
       </c>
       <c r="K35" t="b">
-        <v>0</v>
-      </c>
-      <c r="L35" t="s">
-        <v>45</v>
-      </c>
-      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="s">
+        <v>46</v>
+      </c>
+      <c r="N35" t="n">
         <v>6.204</v>
       </c>
-      <c r="N35" t="n">
+      <c r="O35" t="n">
         <v>6.353</v>
       </c>
-      <c r="O35" t="n">
+      <c r="P35" t="n">
         <v>6.371</v>
       </c>
-      <c r="P35" t="n">
-        <v>6.183</v>
-      </c>
       <c r="Q35" t="n">
+        <v>6.109</v>
+      </c>
+      <c r="R35" t="n">
         <v>6.492</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0.993</v>
       </c>
       <c r="S35" t="n">
         <v>0.993</v>
@@ -3100,9 +3206,12 @@
         <v>0.993</v>
       </c>
       <c r="U35" t="n">
-        <v>0.992</v>
+        <v>0.993</v>
       </c>
       <c r="V35" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="W35" t="n">
         <v>0.991</v>
       </c>
     </row>
@@ -3111,10 +3220,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
@@ -3138,39 +3247,42 @@
         <v>1</v>
       </c>
       <c r="K36" t="b">
-        <v>0</v>
-      </c>
-      <c r="L36" t="s">
-        <v>45</v>
-      </c>
-      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="s">
+        <v>46</v>
+      </c>
+      <c r="N36" t="n">
         <v>3.522</v>
       </c>
-      <c r="N36" t="n">
+      <c r="O36" t="n">
         <v>3.597</v>
       </c>
-      <c r="O36" t="n">
+      <c r="P36" t="n">
         <v>3.59</v>
       </c>
-      <c r="P36" t="n">
-        <v>3.414</v>
-      </c>
       <c r="Q36" t="n">
+        <v>3.379</v>
+      </c>
+      <c r="R36" t="n">
         <v>3.625</v>
       </c>
-      <c r="R36" t="n">
+      <c r="S36" t="n">
         <v>0.987</v>
       </c>
-      <c r="S36" t="n">
+      <c r="T36" t="n">
         <v>0.985</v>
       </c>
-      <c r="T36" t="n">
+      <c r="U36" t="n">
         <v>0.982</v>
       </c>
-      <c r="U36" t="n">
+      <c r="V36" t="n">
         <v>0.987</v>
       </c>
-      <c r="V36" t="n">
+      <c r="W36" t="n">
         <v>0.985</v>
       </c>
     </row>
@@ -3179,10 +3291,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
@@ -3206,39 +3318,42 @@
         <v>1</v>
       </c>
       <c r="K37" t="b">
-        <v>0</v>
-      </c>
-      <c r="L37" t="s">
-        <v>45</v>
-      </c>
-      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="s">
+        <v>46</v>
+      </c>
+      <c r="N37" t="n">
         <v>4.392</v>
       </c>
-      <c r="N37" t="n">
+      <c r="O37" t="n">
         <v>4.496</v>
       </c>
-      <c r="O37" t="n">
+      <c r="P37" t="n">
         <v>4.419</v>
       </c>
-      <c r="P37" t="n">
-        <v>4.42</v>
-      </c>
       <c r="Q37" t="n">
+        <v>4.358</v>
+      </c>
+      <c r="R37" t="n">
         <v>4.483</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0.98</v>
       </c>
       <c r="S37" t="n">
         <v>0.98</v>
       </c>
       <c r="T37" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="U37" t="n">
         <v>0.977</v>
       </c>
-      <c r="U37" t="n">
-        <v>0.983</v>
-      </c>
       <c r="V37" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="W37" t="n">
         <v>0.981</v>
       </c>
     </row>
@@ -3247,10 +3362,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
@@ -3274,39 +3389,42 @@
         <v>1</v>
       </c>
       <c r="K38" t="b">
-        <v>0</v>
-      </c>
-      <c r="L38" t="s">
-        <v>45</v>
-      </c>
-      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="s">
+        <v>46</v>
+      </c>
+      <c r="N38" t="n">
         <v>3.509</v>
       </c>
-      <c r="N38" t="n">
+      <c r="O38" t="n">
         <v>3.56</v>
       </c>
-      <c r="O38" t="n">
+      <c r="P38" t="n">
         <v>3.534</v>
       </c>
-      <c r="P38" t="n">
-        <v>3.386</v>
-      </c>
       <c r="Q38" t="n">
+        <v>3.356</v>
+      </c>
+      <c r="R38" t="n">
         <v>3.593</v>
       </c>
-      <c r="R38" t="n">
+      <c r="S38" t="n">
         <v>0.982</v>
       </c>
-      <c r="S38" t="n">
+      <c r="T38" t="n">
         <v>0.981</v>
       </c>
-      <c r="T38" t="n">
+      <c r="U38" t="n">
         <v>0.979</v>
       </c>
-      <c r="U38" t="n">
+      <c r="V38" t="n">
         <v>0.984</v>
       </c>
-      <c r="V38" t="n">
+      <c r="W38" t="n">
         <v>0.982</v>
       </c>
     </row>
@@ -3315,10 +3433,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
@@ -3342,39 +3460,42 @@
         <v>1</v>
       </c>
       <c r="K39" t="b">
-        <v>0</v>
-      </c>
-      <c r="L39" t="s">
-        <v>45</v>
-      </c>
-      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="s">
+        <v>46</v>
+      </c>
+      <c r="N39" t="n">
         <v>4.676</v>
       </c>
-      <c r="N39" t="n">
+      <c r="O39" t="n">
         <v>4.624</v>
       </c>
-      <c r="O39" t="n">
+      <c r="P39" t="n">
         <v>4.708</v>
       </c>
-      <c r="P39" t="n">
-        <v>4.666</v>
-      </c>
       <c r="Q39" t="n">
+        <v>4.642</v>
+      </c>
+      <c r="R39" t="n">
         <v>4.737</v>
       </c>
-      <c r="R39" t="n">
+      <c r="S39" t="n">
         <v>0.92</v>
       </c>
-      <c r="S39" t="n">
+      <c r="T39" t="n">
         <v>0.922</v>
       </c>
-      <c r="T39" t="n">
+      <c r="U39" t="n">
         <v>0.911</v>
       </c>
-      <c r="U39" t="n">
-        <v>0.943</v>
-      </c>
       <c r="V39" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="W39" t="n">
         <v>0.935</v>
       </c>
     </row>
@@ -3383,10 +3504,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
@@ -3410,39 +3531,42 @@
         <v>1</v>
       </c>
       <c r="K40" t="b">
-        <v>0</v>
-      </c>
-      <c r="L40" t="s">
-        <v>45</v>
-      </c>
-      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="s">
+        <v>46</v>
+      </c>
+      <c r="N40" t="n">
         <v>5.678</v>
       </c>
-      <c r="N40" t="n">
+      <c r="O40" t="n">
         <v>5.658</v>
       </c>
-      <c r="O40" t="n">
+      <c r="P40" t="n">
         <v>5.429</v>
       </c>
-      <c r="P40" t="n">
-        <v>5.418</v>
-      </c>
       <c r="Q40" t="n">
+        <v>5.394</v>
+      </c>
+      <c r="R40" t="n">
         <v>5.663</v>
       </c>
-      <c r="R40" t="n">
+      <c r="S40" t="n">
         <v>0.911</v>
       </c>
-      <c r="S40" t="n">
+      <c r="T40" t="n">
         <v>0.912</v>
       </c>
-      <c r="T40" t="n">
+      <c r="U40" t="n">
         <v>0.904</v>
       </c>
-      <c r="U40" t="n">
-        <v>0.872</v>
-      </c>
       <c r="V40" t="n">
+        <v>0.873</v>
+      </c>
+      <c r="W40" t="n">
         <v>0.899</v>
       </c>
     </row>
@@ -3451,10 +3575,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
@@ -3478,39 +3602,42 @@
         <v>1</v>
       </c>
       <c r="K41" t="b">
-        <v>0</v>
-      </c>
-      <c r="L41" t="s">
-        <v>77</v>
-      </c>
-      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="s">
+        <v>78</v>
+      </c>
+      <c r="N41" t="n">
         <v>0.309</v>
       </c>
-      <c r="N41" t="n">
+      <c r="O41" t="n">
         <v>0.289</v>
       </c>
-      <c r="O41" t="n">
+      <c r="P41" t="n">
         <v>0.277</v>
       </c>
-      <c r="P41" t="n">
-        <v>0.272</v>
-      </c>
       <c r="Q41" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="R41" t="n">
         <v>0.27</v>
       </c>
-      <c r="R41" t="n">
+      <c r="S41" t="n">
         <v>0.994</v>
       </c>
-      <c r="S41" t="n">
+      <c r="T41" t="n">
         <v>0.995</v>
       </c>
-      <c r="T41" t="n">
+      <c r="U41" t="n">
         <v>0.996</v>
       </c>
-      <c r="U41" t="n">
-        <v>0.971</v>
-      </c>
       <c r="V41" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="W41" t="n">
         <v>0.994</v>
       </c>
     </row>
@@ -3519,66 +3646,69 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" t="b">
+        <v>1</v>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="s">
         <v>78</v>
       </c>
-      <c r="C42" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" t="b">
-        <v>1</v>
-      </c>
-      <c r="E42" t="b">
-        <v>1</v>
-      </c>
-      <c r="F42" t="b">
-        <v>1</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" t="b">
-        <v>1</v>
-      </c>
-      <c r="K42" t="b">
-        <v>0</v>
-      </c>
-      <c r="L42" t="s">
-        <v>77</v>
-      </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>0.887</v>
       </c>
-      <c r="N42" t="n">
+      <c r="O42" t="n">
         <v>0.894</v>
       </c>
-      <c r="O42" t="n">
+      <c r="P42" t="n">
         <v>0.902</v>
       </c>
-      <c r="P42" t="n">
-        <v>0.907</v>
-      </c>
       <c r="Q42" t="n">
+        <v>0.908</v>
+      </c>
+      <c r="R42" t="n">
         <v>0.901</v>
       </c>
-      <c r="R42" t="n">
-        <v>1</v>
-      </c>
       <c r="S42" t="n">
         <v>1</v>
       </c>
       <c r="T42" t="n">
+        <v>1</v>
+      </c>
+      <c r="U42" t="n">
         <v>0.999</v>
       </c>
-      <c r="U42" t="n">
+      <c r="V42" t="n">
         <v>0.995</v>
       </c>
-      <c r="V42" t="n">
+      <c r="W42" t="n">
         <v>0.998</v>
       </c>
     </row>
@@ -3587,10 +3717,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
@@ -3614,39 +3744,42 @@
         <v>1</v>
       </c>
       <c r="K43" t="b">
-        <v>0</v>
-      </c>
-      <c r="L43" t="s">
-        <v>77</v>
-      </c>
-      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="s">
+        <v>78</v>
+      </c>
+      <c r="N43" t="n">
         <v>0.332</v>
       </c>
-      <c r="N43" t="n">
+      <c r="O43" t="n">
         <v>0.336</v>
       </c>
-      <c r="O43" t="n">
+      <c r="P43" t="n">
         <v>0.345</v>
       </c>
-      <c r="P43" t="n">
+      <c r="Q43" t="n">
         <v>0.31</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="R43" t="n">
         <v>0.352</v>
       </c>
-      <c r="R43" t="n">
+      <c r="S43" t="n">
         <v>0.638</v>
       </c>
-      <c r="S43" t="n">
+      <c r="T43" t="n">
         <v>0.649</v>
       </c>
-      <c r="T43" t="n">
+      <c r="U43" t="n">
         <v>0.648</v>
       </c>
-      <c r="U43" t="n">
+      <c r="V43" t="n">
         <v>0.645</v>
       </c>
-      <c r="V43" t="n">
+      <c r="W43" t="n">
         <v>0.674</v>
       </c>
     </row>
@@ -3655,10 +3788,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
@@ -3682,39 +3815,42 @@
         <v>1</v>
       </c>
       <c r="K44" t="b">
-        <v>0</v>
-      </c>
-      <c r="L44" t="s">
-        <v>77</v>
-      </c>
-      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="s">
+        <v>78</v>
+      </c>
+      <c r="N44" t="n">
         <v>0.499</v>
       </c>
-      <c r="N44" t="n">
+      <c r="O44" t="n">
         <v>0.455</v>
       </c>
-      <c r="O44" t="n">
+      <c r="P44" t="n">
         <v>0.465</v>
       </c>
-      <c r="P44" t="n">
-        <v>0.448</v>
-      </c>
       <c r="Q44" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="R44" t="n">
         <v>0.443</v>
       </c>
-      <c r="R44" t="n">
+      <c r="S44" t="n">
         <v>0.979</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0.973</v>
       </c>
       <c r="T44" t="n">
         <v>0.973</v>
       </c>
       <c r="U44" t="n">
-        <v>0.975</v>
+        <v>0.973</v>
       </c>
       <c r="V44" t="n">
+        <v>0.974</v>
+      </c>
+      <c r="W44" t="n">
         <v>0.977</v>
       </c>
     </row>
@@ -3723,10 +3859,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
@@ -3750,39 +3886,42 @@
         <v>1</v>
       </c>
       <c r="K45" t="b">
-        <v>0</v>
-      </c>
-      <c r="L45" t="s">
-        <v>77</v>
-      </c>
-      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="s">
+        <v>78</v>
+      </c>
+      <c r="N45" t="n">
         <v>0.169</v>
       </c>
-      <c r="N45" t="n">
+      <c r="O45" t="n">
         <v>0.148</v>
       </c>
-      <c r="O45" t="n">
+      <c r="P45" t="n">
         <v>0.133</v>
       </c>
-      <c r="P45" t="n">
+      <c r="Q45" t="n">
         <v>0.107</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="R45" t="n">
         <v>0.11</v>
       </c>
-      <c r="R45" t="n">
+      <c r="S45" t="n">
         <v>0.997</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0.996</v>
       </c>
       <c r="T45" t="n">
         <v>0.996</v>
       </c>
       <c r="U45" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="V45" t="n">
         <v>0.992</v>
       </c>
-      <c r="V45" t="n">
+      <c r="W45" t="n">
         <v>0.997</v>
       </c>
     </row>
@@ -3791,10 +3930,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
@@ -3818,39 +3957,42 @@
         <v>1</v>
       </c>
       <c r="K46" t="b">
-        <v>0</v>
-      </c>
-      <c r="L46" t="s">
-        <v>77</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.019</v>
+        <v>1</v>
+      </c>
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
+        <v>78</v>
       </c>
       <c r="N46" t="n">
         <v>0.019</v>
       </c>
       <c r="O46" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="P46" t="n">
         <v>0.027</v>
       </c>
-      <c r="P46" t="n">
-        <v>0.029</v>
-      </c>
       <c r="Q46" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="R46" t="n">
         <v>0.028</v>
       </c>
-      <c r="R46" t="n">
+      <c r="S46" t="n">
         <v>0.475</v>
       </c>
-      <c r="S46" t="n">
+      <c r="T46" t="n">
         <v>0.453</v>
       </c>
-      <c r="T46" t="n">
+      <c r="U46" t="n">
         <v>0.46</v>
       </c>
-      <c r="U46" t="n">
-        <v>0.437</v>
-      </c>
       <c r="V46" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="W46" t="n">
         <v>0.456</v>
       </c>
     </row>
@@ -3859,10 +4001,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
@@ -3886,39 +4028,42 @@
         <v>1</v>
       </c>
       <c r="K47" t="b">
-        <v>0</v>
-      </c>
-      <c r="L47" t="s">
-        <v>77</v>
-      </c>
-      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
+        <v>78</v>
+      </c>
+      <c r="N47" t="n">
         <v>0.947</v>
       </c>
-      <c r="N47" t="n">
+      <c r="O47" t="n">
         <v>0.954</v>
       </c>
-      <c r="O47" t="n">
+      <c r="P47" t="n">
         <v>0.952</v>
       </c>
-      <c r="P47" t="n">
+      <c r="Q47" t="n">
+        <v>0.948</v>
+      </c>
+      <c r="R47" t="n">
         <v>0.946</v>
       </c>
-      <c r="Q47" t="n">
-        <v>0.946</v>
-      </c>
-      <c r="R47" t="n">
+      <c r="S47" t="n">
         <v>0.999</v>
       </c>
-      <c r="S47" t="n">
-        <v>1</v>
-      </c>
       <c r="T47" t="n">
+        <v>1</v>
+      </c>
+      <c r="U47" t="n">
         <v>0.999</v>
       </c>
-      <c r="U47" t="n">
+      <c r="V47" t="n">
         <v>0.994</v>
       </c>
-      <c r="V47" t="n">
+      <c r="W47" t="n">
         <v>0.998</v>
       </c>
     </row>
@@ -3927,10 +4072,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
@@ -3954,29 +4099,29 @@
         <v>1</v>
       </c>
       <c r="K48" t="b">
-        <v>0</v>
-      </c>
-      <c r="L48" t="s">
-        <v>85</v>
-      </c>
-      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" t="s">
+        <v>86</v>
+      </c>
+      <c r="N48" t="n">
         <v>0.013</v>
       </c>
-      <c r="N48" t="n">
+      <c r="O48" t="n">
         <v>0.011</v>
       </c>
-      <c r="O48" t="n">
+      <c r="P48" t="n">
         <v>0.01</v>
       </c>
-      <c r="P48" t="n">
+      <c r="Q48" t="n">
         <v>0.014</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="R48" t="n">
         <v>0.011</v>
       </c>
-      <c r="R48" t="n">
-        <v>1</v>
-      </c>
       <c r="S48" t="n">
         <v>1</v>
       </c>
@@ -3987,6 +4132,9 @@
         <v>1</v>
       </c>
       <c r="V48" t="n">
+        <v>1</v>
+      </c>
+      <c r="W48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3995,40 +4143,40 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="b">
+        <v>1</v>
+      </c>
+      <c r="K49" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" t="b">
+        <v>1</v>
+      </c>
+      <c r="M49" t="s">
         <v>86</v>
-      </c>
-      <c r="C49" t="s">
-        <v>76</v>
-      </c>
-      <c r="D49" t="b">
-        <v>1</v>
-      </c>
-      <c r="E49" t="b">
-        <v>1</v>
-      </c>
-      <c r="F49" t="b">
-        <v>1</v>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="b">
-        <v>0</v>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="s">
-        <v>85</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.001</v>
       </c>
       <c r="N49" t="n">
         <v>0.001</v>
@@ -4043,7 +4191,7 @@
         <v>0.001</v>
       </c>
       <c r="R49" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="S49" t="n">
         <v>1</v>
@@ -4055,6 +4203,9 @@
         <v>1</v>
       </c>
       <c r="V49" t="n">
+        <v>1</v>
+      </c>
+      <c r="W49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4063,10 +4214,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
@@ -4090,29 +4241,29 @@
         <v>1</v>
       </c>
       <c r="K50" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" t="s">
-        <v>85</v>
-      </c>
-      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" t="s">
+        <v>86</v>
+      </c>
+      <c r="N50" t="n">
         <v>0.007</v>
       </c>
-      <c r="N50" t="n">
+      <c r="O50" t="n">
         <v>0.008</v>
       </c>
-      <c r="O50" t="n">
+      <c r="P50" t="n">
         <v>0.007</v>
       </c>
-      <c r="P50" t="n">
+      <c r="Q50" t="n">
         <v>0.009</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="R50" t="n">
         <v>0.006</v>
       </c>
-      <c r="R50" t="n">
-        <v>1</v>
-      </c>
       <c r="S50" t="n">
         <v>1</v>
       </c>
@@ -4123,6 +4274,9 @@
         <v>1</v>
       </c>
       <c r="V50" t="n">
+        <v>1</v>
+      </c>
+      <c r="W50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4131,10 +4285,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C51" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
@@ -4158,29 +4312,29 @@
         <v>1</v>
       </c>
       <c r="K51" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" t="s">
-        <v>85</v>
-      </c>
-      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" t="s">
+        <v>86</v>
+      </c>
+      <c r="N51" t="n">
         <v>0.01</v>
       </c>
-      <c r="N51" t="n">
+      <c r="O51" t="n">
         <v>0.011</v>
       </c>
-      <c r="O51" t="n">
+      <c r="P51" t="n">
         <v>0.009</v>
       </c>
-      <c r="P51" t="n">
+      <c r="Q51" t="n">
         <v>0.012</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="R51" t="n">
         <v>0.009</v>
       </c>
-      <c r="R51" t="n">
-        <v>1</v>
-      </c>
       <c r="S51" t="n">
         <v>1</v>
       </c>
@@ -4191,6 +4345,9 @@
         <v>1</v>
       </c>
       <c r="V51" t="n">
+        <v>1</v>
+      </c>
+      <c r="W51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4199,10 +4356,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C52" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
@@ -4226,29 +4383,29 @@
         <v>1</v>
       </c>
       <c r="K52" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" t="s">
-        <v>85</v>
-      </c>
-      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" t="s">
+        <v>86</v>
+      </c>
+      <c r="N52" t="n">
         <v>0.01</v>
       </c>
-      <c r="N52" t="n">
+      <c r="O52" t="n">
         <v>0.012</v>
       </c>
-      <c r="O52" t="n">
+      <c r="P52" t="n">
         <v>0.01</v>
       </c>
-      <c r="P52" t="n">
+      <c r="Q52" t="n">
         <v>0.019</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="R52" t="n">
         <v>0.015</v>
       </c>
-      <c r="R52" t="n">
-        <v>1</v>
-      </c>
       <c r="S52" t="n">
         <v>1</v>
       </c>
@@ -4259,6 +4416,9 @@
         <v>1</v>
       </c>
       <c r="V52" t="n">
+        <v>1</v>
+      </c>
+      <c r="W52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4267,10 +4427,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D53" t="b">
         <v>1</v>
@@ -4294,39 +4454,42 @@
         <v>1</v>
       </c>
       <c r="K53" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" t="s">
-        <v>77</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.081</v>
+        <v>1</v>
+      </c>
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="s">
+        <v>78</v>
       </c>
       <c r="N53" t="n">
         <v>0.081</v>
       </c>
       <c r="O53" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="P53" t="n">
         <v>0.075</v>
       </c>
-      <c r="P53" t="n">
-        <v>0.096</v>
-      </c>
       <c r="Q53" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="R53" t="n">
         <v>0.078</v>
       </c>
-      <c r="R53" t="n">
+      <c r="S53" t="n">
         <v>0.991</v>
       </c>
-      <c r="S53" t="n">
+      <c r="T53" t="n">
         <v>0.992</v>
       </c>
-      <c r="T53" t="n">
+      <c r="U53" t="n">
         <v>0.991</v>
       </c>
-      <c r="U53" t="n">
+      <c r="V53" t="n">
         <v>0.983</v>
       </c>
-      <c r="V53" t="n">
+      <c r="W53" t="n">
         <v>0.992</v>
       </c>
     </row>
@@ -4335,10 +4498,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C54" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D54" t="b">
         <v>1</v>
@@ -4362,29 +4525,29 @@
         <v>1</v>
       </c>
       <c r="K54" t="b">
-        <v>0</v>
-      </c>
-      <c r="L54" t="s">
-        <v>85</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.012</v>
+        <v>1</v>
+      </c>
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="s">
+        <v>86</v>
       </c>
       <c r="N54" t="n">
         <v>0.012</v>
       </c>
       <c r="O54" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="P54" t="n">
         <v>0.007</v>
       </c>
-      <c r="P54" t="n">
+      <c r="Q54" t="n">
         <v>0.014</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="R54" t="n">
         <v>0.005</v>
       </c>
-      <c r="R54" t="n">
-        <v>1</v>
-      </c>
       <c r="S54" t="n">
         <v>1</v>
       </c>
@@ -4395,6 +4558,9 @@
         <v>1</v>
       </c>
       <c r="V54" t="n">
+        <v>1</v>
+      </c>
+      <c r="W54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,10 +4569,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D55" t="b">
         <v>1</v>
@@ -4430,13 +4596,13 @@
         <v>1</v>
       </c>
       <c r="K55" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" t="s">
-        <v>85</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="s">
+        <v>86</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -4445,13 +4611,13 @@
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="n">
         <v>0.002</v>
       </c>
       <c r="R55" t="n">
-        <v>1</v>
+        <v>0.002</v>
       </c>
       <c r="S55" t="n">
         <v>1</v>
@@ -4463,6 +4629,9 @@
         <v>1</v>
       </c>
       <c r="V55" t="n">
+        <v>1</v>
+      </c>
+      <c r="W55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4471,10 +4640,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D56" t="b">
         <v>1</v>
@@ -4498,29 +4667,29 @@
         <v>1</v>
       </c>
       <c r="K56" t="b">
-        <v>0</v>
-      </c>
-      <c r="L56" t="s">
-        <v>85</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.919</v>
+        <v>1</v>
+      </c>
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="s">
+        <v>86</v>
       </c>
       <c r="N56" t="n">
         <v>0.919</v>
       </c>
       <c r="O56" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="P56" t="n">
         <v>0.925</v>
       </c>
-      <c r="P56" t="n">
-        <v>0.902</v>
-      </c>
       <c r="Q56" t="n">
+        <v>0.903</v>
+      </c>
+      <c r="R56" t="n">
         <v>0.92</v>
       </c>
-      <c r="R56" t="n">
-        <v>1</v>
-      </c>
       <c r="S56" t="n">
         <v>1</v>
       </c>
@@ -4531,6 +4700,9 @@
         <v>1</v>
       </c>
       <c r="V56" t="n">
+        <v>1</v>
+      </c>
+      <c r="W56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4539,10 +4711,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C57" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D57" t="b">
         <v>1</v>
@@ -4566,29 +4738,29 @@
         <v>1</v>
       </c>
       <c r="K57" t="b">
-        <v>0</v>
-      </c>
-      <c r="L57" t="s">
-        <v>85</v>
-      </c>
-      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="s">
+        <v>86</v>
+      </c>
+      <c r="N57" t="n">
         <v>0.02</v>
       </c>
-      <c r="N57" t="n">
+      <c r="O57" t="n">
         <v>0.018</v>
       </c>
-      <c r="O57" t="n">
+      <c r="P57" t="n">
         <v>0.015</v>
       </c>
-      <c r="P57" t="n">
-        <v>0.023</v>
-      </c>
       <c r="Q57" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="R57" t="n">
         <v>0.014</v>
       </c>
-      <c r="R57" t="n">
-        <v>1</v>
-      </c>
       <c r="S57" t="n">
         <v>1</v>
       </c>
@@ -4599,6 +4771,9 @@
         <v>1</v>
       </c>
       <c r="V57" t="n">
+        <v>1</v>
+      </c>
+      <c r="W57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4607,10 +4782,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C58" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D58" t="b">
         <v>1</v>
@@ -4634,29 +4809,29 @@
         <v>1</v>
       </c>
       <c r="K58" t="b">
-        <v>0</v>
-      </c>
-      <c r="L58" t="s">
-        <v>85</v>
-      </c>
-      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" t="s">
+        <v>86</v>
+      </c>
+      <c r="N58" t="n">
         <v>0.018</v>
       </c>
-      <c r="N58" t="n">
+      <c r="O58" t="n">
         <v>0.017</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0.019</v>
       </c>
       <c r="P58" t="n">
         <v>0.019</v>
       </c>
       <c r="Q58" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="R58" t="n">
         <v>0.016</v>
       </c>
-      <c r="R58" t="n">
-        <v>1</v>
-      </c>
       <c r="S58" t="n">
         <v>1</v>
       </c>
@@ -4667,6 +4842,9 @@
         <v>1</v>
       </c>
       <c r="V58" t="n">
+        <v>1</v>
+      </c>
+      <c r="W58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4675,10 +4853,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C59" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D59" t="b">
         <v>1</v>
@@ -4702,29 +4880,29 @@
         <v>1</v>
       </c>
       <c r="K59" t="b">
-        <v>0</v>
-      </c>
-      <c r="L59" t="s">
-        <v>85</v>
-      </c>
-      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" t="s">
+        <v>86</v>
+      </c>
+      <c r="N59" t="n">
         <v>0.014</v>
       </c>
-      <c r="N59" t="n">
+      <c r="O59" t="n">
         <v>0.011</v>
       </c>
-      <c r="O59" t="n">
+      <c r="P59" t="n">
         <v>0.009</v>
       </c>
-      <c r="P59" t="n">
-        <v>0.014</v>
-      </c>
       <c r="Q59" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="R59" t="n">
         <v>0.012</v>
       </c>
-      <c r="R59" t="n">
-        <v>1</v>
-      </c>
       <c r="S59" t="n">
         <v>1</v>
       </c>
@@ -4735,6 +4913,9 @@
         <v>1</v>
       </c>
       <c r="V59" t="n">
+        <v>1</v>
+      </c>
+      <c r="W59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4743,10 +4924,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C60" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
@@ -4767,19 +4948,19 @@
         <v>1</v>
       </c>
       <c r="J60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" t="b">
-        <v>1</v>
-      </c>
-      <c r="L60" t="s">
-        <v>85</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L60" t="b">
+        <v>1</v>
+      </c>
+      <c r="M60" t="s">
+        <v>86</v>
       </c>
       <c r="N60" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
         <v>0.001</v>
@@ -4788,10 +4969,10 @@
         <v>0.001</v>
       </c>
       <c r="Q60" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="R60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S60" t="n">
         <v>1</v>
@@ -4803,6 +4984,9 @@
         <v>1</v>
       </c>
       <c r="V60" t="n">
+        <v>1</v>
+      </c>
+      <c r="W60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4811,10 +4995,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C61" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D61" t="b">
         <v>1</v>
@@ -4838,29 +5022,29 @@
         <v>1</v>
       </c>
       <c r="K61" t="b">
-        <v>0</v>
-      </c>
-      <c r="L61" t="s">
-        <v>85</v>
-      </c>
-      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" t="s">
+        <v>86</v>
+      </c>
+      <c r="N61" t="n">
         <v>0.017</v>
       </c>
-      <c r="N61" t="n">
+      <c r="O61" t="n">
         <v>0.019</v>
       </c>
-      <c r="O61" t="n">
+      <c r="P61" t="n">
         <v>0.013</v>
       </c>
-      <c r="P61" t="n">
+      <c r="Q61" t="n">
         <v>0.019</v>
       </c>
-      <c r="Q61" t="n">
+      <c r="R61" t="n">
         <v>0.012</v>
       </c>
-      <c r="R61" t="n">
-        <v>1</v>
-      </c>
       <c r="S61" t="n">
         <v>1</v>
       </c>
@@ -4871,6 +5055,9 @@
         <v>1</v>
       </c>
       <c r="V61" t="n">
+        <v>1</v>
+      </c>
+      <c r="W61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4879,10 +5066,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C62" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D62" t="b">
         <v>1</v>
@@ -4906,29 +5093,29 @@
         <v>1</v>
       </c>
       <c r="K62" t="b">
-        <v>0</v>
-      </c>
-      <c r="L62" t="s">
-        <v>85</v>
-      </c>
-      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" t="s">
+        <v>86</v>
+      </c>
+      <c r="N62" t="n">
         <v>0.006</v>
       </c>
-      <c r="N62" t="n">
+      <c r="O62" t="n">
         <v>0.004</v>
       </c>
-      <c r="O62" t="n">
+      <c r="P62" t="n">
         <v>0.005</v>
       </c>
-      <c r="P62" t="n">
+      <c r="Q62" t="n">
         <v>0.011</v>
       </c>
-      <c r="Q62" t="n">
+      <c r="R62" t="n">
         <v>0.01</v>
       </c>
-      <c r="R62" t="n">
-        <v>1</v>
-      </c>
       <c r="S62" t="n">
         <v>1</v>
       </c>
@@ -4939,6 +5126,9 @@
         <v>1</v>
       </c>
       <c r="V62" t="n">
+        <v>1</v>
+      </c>
+      <c r="W62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4947,10 +5137,10 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D63" t="b">
         <v>1</v>
@@ -4974,39 +5164,42 @@
         <v>1</v>
       </c>
       <c r="K63" t="b">
-        <v>0</v>
-      </c>
-      <c r="L63" t="s">
-        <v>77</v>
-      </c>
-      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" t="s">
+        <v>78</v>
+      </c>
+      <c r="N63" t="n">
         <v>0.163</v>
       </c>
-      <c r="N63" t="n">
+      <c r="O63" t="n">
         <v>0.16</v>
       </c>
-      <c r="O63" t="n">
+      <c r="P63" t="n">
         <v>0.156</v>
       </c>
-      <c r="P63" t="n">
-        <v>0.149</v>
-      </c>
       <c r="Q63" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="R63" t="n">
         <v>0.157</v>
       </c>
-      <c r="R63" t="n">
+      <c r="S63" t="n">
         <v>0.993</v>
       </c>
-      <c r="S63" t="n">
+      <c r="T63" t="n">
         <v>0.994</v>
       </c>
-      <c r="T63" t="n">
+      <c r="U63" t="n">
         <v>0.996</v>
       </c>
-      <c r="U63" t="n">
+      <c r="V63" t="n">
         <v>0.977</v>
       </c>
-      <c r="V63" t="n">
+      <c r="W63" t="n">
         <v>0.993</v>
       </c>
     </row>
@@ -5015,10 +5208,10 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C64" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D64" t="b">
         <v>1</v>
@@ -5042,39 +5235,42 @@
         <v>1</v>
       </c>
       <c r="K64" t="b">
-        <v>0</v>
-      </c>
-      <c r="L64" t="s">
-        <v>102</v>
-      </c>
-      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" t="s">
+        <v>103</v>
+      </c>
+      <c r="N64" t="n">
         <v>0.795</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0.79</v>
       </c>
       <c r="O64" t="n">
         <v>0.79</v>
       </c>
       <c r="P64" t="n">
-        <v>0.757</v>
+        <v>0.79</v>
       </c>
       <c r="Q64" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="R64" t="n">
         <v>0.771</v>
       </c>
-      <c r="R64" t="n">
+      <c r="S64" t="n">
         <v>0.917</v>
       </c>
-      <c r="S64" t="n">
+      <c r="T64" t="n">
         <v>0.916</v>
       </c>
-      <c r="T64" t="n">
+      <c r="U64" t="n">
         <v>0.908</v>
       </c>
-      <c r="U64" t="n">
+      <c r="V64" t="n">
         <v>0.878</v>
       </c>
-      <c r="V64" t="n">
+      <c r="W64" t="n">
         <v>0.902</v>
       </c>
     </row>
@@ -5083,10 +5279,10 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C65" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
@@ -5110,39 +5306,42 @@
         <v>1</v>
       </c>
       <c r="K65" t="b">
-        <v>0</v>
-      </c>
-      <c r="L65" t="s">
-        <v>77</v>
-      </c>
-      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" t="s">
+        <v>78</v>
+      </c>
+      <c r="N65" t="n">
         <v>0.821</v>
       </c>
-      <c r="N65" t="n">
+      <c r="O65" t="n">
         <v>0.837</v>
       </c>
-      <c r="O65" t="n">
+      <c r="P65" t="n">
         <v>0.86</v>
       </c>
-      <c r="P65" t="n">
+      <c r="Q65" t="n">
         <v>0.861</v>
       </c>
-      <c r="Q65" t="n">
+      <c r="R65" t="n">
         <v>0.865</v>
       </c>
-      <c r="R65" t="n">
+      <c r="S65" t="n">
         <v>0.994</v>
-      </c>
-      <c r="S65" t="n">
-        <v>0.995</v>
       </c>
       <c r="T65" t="n">
         <v>0.995</v>
       </c>
       <c r="U65" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="V65" t="n">
         <v>0.99</v>
       </c>
-      <c r="V65" t="n">
+      <c r="W65" t="n">
         <v>0.996</v>
       </c>
     </row>
@@ -5151,10 +5350,10 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C66" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D66" t="b">
         <v>1</v>
@@ -5178,19 +5377,19 @@
         <v>1</v>
       </c>
       <c r="K66" t="b">
-        <v>0</v>
-      </c>
-      <c r="L66" t="s">
-        <v>77</v>
-      </c>
-      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" t="s">
+        <v>78</v>
+      </c>
+      <c r="N66" t="n">
         <v>0.47</v>
       </c>
-      <c r="N66" t="n">
+      <c r="O66" t="n">
         <v>0.474</v>
-      </c>
-      <c r="O66" t="n">
-        <v>0.465</v>
       </c>
       <c r="P66" t="n">
         <v>0.465</v>
@@ -5199,18 +5398,21 @@
         <v>0.464</v>
       </c>
       <c r="R66" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="S66" t="n">
         <v>0.999</v>
       </c>
-      <c r="S66" t="n">
-        <v>1</v>
-      </c>
       <c r="T66" t="n">
         <v>1</v>
       </c>
       <c r="U66" t="n">
-        <v>0.989</v>
+        <v>1</v>
       </c>
       <c r="V66" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="W66" t="n">
         <v>0.998</v>
       </c>
     </row>
@@ -5219,10 +5421,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C67" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D67" t="b">
         <v>1</v>
@@ -5246,39 +5448,42 @@
         <v>1</v>
       </c>
       <c r="K67" t="b">
-        <v>0</v>
-      </c>
-      <c r="L67" t="s">
-        <v>77</v>
-      </c>
-      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" t="s">
+        <v>78</v>
+      </c>
+      <c r="N67" t="n">
         <v>0.272</v>
       </c>
-      <c r="N67" t="n">
+      <c r="O67" t="n">
         <v>0.278</v>
       </c>
-      <c r="O67" t="n">
+      <c r="P67" t="n">
         <v>0.358</v>
       </c>
-      <c r="P67" t="n">
-        <v>0.294</v>
-      </c>
       <c r="Q67" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="R67" t="n">
         <v>0.311</v>
       </c>
-      <c r="R67" t="n">
+      <c r="S67" t="n">
         <v>0.868</v>
       </c>
-      <c r="S67" t="n">
+      <c r="T67" t="n">
         <v>0.887</v>
       </c>
-      <c r="T67" t="n">
+      <c r="U67" t="n">
         <v>0.89</v>
       </c>
-      <c r="U67" t="n">
-        <v>0.854</v>
-      </c>
       <c r="V67" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="W67" t="n">
         <v>0.881</v>
       </c>
     </row>
@@ -5287,10 +5492,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C68" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D68" t="b">
         <v>1</v>
@@ -5314,28 +5519,28 @@
         <v>1</v>
       </c>
       <c r="K68" t="b">
-        <v>0</v>
-      </c>
-      <c r="L68" t="s">
-        <v>77</v>
-      </c>
-      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" t="s">
+        <v>78</v>
+      </c>
+      <c r="N68" t="n">
         <v>0.832</v>
       </c>
-      <c r="N68" t="n">
+      <c r="O68" t="n">
         <v>0.847</v>
       </c>
-      <c r="O68" t="n">
+      <c r="P68" t="n">
         <v>0.867</v>
       </c>
-      <c r="P68" t="n">
-        <v>0.865</v>
-      </c>
       <c r="Q68" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="R68" t="n">
         <v>0.87</v>
-      </c>
-      <c r="R68" t="n">
-        <v>0.998</v>
       </c>
       <c r="S68" t="n">
         <v>0.998</v>
@@ -5344,9 +5549,12 @@
         <v>0.998</v>
       </c>
       <c r="U68" t="n">
-        <v>0.991</v>
+        <v>0.998</v>
       </c>
       <c r="V68" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="W68" t="n">
         <v>0.997</v>
       </c>
     </row>
@@ -5355,10 +5563,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C69" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D69" t="b">
         <v>1</v>
@@ -5382,39 +5590,42 @@
         <v>1</v>
       </c>
       <c r="K69" t="b">
-        <v>0</v>
-      </c>
-      <c r="L69" t="s">
-        <v>77</v>
-      </c>
-      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" t="s">
+        <v>78</v>
+      </c>
+      <c r="N69" t="n">
         <v>0.377</v>
       </c>
-      <c r="N69" t="n">
+      <c r="O69" t="n">
         <v>0.355</v>
       </c>
-      <c r="O69" t="n">
+      <c r="P69" t="n">
         <v>0.354</v>
       </c>
-      <c r="P69" t="n">
-        <v>0.314</v>
-      </c>
       <c r="Q69" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="R69" t="n">
         <v>0.339</v>
       </c>
-      <c r="R69" t="n">
+      <c r="S69" t="n">
         <v>0.455</v>
       </c>
-      <c r="S69" t="n">
+      <c r="T69" t="n">
         <v>0.433</v>
       </c>
-      <c r="T69" t="n">
+      <c r="U69" t="n">
         <v>0.435</v>
       </c>
-      <c r="U69" t="n">
-        <v>0.399</v>
-      </c>
       <c r="V69" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="W69" t="n">
         <v>0.428</v>
       </c>
     </row>
@@ -5423,10 +5634,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C70" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D70" t="b">
         <v>1</v>
@@ -5447,42 +5658,45 @@
         <v>1</v>
       </c>
       <c r="J70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" t="b">
-        <v>1</v>
-      </c>
-      <c r="L70" t="s">
-        <v>77</v>
-      </c>
-      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="b">
+        <v>1</v>
+      </c>
+      <c r="M70" t="s">
+        <v>78</v>
+      </c>
+      <c r="N70" t="n">
         <v>0.574</v>
       </c>
-      <c r="N70" t="n">
+      <c r="O70" t="n">
         <v>0.593</v>
       </c>
-      <c r="O70" t="n">
+      <c r="P70" t="n">
         <v>0.595</v>
       </c>
-      <c r="P70" t="n">
-        <v>0.611</v>
-      </c>
       <c r="Q70" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="R70" t="n">
         <v>0.63</v>
       </c>
-      <c r="R70" t="n">
+      <c r="S70" t="n">
         <v>0.996</v>
-      </c>
-      <c r="S70" t="n">
-        <v>0.993</v>
       </c>
       <c r="T70" t="n">
         <v>0.993</v>
       </c>
       <c r="U70" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="V70" t="n">
         <v>0.992</v>
       </c>
-      <c r="V70" t="n">
+      <c r="W70" t="n">
         <v>0.993</v>
       </c>
     </row>
@@ -5491,10 +5705,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C71" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D71" t="b">
         <v>1</v>
@@ -5515,42 +5729,45 @@
         <v>1</v>
       </c>
       <c r="J71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" t="b">
-        <v>1</v>
-      </c>
-      <c r="L71" t="s">
-        <v>77</v>
-      </c>
-      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="b">
+        <v>1</v>
+      </c>
+      <c r="M71" t="s">
+        <v>78</v>
+      </c>
+      <c r="N71" t="n">
         <v>0.107</v>
       </c>
-      <c r="N71" t="n">
+      <c r="O71" t="n">
         <v>0.102</v>
       </c>
-      <c r="O71" t="n">
+      <c r="P71" t="n">
         <v>0.105</v>
       </c>
-      <c r="P71" t="n">
-        <v>0.086</v>
-      </c>
       <c r="Q71" t="n">
+        <v>0.084</v>
+      </c>
+      <c r="R71" t="n">
         <v>0.12</v>
       </c>
-      <c r="R71" t="n">
+      <c r="S71" t="n">
         <v>0.422</v>
       </c>
-      <c r="S71" t="n">
+      <c r="T71" t="n">
         <v>0.402</v>
       </c>
-      <c r="T71" t="n">
+      <c r="U71" t="n">
         <v>0.399</v>
       </c>
-      <c r="U71" t="n">
-        <v>0.383</v>
-      </c>
       <c r="V71" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="W71" t="n">
         <v>0.365</v>
       </c>
     </row>
@@ -5559,10 +5776,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C72" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D72" t="b">
         <v>0</v>
@@ -5583,16 +5800,16 @@
         <v>0</v>
       </c>
       <c r="J72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" t="b">
         <v>1</v>
       </c>
-      <c r="L72" t="s">
-        <v>102</v>
-      </c>
-      <c r="M72" t="e">
-        <v>#NUM!</v>
+      <c r="L72" t="b">
+        <v>1</v>
+      </c>
+      <c r="M72" t="s">
+        <v>103</v>
       </c>
       <c r="N72" t="e">
         <v>#NUM!</v>
@@ -5600,14 +5817,14 @@
       <c r="O72" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="P72" t="n">
+      <c r="P72" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q72" t="n">
         <v>0.547</v>
       </c>
-      <c r="Q72" t="n">
+      <c r="R72" t="n">
         <v>0.228</v>
-      </c>
-      <c r="R72" t="e">
-        <v>#NUM!</v>
       </c>
       <c r="S72" t="e">
         <v>#NUM!</v>
@@ -5615,10 +5832,13 @@
       <c r="T72" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U72" t="n">
+      <c r="U72" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="V72" t="n">
         <v>0.981</v>
       </c>
-      <c r="V72" t="n">
+      <c r="W72" t="n">
         <v>0.967</v>
       </c>
     </row>
@@ -5627,10 +5847,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C73" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D73" t="b">
         <v>1</v>
@@ -5654,39 +5874,42 @@
         <v>1</v>
       </c>
       <c r="K73" t="b">
-        <v>0</v>
-      </c>
-      <c r="L73" t="s">
-        <v>77</v>
-      </c>
-      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" t="s">
+        <v>78</v>
+      </c>
+      <c r="N73" t="n">
         <v>0.127</v>
       </c>
-      <c r="N73" t="n">
+      <c r="O73" t="n">
         <v>0.12</v>
       </c>
-      <c r="O73" t="n">
+      <c r="P73" t="n">
         <v>0.134</v>
       </c>
-      <c r="P73" t="n">
-        <v>0.128</v>
-      </c>
       <c r="Q73" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="R73" t="n">
         <v>0.105</v>
       </c>
-      <c r="R73" t="n">
+      <c r="S73" t="n">
         <v>0.281</v>
       </c>
-      <c r="S73" t="n">
+      <c r="T73" t="n">
         <v>0.28</v>
       </c>
-      <c r="T73" t="n">
+      <c r="U73" t="n">
         <v>0.285</v>
       </c>
-      <c r="U73" t="n">
-        <v>0.272</v>
-      </c>
       <c r="V73" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="W73" t="n">
         <v>0.256</v>
       </c>
     </row>
@@ -5695,10 +5918,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C74" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D74" t="b">
         <v>1</v>
@@ -5722,39 +5945,42 @@
         <v>1</v>
       </c>
       <c r="K74" t="b">
-        <v>0</v>
-      </c>
-      <c r="L74" t="s">
-        <v>77</v>
-      </c>
-      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" t="s">
+        <v>78</v>
+      </c>
+      <c r="N74" t="n">
         <v>0.282</v>
       </c>
-      <c r="N74" t="n">
+      <c r="O74" t="n">
         <v>0.281</v>
       </c>
-      <c r="O74" t="n">
+      <c r="P74" t="n">
         <v>0.287</v>
       </c>
-      <c r="P74" t="n">
-        <v>0.274</v>
-      </c>
       <c r="Q74" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="R74" t="n">
         <v>0.257</v>
       </c>
-      <c r="R74" t="n">
+      <c r="S74" t="n">
         <v>0.996</v>
       </c>
-      <c r="S74" t="n">
+      <c r="T74" t="n">
         <v>0.995</v>
       </c>
-      <c r="T74" t="n">
+      <c r="U74" t="n">
         <v>0.994</v>
       </c>
-      <c r="U74" t="n">
+      <c r="V74" t="n">
         <v>0.971</v>
       </c>
-      <c r="V74" t="n">
+      <c r="W74" t="n">
         <v>0.992</v>
       </c>
     </row>
@@ -5763,10 +5989,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C75" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D75" t="b">
         <v>1</v>
@@ -5790,39 +6016,42 @@
         <v>1</v>
       </c>
       <c r="K75" t="b">
-        <v>0</v>
-      </c>
-      <c r="L75" t="s">
-        <v>77</v>
-      </c>
-      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" t="s">
+        <v>78</v>
+      </c>
+      <c r="N75" t="n">
         <v>0.133</v>
       </c>
-      <c r="N75" t="n">
+      <c r="O75" t="n">
         <v>0.131</v>
       </c>
-      <c r="O75" t="n">
+      <c r="P75" t="n">
         <v>0.12</v>
       </c>
-      <c r="P75" t="n">
-        <v>0.112</v>
-      </c>
       <c r="Q75" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="R75" t="n">
         <v>0.096</v>
       </c>
-      <c r="R75" t="n">
+      <c r="S75" t="n">
         <v>0.281</v>
       </c>
-      <c r="S75" t="n">
+      <c r="T75" t="n">
         <v>0.279</v>
       </c>
-      <c r="T75" t="n">
+      <c r="U75" t="n">
         <v>0.285</v>
       </c>
-      <c r="U75" t="n">
-        <v>0.271</v>
-      </c>
       <c r="V75" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="W75" t="n">
         <v>0.257</v>
       </c>
     </row>
@@ -5831,10 +6060,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C76" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D76" t="b">
         <v>1</v>
@@ -5858,39 +6087,42 @@
         <v>1</v>
       </c>
       <c r="K76" t="b">
-        <v>0</v>
-      </c>
-      <c r="L76" t="s">
-        <v>102</v>
-      </c>
-      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76" t="s">
+        <v>103</v>
+      </c>
+      <c r="N76" t="n">
         <v>0.693</v>
       </c>
-      <c r="N76" t="n">
+      <c r="O76" t="n">
         <v>0.694</v>
       </c>
-      <c r="O76" t="n">
+      <c r="P76" t="n">
         <v>0.717</v>
       </c>
-      <c r="P76" t="n">
-        <v>0.748</v>
-      </c>
       <c r="Q76" t="n">
+        <v>0.746</v>
+      </c>
+      <c r="R76" t="n">
         <v>0.737</v>
       </c>
-      <c r="R76" t="n">
+      <c r="S76" t="n">
         <v>0.992</v>
       </c>
-      <c r="S76" t="n">
+      <c r="T76" t="n">
         <v>0.989</v>
-      </c>
-      <c r="T76" t="n">
-        <v>0.988</v>
       </c>
       <c r="U76" t="n">
         <v>0.988</v>
       </c>
       <c r="V76" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="W76" t="n">
         <v>0.991</v>
       </c>
     </row>
@@ -5899,10 +6131,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C77" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D77" t="b">
         <v>1</v>
@@ -5926,39 +6158,42 @@
         <v>1</v>
       </c>
       <c r="K77" t="b">
-        <v>0</v>
-      </c>
-      <c r="L77" t="s">
-        <v>77</v>
-      </c>
-      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" t="s">
+        <v>78</v>
+      </c>
+      <c r="N77" t="n">
         <v>0.057</v>
       </c>
-      <c r="N77" t="n">
+      <c r="O77" t="n">
         <v>0.054</v>
       </c>
-      <c r="O77" t="n">
+      <c r="P77" t="n">
         <v>0.065</v>
       </c>
-      <c r="P77" t="n">
-        <v>0.057</v>
-      </c>
       <c r="Q77" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="R77" t="n">
         <v>0.061</v>
       </c>
-      <c r="R77" t="n">
+      <c r="S77" t="n">
         <v>0.918</v>
       </c>
-      <c r="S77" t="n">
+      <c r="T77" t="n">
         <v>0.917</v>
       </c>
-      <c r="T77" t="n">
+      <c r="U77" t="n">
         <v>0.914</v>
       </c>
-      <c r="U77" t="n">
-        <v>0.878</v>
-      </c>
       <c r="V77" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="W77" t="n">
         <v>0.904</v>
       </c>
     </row>

--- a/tables/variables-2.xlsx
+++ b/tables/variables-2.xlsx
@@ -854,7 +854,7 @@
         <v>12.702</v>
       </c>
       <c r="R2" t="n">
-        <v>13.034</v>
+        <v>12.936</v>
       </c>
       <c r="S2" t="n">
         <v>0.991</v>
@@ -869,7 +869,7 @@
         <v>0.956</v>
       </c>
       <c r="W2" t="n">
-        <v>0.983</v>
+        <v>0.979</v>
       </c>
     </row>
     <row r="3">
@@ -925,7 +925,7 @@
         <v>0.424</v>
       </c>
       <c r="R3" t="n">
-        <v>0.307</v>
+        <v>0.306</v>
       </c>
       <c r="S3" t="n">
         <v>0.103</v>
@@ -940,7 +940,7 @@
         <v>0.096</v>
       </c>
       <c r="W3" t="n">
-        <v>0.115</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="4">
@@ -996,7 +996,7 @@
         <v>2.593</v>
       </c>
       <c r="R4" t="n">
-        <v>2.513</v>
+        <v>2.527</v>
       </c>
       <c r="S4" t="n">
         <v>0.997</v>
@@ -1011,7 +1011,7 @@
         <v>0.988</v>
       </c>
       <c r="W4" t="n">
-        <v>0.993</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="5">
@@ -1067,7 +1067,7 @@
         <v>5.141</v>
       </c>
       <c r="R5" t="n">
-        <v>4.607</v>
+        <v>4.339</v>
       </c>
       <c r="S5" t="n">
         <v>0.268</v>
@@ -1082,7 +1082,7 @@
         <v>0.247</v>
       </c>
       <c r="W5" t="n">
-        <v>0.264</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6">
@@ -1138,7 +1138,7 @@
         <v>604.106</v>
       </c>
       <c r="R6" t="n">
-        <v>653.63</v>
+        <v>645.414</v>
       </c>
       <c r="S6" t="n">
         <v>0.355</v>
@@ -1153,7 +1153,7 @@
         <v>0.3</v>
       </c>
       <c r="W6" t="n">
-        <v>0.325</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="7">
@@ -1209,7 +1209,7 @@
         <v>84.575</v>
       </c>
       <c r="R7" t="n">
-        <v>29.797</v>
+        <v>29.765</v>
       </c>
       <c r="S7" t="n">
         <v>0.848</v>
@@ -1224,7 +1224,7 @@
         <v>0.823</v>
       </c>
       <c r="W7" t="n">
-        <v>0.8</v>
+        <v>0.791</v>
       </c>
     </row>
     <row r="8">
@@ -1280,7 +1280,7 @@
         <v>31.83</v>
       </c>
       <c r="R8" t="n">
-        <v>34.086</v>
+        <v>33.756</v>
       </c>
       <c r="S8" t="n">
         <v>0.872</v>
@@ -1295,7 +1295,7 @@
         <v>0.812</v>
       </c>
       <c r="W8" t="n">
-        <v>0.862</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="9">
@@ -1351,7 +1351,7 @@
         <v>13.073</v>
       </c>
       <c r="R9" t="n">
-        <v>12.606</v>
+        <v>12.457</v>
       </c>
       <c r="S9" t="n">
         <v>0.347</v>
@@ -1366,7 +1366,7 @@
         <v>0.33</v>
       </c>
       <c r="W9" t="n">
-        <v>0.33</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="10">
@@ -1422,7 +1422,7 @@
         <v>1927.802</v>
       </c>
       <c r="R10" t="n">
-        <v>1953.205</v>
+        <v>1952.056</v>
       </c>
       <c r="S10" t="n">
         <v>0.998</v>
@@ -1437,7 +1437,7 @@
         <v>0.978</v>
       </c>
       <c r="W10" t="n">
-        <v>0.991</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="11">
@@ -1493,7 +1493,7 @@
         <v>1.981</v>
       </c>
       <c r="R11" t="n">
-        <v>1.877</v>
+        <v>1.911</v>
       </c>
       <c r="S11" t="n">
         <v>0.99</v>
@@ -1508,7 +1508,7 @@
         <v>0.99</v>
       </c>
       <c r="W11" t="n">
-        <v>0.992</v>
+        <v>0.991</v>
       </c>
     </row>
     <row r="12">
@@ -1564,7 +1564,7 @@
         <v>5.201</v>
       </c>
       <c r="R12" t="n">
-        <v>4.942</v>
+        <v>4.928</v>
       </c>
       <c r="S12" t="n">
         <v>0.912</v>
@@ -1579,7 +1579,7 @@
         <v>0.94</v>
       </c>
       <c r="W12" t="n">
-        <v>0.934</v>
+        <v>0.928</v>
       </c>
     </row>
     <row r="13">
@@ -1635,7 +1635,7 @@
         <v>2.037</v>
       </c>
       <c r="R13" t="n">
-        <v>1.94</v>
+        <v>2.046</v>
       </c>
       <c r="S13" t="n">
         <v>0.971</v>
@@ -1650,7 +1650,7 @@
         <v>0.979</v>
       </c>
       <c r="W13" t="n">
-        <v>0.981</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="14">
@@ -1706,7 +1706,7 @@
         <v>2.088</v>
       </c>
       <c r="R14" t="n">
-        <v>2.068</v>
+        <v>2.05</v>
       </c>
       <c r="S14" t="n">
         <v>0.982</v>
@@ -1721,7 +1721,7 @@
         <v>0.984</v>
       </c>
       <c r="W14" t="n">
-        <v>0.983</v>
+        <v>0.982</v>
       </c>
     </row>
     <row r="15">
@@ -1777,7 +1777,7 @@
         <v>7.069</v>
       </c>
       <c r="R15" t="n">
-        <v>7.438</v>
+        <v>7.336</v>
       </c>
       <c r="S15" t="n">
         <v>0.996</v>
@@ -1848,7 +1848,7 @@
         <v>2.195</v>
       </c>
       <c r="R16" t="n">
-        <v>2.146</v>
+        <v>2.15</v>
       </c>
       <c r="S16" t="n">
         <v>0.999</v>
@@ -1919,7 +1919,7 @@
         <v>5.243</v>
       </c>
       <c r="R17" t="n">
-        <v>5.249</v>
+        <v>5.124</v>
       </c>
       <c r="S17" t="n">
         <v>0.965</v>
@@ -1934,7 +1934,7 @@
         <v>0.971</v>
       </c>
       <c r="W17" t="n">
-        <v>0.972</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="18">
@@ -1990,7 +1990,7 @@
         <v>5.406</v>
       </c>
       <c r="R18" t="n">
-        <v>5.277</v>
+        <v>5.18</v>
       </c>
       <c r="S18" t="n">
         <v>0.966</v>
@@ -2005,7 +2005,7 @@
         <v>0.972</v>
       </c>
       <c r="W18" t="n">
-        <v>0.975</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="19">
@@ -2061,7 +2061,7 @@
         <v>4.996</v>
       </c>
       <c r="R19" t="n">
-        <v>4.934</v>
+        <v>4.839</v>
       </c>
       <c r="S19" t="n">
         <v>0.962</v>
@@ -2076,7 +2076,7 @@
         <v>0.967</v>
       </c>
       <c r="W19" t="n">
-        <v>0.972</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="20">
@@ -2132,7 +2132,7 @@
         <v>3.877</v>
       </c>
       <c r="R20" t="n">
-        <v>3.966</v>
+        <v>3.86</v>
       </c>
       <c r="S20" t="n">
         <v>0.906</v>
@@ -2147,7 +2147,7 @@
         <v>0.869</v>
       </c>
       <c r="W20" t="n">
-        <v>0.895</v>
+        <v>0.887</v>
       </c>
     </row>
     <row r="21">
@@ -2203,7 +2203,7 @@
         <v>4.419</v>
       </c>
       <c r="R21" t="n">
-        <v>4.443</v>
+        <v>4.417</v>
       </c>
       <c r="S21" t="n">
         <v>0.892</v>
@@ -2218,7 +2218,7 @@
         <v>0.881</v>
       </c>
       <c r="W21" t="n">
-        <v>0.88</v>
+        <v>0.871</v>
       </c>
     </row>
     <row r="22">
@@ -2274,7 +2274,7 @@
         <v>2.599</v>
       </c>
       <c r="R22" t="n">
-        <v>2.629</v>
+        <v>2.652</v>
       </c>
       <c r="S22" t="n">
         <v>0.997</v>
@@ -2345,7 +2345,7 @@
         <v>5.446</v>
       </c>
       <c r="R23" t="n">
-        <v>5.672</v>
+        <v>5.561</v>
       </c>
       <c r="S23" t="n">
         <v>0.993</v>
@@ -2416,7 +2416,7 @@
         <v>4.781</v>
       </c>
       <c r="R24" t="n">
-        <v>5.075</v>
+        <v>4.975</v>
       </c>
       <c r="S24" t="n">
         <v>0.996</v>
@@ -2431,7 +2431,7 @@
         <v>0.995</v>
       </c>
       <c r="W24" t="n">
-        <v>0.997</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="25">
@@ -2487,7 +2487,7 @@
         <v>4.724</v>
       </c>
       <c r="R25" t="n">
-        <v>5.123</v>
+        <v>4.995</v>
       </c>
       <c r="S25" t="n">
         <v>0.998</v>
@@ -2558,7 +2558,7 @@
         <v>4.403</v>
       </c>
       <c r="R26" t="n">
-        <v>4.676</v>
+        <v>4.641</v>
       </c>
       <c r="S26" t="n">
         <v>0.993</v>
@@ -2629,7 +2629,7 @@
         <v>5.087</v>
       </c>
       <c r="R27" t="n">
-        <v>5.027</v>
+        <v>4.87</v>
       </c>
       <c r="S27" t="n">
         <v>0.971</v>
@@ -2644,7 +2644,7 @@
         <v>0.978</v>
       </c>
       <c r="W27" t="n">
-        <v>0.969</v>
+        <v>0.968</v>
       </c>
     </row>
     <row r="28">
@@ -2700,7 +2700,7 @@
         <v>4.683</v>
       </c>
       <c r="R28" t="n">
-        <v>4.457</v>
+        <v>4.36</v>
       </c>
       <c r="S28" t="n">
         <v>0.984</v>
@@ -2771,7 +2771,7 @@
         <v>4.945</v>
       </c>
       <c r="R29" t="n">
-        <v>5.114</v>
+        <v>4.986</v>
       </c>
       <c r="S29" t="n">
         <v>0.958</v>
@@ -2786,7 +2786,7 @@
         <v>0.963</v>
       </c>
       <c r="W29" t="n">
-        <v>0.959</v>
+        <v>0.958</v>
       </c>
     </row>
     <row r="30">
@@ -2842,7 +2842,7 @@
         <v>4.21</v>
       </c>
       <c r="R30" t="n">
-        <v>4.013</v>
+        <v>3.933</v>
       </c>
       <c r="S30" t="n">
         <v>0.971</v>
@@ -2913,7 +2913,7 @@
         <v>5.383</v>
       </c>
       <c r="R31" t="n">
-        <v>5.126</v>
+        <v>5.05</v>
       </c>
       <c r="S31" t="n">
         <v>0.993</v>
@@ -2984,7 +2984,7 @@
         <v>6.877</v>
       </c>
       <c r="R32" t="n">
-        <v>7.145</v>
+        <v>7.043</v>
       </c>
       <c r="S32" t="n">
         <v>0.997</v>
@@ -3055,7 +3055,7 @@
         <v>4.263</v>
       </c>
       <c r="R33" t="n">
-        <v>4.268</v>
+        <v>4.244</v>
       </c>
       <c r="S33" t="n">
         <v>0.918</v>
@@ -3070,7 +3070,7 @@
         <v>0.95</v>
       </c>
       <c r="W33" t="n">
-        <v>0.942</v>
+        <v>0.937</v>
       </c>
     </row>
     <row r="34">
@@ -3126,7 +3126,7 @@
         <v>5.073</v>
       </c>
       <c r="R34" t="n">
-        <v>5.439</v>
+        <v>5.257</v>
       </c>
       <c r="S34" t="n">
         <v>0.981</v>
@@ -3141,7 +3141,7 @@
         <v>0.983</v>
       </c>
       <c r="W34" t="n">
-        <v>0.982</v>
+        <v>0.979</v>
       </c>
     </row>
     <row r="35">
@@ -3197,7 +3197,7 @@
         <v>6.109</v>
       </c>
       <c r="R35" t="n">
-        <v>6.492</v>
+        <v>6.31</v>
       </c>
       <c r="S35" t="n">
         <v>0.993</v>
@@ -3212,7 +3212,7 @@
         <v>0.991</v>
       </c>
       <c r="W35" t="n">
-        <v>0.991</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="36">
@@ -3268,7 +3268,7 @@
         <v>3.379</v>
       </c>
       <c r="R36" t="n">
-        <v>3.625</v>
+        <v>3.518</v>
       </c>
       <c r="S36" t="n">
         <v>0.987</v>
@@ -3339,7 +3339,7 @@
         <v>4.358</v>
       </c>
       <c r="R37" t="n">
-        <v>4.483</v>
+        <v>4.32</v>
       </c>
       <c r="S37" t="n">
         <v>0.98</v>
@@ -3354,7 +3354,7 @@
         <v>0.982</v>
       </c>
       <c r="W37" t="n">
-        <v>0.981</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="38">
@@ -3410,7 +3410,7 @@
         <v>3.356</v>
       </c>
       <c r="R38" t="n">
-        <v>3.593</v>
+        <v>3.495</v>
       </c>
       <c r="S38" t="n">
         <v>0.982</v>
@@ -3481,7 +3481,7 @@
         <v>4.642</v>
       </c>
       <c r="R39" t="n">
-        <v>4.737</v>
+        <v>4.627</v>
       </c>
       <c r="S39" t="n">
         <v>0.92</v>
@@ -3496,7 +3496,7 @@
         <v>0.94</v>
       </c>
       <c r="W39" t="n">
-        <v>0.935</v>
+        <v>0.929</v>
       </c>
     </row>
     <row r="40">
@@ -3552,7 +3552,7 @@
         <v>5.394</v>
       </c>
       <c r="R40" t="n">
-        <v>5.663</v>
+        <v>5.485</v>
       </c>
       <c r="S40" t="n">
         <v>0.911</v>
@@ -3567,7 +3567,7 @@
         <v>0.873</v>
       </c>
       <c r="W40" t="n">
-        <v>0.899</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="41">
@@ -3623,7 +3623,7 @@
         <v>0.269</v>
       </c>
       <c r="R41" t="n">
-        <v>0.27</v>
+        <v>0.255</v>
       </c>
       <c r="S41" t="n">
         <v>0.994</v>
@@ -3638,7 +3638,7 @@
         <v>0.972</v>
       </c>
       <c r="W41" t="n">
-        <v>0.994</v>
+        <v>0.991</v>
       </c>
     </row>
     <row r="42">
@@ -3694,7 +3694,7 @@
         <v>0.908</v>
       </c>
       <c r="R42" t="n">
-        <v>0.901</v>
+        <v>0.907</v>
       </c>
       <c r="S42" t="n">
         <v>1</v>
@@ -3780,7 +3780,7 @@
         <v>0.645</v>
       </c>
       <c r="W43" t="n">
-        <v>0.674</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="44">
@@ -3836,7 +3836,7 @@
         <v>0.445</v>
       </c>
       <c r="R44" t="n">
-        <v>0.443</v>
+        <v>0.437</v>
       </c>
       <c r="S44" t="n">
         <v>0.979</v>
@@ -3851,7 +3851,7 @@
         <v>0.974</v>
       </c>
       <c r="W44" t="n">
-        <v>0.977</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="45">
@@ -3907,7 +3907,7 @@
         <v>0.107</v>
       </c>
       <c r="R45" t="n">
-        <v>0.11</v>
+        <v>0.105</v>
       </c>
       <c r="S45" t="n">
         <v>0.997</v>
@@ -3922,7 +3922,7 @@
         <v>0.992</v>
       </c>
       <c r="W45" t="n">
-        <v>0.997</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="46">
@@ -3993,7 +3993,7 @@
         <v>0.441</v>
       </c>
       <c r="W46" t="n">
-        <v>0.456</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="47">
@@ -4049,7 +4049,7 @@
         <v>0.948</v>
       </c>
       <c r="R47" t="n">
-        <v>0.946</v>
+        <v>0.95</v>
       </c>
       <c r="S47" t="n">
         <v>0.999</v>
@@ -4120,7 +4120,7 @@
         <v>0.014</v>
       </c>
       <c r="R48" t="n">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="S48" t="n">
         <v>1</v>
@@ -4262,7 +4262,7 @@
         <v>0.009</v>
       </c>
       <c r="R50" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="S50" t="n">
         <v>1</v>
@@ -4333,7 +4333,7 @@
         <v>0.012</v>
       </c>
       <c r="R51" t="n">
-        <v>0.009</v>
+        <v>0.012</v>
       </c>
       <c r="S51" t="n">
         <v>1</v>
@@ -4475,7 +4475,7 @@
         <v>0.095</v>
       </c>
       <c r="R53" t="n">
-        <v>0.078</v>
+        <v>0.086</v>
       </c>
       <c r="S53" t="n">
         <v>0.991</v>
@@ -4490,7 +4490,7 @@
         <v>0.983</v>
       </c>
       <c r="W53" t="n">
-        <v>0.992</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="54">
@@ -4546,7 +4546,7 @@
         <v>0.014</v>
       </c>
       <c r="R54" t="n">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
       <c r="S54" t="n">
         <v>1</v>
@@ -4617,7 +4617,7 @@
         <v>0.002</v>
       </c>
       <c r="R55" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="S55" t="n">
         <v>1</v>
@@ -4688,7 +4688,7 @@
         <v>0.903</v>
       </c>
       <c r="R56" t="n">
-        <v>0.92</v>
+        <v>0.913</v>
       </c>
       <c r="S56" t="n">
         <v>1</v>
@@ -4759,7 +4759,7 @@
         <v>0.022</v>
       </c>
       <c r="R57" t="n">
-        <v>0.014</v>
+        <v>0.019</v>
       </c>
       <c r="S57" t="n">
         <v>1</v>
@@ -4972,7 +4972,7 @@
         <v>0.001</v>
       </c>
       <c r="R60" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="S60" t="n">
         <v>1</v>
@@ -5043,7 +5043,7 @@
         <v>0.019</v>
       </c>
       <c r="R61" t="n">
-        <v>0.012</v>
+        <v>0.016</v>
       </c>
       <c r="S61" t="n">
         <v>1</v>
@@ -5114,7 +5114,7 @@
         <v>0.011</v>
       </c>
       <c r="R62" t="n">
-        <v>0.01</v>
+        <v>0.009</v>
       </c>
       <c r="S62" t="n">
         <v>1</v>
@@ -5256,7 +5256,7 @@
         <v>0.76</v>
       </c>
       <c r="R64" t="n">
-        <v>0.771</v>
+        <v>0.766</v>
       </c>
       <c r="S64" t="n">
         <v>0.917</v>
@@ -5271,7 +5271,7 @@
         <v>0.878</v>
       </c>
       <c r="W64" t="n">
-        <v>0.902</v>
+        <v>0.893</v>
       </c>
     </row>
     <row r="65">
@@ -5327,7 +5327,7 @@
         <v>0.861</v>
       </c>
       <c r="R65" t="n">
-        <v>0.865</v>
+        <v>0.867</v>
       </c>
       <c r="S65" t="n">
         <v>0.994</v>
@@ -5342,7 +5342,7 @@
         <v>0.99</v>
       </c>
       <c r="W65" t="n">
-        <v>0.996</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="66">
@@ -5398,7 +5398,7 @@
         <v>0.464</v>
       </c>
       <c r="R66" t="n">
-        <v>0.464</v>
+        <v>0.465</v>
       </c>
       <c r="S66" t="n">
         <v>0.999</v>
@@ -5469,7 +5469,7 @@
         <v>0.293</v>
       </c>
       <c r="R67" t="n">
-        <v>0.311</v>
+        <v>0.295</v>
       </c>
       <c r="S67" t="n">
         <v>0.868</v>
@@ -5484,7 +5484,7 @@
         <v>0.856</v>
       </c>
       <c r="W67" t="n">
-        <v>0.881</v>
+        <v>0.864</v>
       </c>
     </row>
     <row r="68">
@@ -5611,7 +5611,7 @@
         <v>0.317</v>
       </c>
       <c r="R69" t="n">
-        <v>0.339</v>
+        <v>0.338</v>
       </c>
       <c r="S69" t="n">
         <v>0.455</v>
@@ -5626,7 +5626,7 @@
         <v>0.402</v>
       </c>
       <c r="W69" t="n">
-        <v>0.428</v>
+        <v>0.433</v>
       </c>
     </row>
     <row r="70">
@@ -5682,7 +5682,7 @@
         <v>0.613</v>
       </c>
       <c r="R70" t="n">
-        <v>0.63</v>
+        <v>0.641</v>
       </c>
       <c r="S70" t="n">
         <v>0.996</v>
@@ -5753,7 +5753,7 @@
         <v>0.084</v>
       </c>
       <c r="R71" t="n">
-        <v>0.12</v>
+        <v>0.108</v>
       </c>
       <c r="S71" t="n">
         <v>0.422</v>
@@ -5768,7 +5768,7 @@
         <v>0.38</v>
       </c>
       <c r="W71" t="n">
-        <v>0.365</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="72">
@@ -5895,7 +5895,7 @@
         <v>0.129</v>
       </c>
       <c r="R73" t="n">
-        <v>0.105</v>
+        <v>0.108</v>
       </c>
       <c r="S73" t="n">
         <v>0.281</v>
@@ -5910,7 +5910,7 @@
         <v>0.274</v>
       </c>
       <c r="W73" t="n">
-        <v>0.256</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="74">
@@ -5966,7 +5966,7 @@
         <v>0.276</v>
       </c>
       <c r="R74" t="n">
-        <v>0.257</v>
+        <v>0.262</v>
       </c>
       <c r="S74" t="n">
         <v>0.996</v>
@@ -5981,7 +5981,7 @@
         <v>0.971</v>
       </c>
       <c r="W74" t="n">
-        <v>0.992</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="75">
@@ -6037,7 +6037,7 @@
         <v>0.113</v>
       </c>
       <c r="R75" t="n">
-        <v>0.096</v>
+        <v>0.1</v>
       </c>
       <c r="S75" t="n">
         <v>0.281</v>
@@ -6052,7 +6052,7 @@
         <v>0.273</v>
       </c>
       <c r="W75" t="n">
-        <v>0.257</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="76">
@@ -6108,7 +6108,7 @@
         <v>0.746</v>
       </c>
       <c r="R76" t="n">
-        <v>0.737</v>
+        <v>0.731</v>
       </c>
       <c r="S76" t="n">
         <v>0.992</v>
@@ -6123,7 +6123,7 @@
         <v>0.987</v>
       </c>
       <c r="W76" t="n">
-        <v>0.991</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="77">
@@ -6179,7 +6179,7 @@
         <v>0.058</v>
       </c>
       <c r="R77" t="n">
-        <v>0.061</v>
+        <v>0.062</v>
       </c>
       <c r="S77" t="n">
         <v>0.918</v>
@@ -6194,7 +6194,7 @@
         <v>0.879</v>
       </c>
       <c r="W77" t="n">
-        <v>0.904</v>
+        <v>0.896</v>
       </c>
     </row>
   </sheetData>

--- a/tables/variables-2.xlsx
+++ b/tables/variables-2.xlsx
@@ -925,7 +925,7 @@
         <v>0.424</v>
       </c>
       <c r="R3" t="n">
-        <v>0.306</v>
+        <v>0.299</v>
       </c>
       <c r="S3" t="n">
         <v>0.103</v>
@@ -940,7 +940,7 @@
         <v>0.096</v>
       </c>
       <c r="W3" t="n">
-        <v>0.108</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="4">
@@ -996,7 +996,7 @@
         <v>2.593</v>
       </c>
       <c r="R4" t="n">
-        <v>2.527</v>
+        <v>2.514</v>
       </c>
       <c r="S4" t="n">
         <v>0.997</v>
@@ -1067,7 +1067,7 @@
         <v>5.141</v>
       </c>
       <c r="R5" t="n">
-        <v>4.339</v>
+        <v>4.45</v>
       </c>
       <c r="S5" t="n">
         <v>0.268</v>
@@ -1138,7 +1138,7 @@
         <v>604.106</v>
       </c>
       <c r="R6" t="n">
-        <v>645.414</v>
+        <v>649.244</v>
       </c>
       <c r="S6" t="n">
         <v>0.355</v>
@@ -1153,7 +1153,7 @@
         <v>0.3</v>
       </c>
       <c r="W6" t="n">
-        <v>0.321</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="7">
@@ -1209,7 +1209,7 @@
         <v>84.575</v>
       </c>
       <c r="R7" t="n">
-        <v>29.765</v>
+        <v>30.239</v>
       </c>
       <c r="S7" t="n">
         <v>0.848</v>
@@ -1224,7 +1224,7 @@
         <v>0.823</v>
       </c>
       <c r="W7" t="n">
-        <v>0.791</v>
+        <v>0.792</v>
       </c>
     </row>
     <row r="8">
@@ -1280,7 +1280,7 @@
         <v>31.83</v>
       </c>
       <c r="R8" t="n">
-        <v>33.756</v>
+        <v>33.991</v>
       </c>
       <c r="S8" t="n">
         <v>0.872</v>
@@ -1295,7 +1295,7 @@
         <v>0.812</v>
       </c>
       <c r="W8" t="n">
-        <v>0.85</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="9">
@@ -1351,7 +1351,7 @@
         <v>13.073</v>
       </c>
       <c r="R9" t="n">
-        <v>12.457</v>
+        <v>12.411</v>
       </c>
       <c r="S9" t="n">
         <v>0.347</v>
@@ -1366,7 +1366,7 @@
         <v>0.33</v>
       </c>
       <c r="W9" t="n">
-        <v>0.321</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="10">
@@ -1422,7 +1422,7 @@
         <v>1927.802</v>
       </c>
       <c r="R10" t="n">
-        <v>1952.056</v>
+        <v>1952.278</v>
       </c>
       <c r="S10" t="n">
         <v>0.998</v>
@@ -1493,7 +1493,7 @@
         <v>1.981</v>
       </c>
       <c r="R11" t="n">
-        <v>1.911</v>
+        <v>1.908</v>
       </c>
       <c r="S11" t="n">
         <v>0.99</v>
@@ -1508,7 +1508,7 @@
         <v>0.99</v>
       </c>
       <c r="W11" t="n">
-        <v>0.991</v>
+        <v>0.989</v>
       </c>
     </row>
     <row r="12">
@@ -1564,7 +1564,7 @@
         <v>5.201</v>
       </c>
       <c r="R12" t="n">
-        <v>4.928</v>
+        <v>4.983</v>
       </c>
       <c r="S12" t="n">
         <v>0.912</v>
@@ -1579,7 +1579,7 @@
         <v>0.94</v>
       </c>
       <c r="W12" t="n">
-        <v>0.928</v>
+        <v>0.926</v>
       </c>
     </row>
     <row r="13">
@@ -1635,7 +1635,7 @@
         <v>2.037</v>
       </c>
       <c r="R13" t="n">
-        <v>2.046</v>
+        <v>2.089</v>
       </c>
       <c r="S13" t="n">
         <v>0.971</v>
@@ -1650,7 +1650,7 @@
         <v>0.979</v>
       </c>
       <c r="W13" t="n">
-        <v>0.976</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="14">
@@ -1706,7 +1706,7 @@
         <v>2.088</v>
       </c>
       <c r="R14" t="n">
-        <v>2.05</v>
+        <v>2.057</v>
       </c>
       <c r="S14" t="n">
         <v>0.982</v>
@@ -1721,7 +1721,7 @@
         <v>0.984</v>
       </c>
       <c r="W14" t="n">
-        <v>0.982</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="15">
@@ -1777,7 +1777,7 @@
         <v>7.069</v>
       </c>
       <c r="R15" t="n">
-        <v>7.336</v>
+        <v>7.268</v>
       </c>
       <c r="S15" t="n">
         <v>0.996</v>
@@ -1792,7 +1792,7 @@
         <v>0.994</v>
       </c>
       <c r="W15" t="n">
-        <v>0.996</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="16">
@@ -1848,7 +1848,7 @@
         <v>2.195</v>
       </c>
       <c r="R16" t="n">
-        <v>2.15</v>
+        <v>2.186</v>
       </c>
       <c r="S16" t="n">
         <v>0.999</v>
@@ -1919,7 +1919,7 @@
         <v>5.243</v>
       </c>
       <c r="R17" t="n">
-        <v>5.124</v>
+        <v>5.143</v>
       </c>
       <c r="S17" t="n">
         <v>0.965</v>
@@ -1934,7 +1934,7 @@
         <v>0.971</v>
       </c>
       <c r="W17" t="n">
-        <v>0.97</v>
+        <v>0.967</v>
       </c>
     </row>
     <row r="18">
@@ -1990,7 +1990,7 @@
         <v>5.406</v>
       </c>
       <c r="R18" t="n">
-        <v>5.18</v>
+        <v>5.162</v>
       </c>
       <c r="S18" t="n">
         <v>0.966</v>
@@ -2005,7 +2005,7 @@
         <v>0.972</v>
       </c>
       <c r="W18" t="n">
-        <v>0.972</v>
+        <v>0.969</v>
       </c>
     </row>
     <row r="19">
@@ -2061,7 +2061,7 @@
         <v>4.996</v>
       </c>
       <c r="R19" t="n">
-        <v>4.839</v>
+        <v>4.825</v>
       </c>
       <c r="S19" t="n">
         <v>0.962</v>
@@ -2076,7 +2076,7 @@
         <v>0.967</v>
       </c>
       <c r="W19" t="n">
-        <v>0.97</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="20">
@@ -2132,7 +2132,7 @@
         <v>3.877</v>
       </c>
       <c r="R20" t="n">
-        <v>3.86</v>
+        <v>3.849</v>
       </c>
       <c r="S20" t="n">
         <v>0.906</v>
@@ -2147,7 +2147,7 @@
         <v>0.869</v>
       </c>
       <c r="W20" t="n">
-        <v>0.887</v>
+        <v>0.888</v>
       </c>
     </row>
     <row r="21">
@@ -2203,7 +2203,7 @@
         <v>4.419</v>
       </c>
       <c r="R21" t="n">
-        <v>4.417</v>
+        <v>4.344</v>
       </c>
       <c r="S21" t="n">
         <v>0.892</v>
@@ -2218,7 +2218,7 @@
         <v>0.881</v>
       </c>
       <c r="W21" t="n">
-        <v>0.871</v>
+        <v>0.853</v>
       </c>
     </row>
     <row r="22">
@@ -2274,7 +2274,7 @@
         <v>2.599</v>
       </c>
       <c r="R22" t="n">
-        <v>2.652</v>
+        <v>2.654</v>
       </c>
       <c r="S22" t="n">
         <v>0.997</v>
@@ -2345,7 +2345,7 @@
         <v>5.446</v>
       </c>
       <c r="R23" t="n">
-        <v>5.561</v>
+        <v>5.53</v>
       </c>
       <c r="S23" t="n">
         <v>0.993</v>
@@ -2360,7 +2360,7 @@
         <v>0.993</v>
       </c>
       <c r="W23" t="n">
-        <v>0.994</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="24">
@@ -2416,7 +2416,7 @@
         <v>4.781</v>
       </c>
       <c r="R24" t="n">
-        <v>4.975</v>
+        <v>4.936</v>
       </c>
       <c r="S24" t="n">
         <v>0.996</v>
@@ -2487,7 +2487,7 @@
         <v>4.724</v>
       </c>
       <c r="R25" t="n">
-        <v>4.995</v>
+        <v>4.948</v>
       </c>
       <c r="S25" t="n">
         <v>0.998</v>
@@ -2558,7 +2558,7 @@
         <v>4.403</v>
       </c>
       <c r="R26" t="n">
-        <v>4.641</v>
+        <v>4.636</v>
       </c>
       <c r="S26" t="n">
         <v>0.993</v>
@@ -2573,7 +2573,7 @@
         <v>0.985</v>
       </c>
       <c r="W26" t="n">
-        <v>0.992</v>
+        <v>0.991</v>
       </c>
     </row>
     <row r="27">
@@ -2629,7 +2629,7 @@
         <v>5.087</v>
       </c>
       <c r="R27" t="n">
-        <v>4.87</v>
+        <v>4.763</v>
       </c>
       <c r="S27" t="n">
         <v>0.971</v>
@@ -2644,7 +2644,7 @@
         <v>0.978</v>
       </c>
       <c r="W27" t="n">
-        <v>0.968</v>
+        <v>0.966</v>
       </c>
     </row>
     <row r="28">
@@ -2700,7 +2700,7 @@
         <v>4.683</v>
       </c>
       <c r="R28" t="n">
-        <v>4.36</v>
+        <v>4.261</v>
       </c>
       <c r="S28" t="n">
         <v>0.984</v>
@@ -2715,7 +2715,7 @@
         <v>0.982</v>
       </c>
       <c r="W28" t="n">
-        <v>0.983</v>
+        <v>0.982</v>
       </c>
     </row>
     <row r="29">
@@ -2771,7 +2771,7 @@
         <v>4.945</v>
       </c>
       <c r="R29" t="n">
-        <v>4.986</v>
+        <v>4.962</v>
       </c>
       <c r="S29" t="n">
         <v>0.958</v>
@@ -2786,7 +2786,7 @@
         <v>0.963</v>
       </c>
       <c r="W29" t="n">
-        <v>0.958</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="30">
@@ -2842,7 +2842,7 @@
         <v>4.21</v>
       </c>
       <c r="R30" t="n">
-        <v>3.933</v>
+        <v>3.842</v>
       </c>
       <c r="S30" t="n">
         <v>0.971</v>
@@ -2913,7 +2913,7 @@
         <v>5.383</v>
       </c>
       <c r="R31" t="n">
-        <v>5.05</v>
+        <v>5.022</v>
       </c>
       <c r="S31" t="n">
         <v>0.993</v>
@@ -2928,7 +2928,7 @@
         <v>0.992</v>
       </c>
       <c r="W31" t="n">
-        <v>0.992</v>
+        <v>0.991</v>
       </c>
     </row>
     <row r="32">
@@ -2984,7 +2984,7 @@
         <v>6.877</v>
       </c>
       <c r="R32" t="n">
-        <v>7.043</v>
+        <v>6.935</v>
       </c>
       <c r="S32" t="n">
         <v>0.997</v>
@@ -3055,7 +3055,7 @@
         <v>4.263</v>
       </c>
       <c r="R33" t="n">
-        <v>4.244</v>
+        <v>4.222</v>
       </c>
       <c r="S33" t="n">
         <v>0.918</v>
@@ -3070,7 +3070,7 @@
         <v>0.95</v>
       </c>
       <c r="W33" t="n">
-        <v>0.937</v>
+        <v>0.935</v>
       </c>
     </row>
     <row r="34">
@@ -3126,7 +3126,7 @@
         <v>5.073</v>
       </c>
       <c r="R34" t="n">
-        <v>5.257</v>
+        <v>5.132</v>
       </c>
       <c r="S34" t="n">
         <v>0.981</v>
@@ -3141,7 +3141,7 @@
         <v>0.983</v>
       </c>
       <c r="W34" t="n">
-        <v>0.979</v>
+        <v>0.977</v>
       </c>
     </row>
     <row r="35">
@@ -3197,7 +3197,7 @@
         <v>6.109</v>
       </c>
       <c r="R35" t="n">
-        <v>6.31</v>
+        <v>6.183</v>
       </c>
       <c r="S35" t="n">
         <v>0.993</v>
@@ -3212,7 +3212,7 @@
         <v>0.991</v>
       </c>
       <c r="W35" t="n">
-        <v>0.99</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="36">
@@ -3268,7 +3268,7 @@
         <v>3.379</v>
       </c>
       <c r="R36" t="n">
-        <v>3.518</v>
+        <v>3.435</v>
       </c>
       <c r="S36" t="n">
         <v>0.987</v>
@@ -3283,7 +3283,7 @@
         <v>0.987</v>
       </c>
       <c r="W36" t="n">
-        <v>0.985</v>
+        <v>0.984</v>
       </c>
     </row>
     <row r="37">
@@ -3339,7 +3339,7 @@
         <v>4.358</v>
       </c>
       <c r="R37" t="n">
-        <v>4.32</v>
+        <v>4.214</v>
       </c>
       <c r="S37" t="n">
         <v>0.98</v>
@@ -3410,7 +3410,7 @@
         <v>3.356</v>
       </c>
       <c r="R38" t="n">
-        <v>3.495</v>
+        <v>3.409</v>
       </c>
       <c r="S38" t="n">
         <v>0.982</v>
@@ -3425,7 +3425,7 @@
         <v>0.984</v>
       </c>
       <c r="W38" t="n">
-        <v>0.982</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="39">
@@ -3481,7 +3481,7 @@
         <v>4.642</v>
       </c>
       <c r="R39" t="n">
-        <v>4.627</v>
+        <v>4.54</v>
       </c>
       <c r="S39" t="n">
         <v>0.92</v>
@@ -3496,7 +3496,7 @@
         <v>0.94</v>
       </c>
       <c r="W39" t="n">
-        <v>0.929</v>
+        <v>0.926</v>
       </c>
     </row>
     <row r="40">
@@ -3552,7 +3552,7 @@
         <v>5.394</v>
       </c>
       <c r="R40" t="n">
-        <v>5.485</v>
+        <v>5.451</v>
       </c>
       <c r="S40" t="n">
         <v>0.911</v>
@@ -3567,7 +3567,7 @@
         <v>0.873</v>
       </c>
       <c r="W40" t="n">
-        <v>0.89</v>
+        <v>0.891</v>
       </c>
     </row>
     <row r="41">
@@ -3623,7 +3623,7 @@
         <v>0.269</v>
       </c>
       <c r="R41" t="n">
-        <v>0.255</v>
+        <v>0.254</v>
       </c>
       <c r="S41" t="n">
         <v>0.994</v>
@@ -3638,7 +3638,7 @@
         <v>0.972</v>
       </c>
       <c r="W41" t="n">
-        <v>0.991</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="42">
@@ -3694,7 +3694,7 @@
         <v>0.908</v>
       </c>
       <c r="R42" t="n">
-        <v>0.907</v>
+        <v>0.909</v>
       </c>
       <c r="S42" t="n">
         <v>1</v>
@@ -3709,7 +3709,7 @@
         <v>0.995</v>
       </c>
       <c r="W42" t="n">
-        <v>0.998</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="43">
@@ -3765,7 +3765,7 @@
         <v>0.31</v>
       </c>
       <c r="R43" t="n">
-        <v>0.352</v>
+        <v>0.353</v>
       </c>
       <c r="S43" t="n">
         <v>0.638</v>
@@ -3780,7 +3780,7 @@
         <v>0.645</v>
       </c>
       <c r="W43" t="n">
-        <v>0.667</v>
+        <v>0.668</v>
       </c>
     </row>
     <row r="44">
@@ -3836,7 +3836,7 @@
         <v>0.445</v>
       </c>
       <c r="R44" t="n">
-        <v>0.437</v>
+        <v>0.421</v>
       </c>
       <c r="S44" t="n">
         <v>0.979</v>
@@ -3851,7 +3851,7 @@
         <v>0.974</v>
       </c>
       <c r="W44" t="n">
-        <v>0.976</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="45">
@@ -3978,7 +3978,7 @@
         <v>0.03</v>
       </c>
       <c r="R46" t="n">
-        <v>0.028</v>
+        <v>0.029</v>
       </c>
       <c r="S46" t="n">
         <v>0.475</v>
@@ -3993,7 +3993,7 @@
         <v>0.441</v>
       </c>
       <c r="W46" t="n">
-        <v>0.462</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="47">
@@ -4333,7 +4333,7 @@
         <v>0.012</v>
       </c>
       <c r="R51" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="S51" t="n">
         <v>1</v>
@@ -4404,7 +4404,7 @@
         <v>0.019</v>
       </c>
       <c r="R52" t="n">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="S52" t="n">
         <v>1</v>
@@ -4475,7 +4475,7 @@
         <v>0.095</v>
       </c>
       <c r="R53" t="n">
-        <v>0.086</v>
+        <v>0.084</v>
       </c>
       <c r="S53" t="n">
         <v>0.991</v>
@@ -4490,7 +4490,7 @@
         <v>0.983</v>
       </c>
       <c r="W53" t="n">
-        <v>0.99</v>
+        <v>0.989</v>
       </c>
     </row>
     <row r="54">
@@ -4546,7 +4546,7 @@
         <v>0.014</v>
       </c>
       <c r="R54" t="n">
-        <v>0.007</v>
+        <v>0.009</v>
       </c>
       <c r="S54" t="n">
         <v>1</v>
@@ -4688,7 +4688,7 @@
         <v>0.903</v>
       </c>
       <c r="R56" t="n">
-        <v>0.913</v>
+        <v>0.914</v>
       </c>
       <c r="S56" t="n">
         <v>1</v>
@@ -4759,7 +4759,7 @@
         <v>0.022</v>
       </c>
       <c r="R57" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="S57" t="n">
         <v>1</v>
@@ -4830,7 +4830,7 @@
         <v>0.019</v>
       </c>
       <c r="R58" t="n">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="S58" t="n">
         <v>1</v>
@@ -4901,7 +4901,7 @@
         <v>0.013</v>
       </c>
       <c r="R59" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="S59" t="n">
         <v>1</v>
@@ -5185,7 +5185,7 @@
         <v>0.151</v>
       </c>
       <c r="R63" t="n">
-        <v>0.157</v>
+        <v>0.163</v>
       </c>
       <c r="S63" t="n">
         <v>0.993</v>
@@ -5256,7 +5256,7 @@
         <v>0.76</v>
       </c>
       <c r="R64" t="n">
-        <v>0.766</v>
+        <v>0.771</v>
       </c>
       <c r="S64" t="n">
         <v>0.917</v>
@@ -5271,7 +5271,7 @@
         <v>0.878</v>
       </c>
       <c r="W64" t="n">
-        <v>0.893</v>
+        <v>0.895</v>
       </c>
     </row>
     <row r="65">
@@ -5398,7 +5398,7 @@
         <v>0.464</v>
       </c>
       <c r="R66" t="n">
-        <v>0.465</v>
+        <v>0.459</v>
       </c>
       <c r="S66" t="n">
         <v>0.999</v>
@@ -5413,7 +5413,7 @@
         <v>0.99</v>
       </c>
       <c r="W66" t="n">
-        <v>0.998</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="67">
@@ -5469,7 +5469,7 @@
         <v>0.293</v>
       </c>
       <c r="R67" t="n">
-        <v>0.295</v>
+        <v>0.297</v>
       </c>
       <c r="S67" t="n">
         <v>0.868</v>
@@ -5484,7 +5484,7 @@
         <v>0.856</v>
       </c>
       <c r="W67" t="n">
-        <v>0.864</v>
+        <v>0.866</v>
       </c>
     </row>
     <row r="68">
@@ -5611,7 +5611,7 @@
         <v>0.317</v>
       </c>
       <c r="R69" t="n">
-        <v>0.338</v>
+        <v>0.341</v>
       </c>
       <c r="S69" t="n">
         <v>0.455</v>
@@ -5626,7 +5626,7 @@
         <v>0.402</v>
       </c>
       <c r="W69" t="n">
-        <v>0.433</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="70">
@@ -5682,7 +5682,7 @@
         <v>0.613</v>
       </c>
       <c r="R70" t="n">
-        <v>0.641</v>
+        <v>0.633</v>
       </c>
       <c r="S70" t="n">
         <v>0.996</v>
@@ -5753,7 +5753,7 @@
         <v>0.084</v>
       </c>
       <c r="R71" t="n">
-        <v>0.108</v>
+        <v>0.104</v>
       </c>
       <c r="S71" t="n">
         <v>0.422</v>
@@ -5768,7 +5768,7 @@
         <v>0.38</v>
       </c>
       <c r="W71" t="n">
-        <v>0.353</v>
+        <v>0.361</v>
       </c>
     </row>
     <row r="72">
@@ -5895,7 +5895,7 @@
         <v>0.129</v>
       </c>
       <c r="R73" t="n">
-        <v>0.108</v>
+        <v>0.11</v>
       </c>
       <c r="S73" t="n">
         <v>0.281</v>
@@ -5910,7 +5910,7 @@
         <v>0.274</v>
       </c>
       <c r="W73" t="n">
-        <v>0.26</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="74">
@@ -5966,7 +5966,7 @@
         <v>0.276</v>
       </c>
       <c r="R74" t="n">
-        <v>0.262</v>
+        <v>0.267</v>
       </c>
       <c r="S74" t="n">
         <v>0.996</v>
@@ -6037,7 +6037,7 @@
         <v>0.113</v>
       </c>
       <c r="R75" t="n">
-        <v>0.1</v>
+        <v>0.102</v>
       </c>
       <c r="S75" t="n">
         <v>0.281</v>
@@ -6052,7 +6052,7 @@
         <v>0.273</v>
       </c>
       <c r="W75" t="n">
-        <v>0.261</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="76">
@@ -6108,7 +6108,7 @@
         <v>0.746</v>
       </c>
       <c r="R76" t="n">
-        <v>0.731</v>
+        <v>0.725</v>
       </c>
       <c r="S76" t="n">
         <v>0.992</v>
@@ -6179,7 +6179,7 @@
         <v>0.058</v>
       </c>
       <c r="R77" t="n">
-        <v>0.062</v>
+        <v>0.063</v>
       </c>
       <c r="S77" t="n">
         <v>0.918</v>
@@ -6194,7 +6194,7 @@
         <v>0.879</v>
       </c>
       <c r="W77" t="n">
-        <v>0.896</v>
+        <v>0.898</v>
       </c>
     </row>
   </sheetData>
